--- a/Downer/40011514/IDC _ITP_3700 Pavement Renewal.xlsx
+++ b/Downer/40011514/IDC _ITP_3700 Pavement Renewal.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\40011514\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821DCA7B-F8E3-41F0-98D9-3E26DA53F81C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E203828-58F7-487C-9A71-37A55E75E004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="1140" windowWidth="27285" windowHeight="18495" tabRatio="619" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5115" yWindow="1335" windowWidth="27285" windowHeight="18495" tabRatio="619" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Work Group" sheetId="108" r:id="rId1"/>
     <sheet name="3711_22_25_32_41 Stabilisat" sheetId="106" state="hidden" r:id="rId2"/>
     <sheet name="3712_FBS" sheetId="99" state="hidden" r:id="rId3"/>
-    <sheet name="3721_23_24_33_34_42 Overlay" sheetId="107" r:id="rId4"/>
-    <sheet name="3731_Granular replacement" sheetId="101" r:id="rId5"/>
+    <sheet name="3721_23_24_33_34_42 Overlay" sheetId="107" state="hidden" r:id="rId4"/>
+    <sheet name="3731_Granular replacement" sheetId="101" state="hidden" r:id="rId5"/>
     <sheet name="3761_Subsoil" sheetId="104" r:id="rId6"/>
     <sheet name="Sealing CE" sheetId="67" state="hidden" r:id="rId7"/>
     <sheet name="DATA" sheetId="68" state="hidden" r:id="rId8"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3484" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3535" uniqueCount="650">
   <si>
     <t>Similar ITP to be use in the below item grouping</t>
   </si>
@@ -4739,7 +4739,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="674">
+  <cellXfs count="664">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -5874,6 +5874,207 @@
     <xf numFmtId="0" fontId="10" fillId="16" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5884,9 +6085,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5943,104 +6141,92 @@
     <xf numFmtId="0" fontId="29" fillId="18" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6051,11 +6237,11 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6063,6 +6249,18 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6072,104 +6270,116 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6180,64 +6390,205 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="88" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6246,58 +6597,13 @@
     <xf numFmtId="0" fontId="9" fillId="12" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6318,186 +6624,6 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="72" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6505,6 +6631,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6551,37 +6708,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6594,176 +6720,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="20" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="25" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="16" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6772,175 +6742,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C133B152-DBC4-4F02-B637-5DF305247E78}"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="73">
     <dxf>
       <fill>
         <patternFill>
@@ -7014,7 +6816,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7028,6 +6837,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
@@ -7035,7 +6858,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7070,7 +6900,84 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7092,6 +6999,13 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -9519,22 +9433,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="413"/>
-      <c r="B1" s="413"/>
-      <c r="C1" s="413"/>
-      <c r="D1" s="413"/>
-      <c r="E1" s="409" t="s">
+      <c r="A1" s="427"/>
+      <c r="B1" s="427"/>
+      <c r="C1" s="427"/>
+      <c r="D1" s="427"/>
+      <c r="E1" s="428" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="91" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="356"/>
-      <c r="H1" s="414" t="s">
+      <c r="H1" s="429" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="414"/>
-      <c r="J1" s="414"/>
+      <c r="I1" s="429"/>
+      <c r="J1" s="429"/>
       <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
@@ -9551,19 +9465,19 @@
       <c r="P1" s="86"/>
     </row>
     <row r="2" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="413"/>
-      <c r="B2" s="413"/>
-      <c r="C2" s="413"/>
-      <c r="D2" s="413"/>
-      <c r="E2" s="409"/>
+      <c r="A2" s="427"/>
+      <c r="B2" s="427"/>
+      <c r="C2" s="427"/>
+      <c r="D2" s="427"/>
+      <c r="E2" s="428"/>
       <c r="F2" s="91" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="356"/>
-      <c r="H2" s="411" t="s">
+      <c r="H2" s="430" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="411"/>
+      <c r="I2" s="430"/>
       <c r="J2" s="5" t="s">
         <v>19</v>
       </c>
@@ -9583,19 +9497,19 @@
       <c r="P2" s="87"/>
     </row>
     <row r="3" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="413"/>
-      <c r="B3" s="413"/>
-      <c r="C3" s="413"/>
-      <c r="D3" s="413"/>
-      <c r="E3" s="411" t="s">
+      <c r="A3" s="427"/>
+      <c r="B3" s="427"/>
+      <c r="C3" s="427"/>
+      <c r="D3" s="427"/>
+      <c r="E3" s="430" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="411"/>
-      <c r="G3" s="411"/>
-      <c r="H3" s="411" t="s">
+      <c r="F3" s="430"/>
+      <c r="G3" s="430"/>
+      <c r="H3" s="430" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="411"/>
+      <c r="I3" s="430"/>
       <c r="J3" s="5" t="s">
         <v>22</v>
       </c>
@@ -9611,17 +9525,17 @@
       <c r="P3" s="87"/>
     </row>
     <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="413"/>
-      <c r="B4" s="413"/>
-      <c r="C4" s="413"/>
-      <c r="D4" s="413"/>
-      <c r="E4" s="411"/>
-      <c r="F4" s="411"/>
-      <c r="G4" s="411"/>
-      <c r="H4" s="411" t="s">
+      <c r="A4" s="427"/>
+      <c r="B4" s="427"/>
+      <c r="C4" s="427"/>
+      <c r="D4" s="427"/>
+      <c r="E4" s="430"/>
+      <c r="F4" s="430"/>
+      <c r="G4" s="430"/>
+      <c r="H4" s="430" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="411"/>
+      <c r="I4" s="430"/>
       <c r="J4" s="5" t="s">
         <v>24</v>
       </c>
@@ -9641,23 +9555,23 @@
       <c r="P4" s="87"/>
     </row>
     <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="405" t="s">
+      <c r="A5" s="434" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="405"/>
-      <c r="C5" s="407" t="s">
+      <c r="B5" s="434"/>
+      <c r="C5" s="436" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="407"/>
-      <c r="E5" s="409" t="s">
+      <c r="D5" s="436"/>
+      <c r="E5" s="428" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="409"/>
-      <c r="G5" s="409"/>
-      <c r="H5" s="411" t="s">
+      <c r="F5" s="428"/>
+      <c r="G5" s="428"/>
+      <c r="H5" s="430" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="411"/>
+      <c r="I5" s="430"/>
       <c r="J5" s="5" t="s">
         <v>29</v>
       </c>
@@ -9673,17 +9587,17 @@
       <c r="P5" s="87"/>
     </row>
     <row r="6" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="405"/>
-      <c r="B6" s="405"/>
-      <c r="C6" s="407"/>
-      <c r="D6" s="407"/>
-      <c r="E6" s="409"/>
-      <c r="F6" s="409"/>
-      <c r="G6" s="409"/>
-      <c r="H6" s="411" t="s">
+      <c r="A6" s="434"/>
+      <c r="B6" s="434"/>
+      <c r="C6" s="436"/>
+      <c r="D6" s="436"/>
+      <c r="E6" s="428"/>
+      <c r="F6" s="428"/>
+      <c r="G6" s="428"/>
+      <c r="H6" s="430" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="411"/>
+      <c r="I6" s="430"/>
       <c r="J6" s="5" t="s">
         <v>19</v>
       </c>
@@ -9699,17 +9613,17 @@
       <c r="P6" s="87"/>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="406"/>
-      <c r="B7" s="406"/>
-      <c r="C7" s="408"/>
-      <c r="D7" s="408"/>
-      <c r="E7" s="410"/>
-      <c r="F7" s="410"/>
-      <c r="G7" s="410"/>
-      <c r="H7" s="412" t="s">
+      <c r="A7" s="435"/>
+      <c r="B7" s="435"/>
+      <c r="C7" s="437"/>
+      <c r="D7" s="437"/>
+      <c r="E7" s="438"/>
+      <c r="F7" s="438"/>
+      <c r="G7" s="438"/>
+      <c r="H7" s="439" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="412"/>
+      <c r="I7" s="439"/>
       <c r="J7" s="83" t="s">
         <v>32</v>
       </c>
@@ -9725,61 +9639,61 @@
       <c r="P7" s="87"/>
     </row>
     <row r="8" spans="1:21" s="268" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="419" t="s">
+      <c r="A8" s="443" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="421" t="s">
+      <c r="B8" s="424" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="421" t="s">
+      <c r="C8" s="424" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="421"/>
-      <c r="E8" s="421"/>
-      <c r="F8" s="421"/>
-      <c r="G8" s="421" t="s">
+      <c r="D8" s="424"/>
+      <c r="E8" s="424"/>
+      <c r="F8" s="424"/>
+      <c r="G8" s="424" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="421" t="s">
+      <c r="H8" s="424" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="421" t="s">
+      <c r="I8" s="424" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="421" t="s">
+      <c r="J8" s="424" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="421" t="s">
+      <c r="K8" s="424" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="421"/>
-      <c r="M8" s="421"/>
-      <c r="N8" s="421"/>
-      <c r="O8" s="423" t="s">
+      <c r="L8" s="424"/>
+      <c r="M8" s="424"/>
+      <c r="N8" s="424"/>
+      <c r="O8" s="425" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="423" t="s">
+      <c r="P8" s="425" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="417" t="s">
+      <c r="Q8" s="420" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="417" t="s">
+      <c r="R8" s="420" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="417" t="s">
+      <c r="S8" s="420" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="417" t="s">
+      <c r="T8" s="420" t="s">
         <v>45</v>
       </c>
-      <c r="U8" s="425" t="s">
+      <c r="U8" s="422" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="268" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="420"/>
-      <c r="B9" s="422"/>
+      <c r="A9" s="444"/>
+      <c r="B9" s="445"/>
       <c r="C9" s="6" t="s">
         <v>47</v>
       </c>
@@ -9792,10 +9706,10 @@
       <c r="F9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="422"/>
-      <c r="H9" s="422"/>
-      <c r="I9" s="422"/>
-      <c r="J9" s="422"/>
+      <c r="G9" s="445"/>
+      <c r="H9" s="445"/>
+      <c r="I9" s="445"/>
+      <c r="J9" s="445"/>
       <c r="K9" s="8" t="s">
         <v>51</v>
       </c>
@@ -9808,13 +9722,13 @@
       <c r="N9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="424"/>
-      <c r="P9" s="424"/>
-      <c r="Q9" s="418"/>
-      <c r="R9" s="418"/>
-      <c r="S9" s="418"/>
-      <c r="T9" s="418"/>
-      <c r="U9" s="426"/>
+      <c r="O9" s="426"/>
+      <c r="P9" s="426"/>
+      <c r="Q9" s="421"/>
+      <c r="R9" s="421"/>
+      <c r="S9" s="421"/>
+      <c r="T9" s="421"/>
+      <c r="U9" s="423"/>
     </row>
     <row r="10" spans="1:21" s="268" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="187"/>
@@ -9840,29 +9754,29 @@
       <c r="U10" s="291"/>
     </row>
     <row r="11" spans="1:21" s="267" customFormat="1" ht="38.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="383" t="s">
+      <c r="A11" s="440" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="415"/>
-      <c r="C11" s="415"/>
-      <c r="D11" s="415"/>
-      <c r="E11" s="415"/>
-      <c r="F11" s="415"/>
-      <c r="G11" s="415"/>
-      <c r="H11" s="415"/>
-      <c r="I11" s="415"/>
-      <c r="J11" s="415"/>
-      <c r="K11" s="415"/>
-      <c r="L11" s="415"/>
-      <c r="M11" s="415"/>
-      <c r="N11" s="415"/>
-      <c r="O11" s="415"/>
-      <c r="P11" s="415"/>
-      <c r="Q11" s="415"/>
-      <c r="R11" s="415"/>
-      <c r="S11" s="415"/>
-      <c r="T11" s="415"/>
-      <c r="U11" s="416"/>
+      <c r="B11" s="441"/>
+      <c r="C11" s="441"/>
+      <c r="D11" s="441"/>
+      <c r="E11" s="441"/>
+      <c r="F11" s="441"/>
+      <c r="G11" s="441"/>
+      <c r="H11" s="441"/>
+      <c r="I11" s="441"/>
+      <c r="J11" s="441"/>
+      <c r="K11" s="441"/>
+      <c r="L11" s="441"/>
+      <c r="M11" s="441"/>
+      <c r="N11" s="441"/>
+      <c r="O11" s="441"/>
+      <c r="P11" s="441"/>
+      <c r="Q11" s="441"/>
+      <c r="R11" s="441"/>
+      <c r="S11" s="441"/>
+      <c r="T11" s="441"/>
+      <c r="U11" s="442"/>
     </row>
     <row r="12" spans="1:21" s="268" customFormat="1" ht="25.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="229">
@@ -10580,29 +10494,29 @@
       </c>
     </row>
     <row r="23" spans="1:21" s="268" customFormat="1" ht="38.25" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="402" t="s">
+      <c r="A23" s="431" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="403"/>
-      <c r="C23" s="403"/>
-      <c r="D23" s="403"/>
-      <c r="E23" s="403"/>
-      <c r="F23" s="403"/>
-      <c r="G23" s="403"/>
-      <c r="H23" s="403"/>
-      <c r="I23" s="403"/>
-      <c r="J23" s="403"/>
-      <c r="K23" s="403"/>
-      <c r="L23" s="403"/>
-      <c r="M23" s="403"/>
-      <c r="N23" s="403"/>
-      <c r="O23" s="403"/>
-      <c r="P23" s="403"/>
-      <c r="Q23" s="403"/>
-      <c r="R23" s="403"/>
-      <c r="S23" s="403"/>
-      <c r="T23" s="403"/>
-      <c r="U23" s="404"/>
+      <c r="B23" s="432"/>
+      <c r="C23" s="432"/>
+      <c r="D23" s="432"/>
+      <c r="E23" s="432"/>
+      <c r="F23" s="432"/>
+      <c r="G23" s="432"/>
+      <c r="H23" s="432"/>
+      <c r="I23" s="432"/>
+      <c r="J23" s="432"/>
+      <c r="K23" s="432"/>
+      <c r="L23" s="432"/>
+      <c r="M23" s="432"/>
+      <c r="N23" s="432"/>
+      <c r="O23" s="432"/>
+      <c r="P23" s="432"/>
+      <c r="Q23" s="432"/>
+      <c r="R23" s="432"/>
+      <c r="S23" s="432"/>
+      <c r="T23" s="432"/>
+      <c r="U23" s="433"/>
     </row>
     <row r="24" spans="1:21" s="268" customFormat="1" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="237">
@@ -11122,35 +11036,35 @@
       </c>
     </row>
     <row r="32" spans="1:21" s="267" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="383" t="s">
+      <c r="A32" s="440" t="s">
         <v>177</v>
       </c>
-      <c r="B32" s="384"/>
-      <c r="C32" s="384"/>
-      <c r="D32" s="384"/>
-      <c r="E32" s="384"/>
-      <c r="F32" s="384"/>
-      <c r="G32" s="384"/>
-      <c r="H32" s="384"/>
-      <c r="I32" s="384"/>
-      <c r="J32" s="384"/>
-      <c r="K32" s="384"/>
-      <c r="L32" s="384"/>
-      <c r="M32" s="384"/>
-      <c r="N32" s="384"/>
-      <c r="O32" s="384"/>
-      <c r="P32" s="384"/>
-      <c r="Q32" s="384"/>
-      <c r="R32" s="384"/>
-      <c r="S32" s="384"/>
-      <c r="T32" s="384"/>
-      <c r="U32" s="385"/>
+      <c r="B32" s="450"/>
+      <c r="C32" s="450"/>
+      <c r="D32" s="450"/>
+      <c r="E32" s="450"/>
+      <c r="F32" s="450"/>
+      <c r="G32" s="450"/>
+      <c r="H32" s="450"/>
+      <c r="I32" s="450"/>
+      <c r="J32" s="450"/>
+      <c r="K32" s="450"/>
+      <c r="L32" s="450"/>
+      <c r="M32" s="450"/>
+      <c r="N32" s="450"/>
+      <c r="O32" s="450"/>
+      <c r="P32" s="450"/>
+      <c r="Q32" s="450"/>
+      <c r="R32" s="450"/>
+      <c r="S32" s="450"/>
+      <c r="T32" s="450"/>
+      <c r="U32" s="451"/>
     </row>
     <row r="33" spans="1:21" s="268" customFormat="1" ht="68.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="236">
         <v>3.01</v>
       </c>
-      <c r="B33" s="392" t="s">
+      <c r="B33" s="458" t="s">
         <v>178</v>
       </c>
       <c r="C33" s="230" t="s">
@@ -11198,10 +11112,10 @@
       <c r="S33" s="235" t="s">
         <v>125</v>
       </c>
-      <c r="T33" s="379" t="s">
+      <c r="T33" s="446" t="s">
         <v>184</v>
       </c>
-      <c r="U33" s="401" t="s">
+      <c r="U33" s="467" t="s">
         <v>185</v>
       </c>
     </row>
@@ -11210,7 +11124,7 @@
         <f>+A33+0.01</f>
         <v>3.0199999999999996</v>
       </c>
-      <c r="B34" s="392"/>
+      <c r="B34" s="458"/>
       <c r="C34" s="230" t="s">
         <v>186</v>
       </c>
@@ -11256,15 +11170,15 @@
       <c r="S34" s="235" t="s">
         <v>125</v>
       </c>
-      <c r="T34" s="379"/>
-      <c r="U34" s="401"/>
+      <c r="T34" s="446"/>
+      <c r="U34" s="467"/>
     </row>
     <row r="35" spans="1:21" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="236">
         <f t="shared" ref="A35:A51" si="1">+A34+0.01</f>
         <v>3.0299999999999994</v>
       </c>
-      <c r="B35" s="392"/>
+      <c r="B35" s="458"/>
       <c r="C35" s="230" t="s">
         <v>188</v>
       </c>
@@ -11632,7 +11546,7 @@
         <f t="shared" si="1"/>
         <v>3.0799999999999983</v>
       </c>
-      <c r="B41" s="393" t="s">
+      <c r="B41" s="459" t="s">
         <v>213</v>
       </c>
       <c r="C41" s="201" t="s">
@@ -11692,7 +11606,7 @@
         <f t="shared" si="1"/>
         <v>3.0899999999999981</v>
       </c>
-      <c r="B42" s="393"/>
+      <c r="B42" s="459"/>
       <c r="C42" s="201" t="s">
         <v>218</v>
       </c>
@@ -11750,7 +11664,7 @@
         <f t="shared" si="1"/>
         <v>3.0999999999999979</v>
       </c>
-      <c r="B43" s="393"/>
+      <c r="B43" s="459"/>
       <c r="C43" s="201" t="s">
         <v>222</v>
       </c>
@@ -12324,29 +12238,29 @@
       </c>
     </row>
     <row r="52" spans="1:21" s="267" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="380" t="s">
+      <c r="A52" s="447" t="s">
         <v>253</v>
       </c>
-      <c r="B52" s="381"/>
-      <c r="C52" s="381"/>
-      <c r="D52" s="381"/>
-      <c r="E52" s="381"/>
-      <c r="F52" s="381"/>
-      <c r="G52" s="381"/>
-      <c r="H52" s="381"/>
-      <c r="I52" s="381"/>
-      <c r="J52" s="381"/>
-      <c r="K52" s="381"/>
-      <c r="L52" s="381"/>
-      <c r="M52" s="381"/>
-      <c r="N52" s="381"/>
-      <c r="O52" s="381"/>
-      <c r="P52" s="381"/>
-      <c r="Q52" s="381"/>
-      <c r="R52" s="381"/>
-      <c r="S52" s="381"/>
-      <c r="T52" s="381"/>
-      <c r="U52" s="382"/>
+      <c r="B52" s="448"/>
+      <c r="C52" s="448"/>
+      <c r="D52" s="448"/>
+      <c r="E52" s="448"/>
+      <c r="F52" s="448"/>
+      <c r="G52" s="448"/>
+      <c r="H52" s="448"/>
+      <c r="I52" s="448"/>
+      <c r="J52" s="448"/>
+      <c r="K52" s="448"/>
+      <c r="L52" s="448"/>
+      <c r="M52" s="448"/>
+      <c r="N52" s="448"/>
+      <c r="O52" s="448"/>
+      <c r="P52" s="448"/>
+      <c r="Q52" s="448"/>
+      <c r="R52" s="448"/>
+      <c r="S52" s="448"/>
+      <c r="T52" s="448"/>
+      <c r="U52" s="449"/>
     </row>
     <row r="53" spans="1:21" s="203" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="284">
@@ -12719,29 +12633,29 @@
       </c>
     </row>
     <row r="59" spans="1:21" s="268" customFormat="1" ht="45" customHeight="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="398" t="s">
+      <c r="A59" s="464" t="s">
         <v>284</v>
       </c>
-      <c r="B59" s="399"/>
-      <c r="C59" s="399"/>
-      <c r="D59" s="399"/>
-      <c r="E59" s="399"/>
-      <c r="F59" s="399"/>
-      <c r="G59" s="399"/>
-      <c r="H59" s="399"/>
-      <c r="I59" s="399"/>
-      <c r="J59" s="399"/>
-      <c r="K59" s="399"/>
-      <c r="L59" s="399"/>
-      <c r="M59" s="399"/>
-      <c r="N59" s="399"/>
-      <c r="O59" s="399"/>
-      <c r="P59" s="399"/>
-      <c r="Q59" s="399"/>
-      <c r="R59" s="399"/>
-      <c r="S59" s="399"/>
-      <c r="T59" s="399"/>
-      <c r="U59" s="400"/>
+      <c r="B59" s="465"/>
+      <c r="C59" s="465"/>
+      <c r="D59" s="465"/>
+      <c r="E59" s="465"/>
+      <c r="F59" s="465"/>
+      <c r="G59" s="465"/>
+      <c r="H59" s="465"/>
+      <c r="I59" s="465"/>
+      <c r="J59" s="465"/>
+      <c r="K59" s="465"/>
+      <c r="L59" s="465"/>
+      <c r="M59" s="465"/>
+      <c r="N59" s="465"/>
+      <c r="O59" s="465"/>
+      <c r="P59" s="465"/>
+      <c r="Q59" s="465"/>
+      <c r="R59" s="465"/>
+      <c r="S59" s="465"/>
+      <c r="T59" s="465"/>
+      <c r="U59" s="466"/>
     </row>
     <row r="60" spans="1:21" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O60" s="203"/>
@@ -12762,24 +12676,24 @@
       <c r="I61" s="365" t="s">
         <v>286</v>
       </c>
-      <c r="J61" s="394" t="s">
+      <c r="J61" s="460" t="s">
         <v>287</v>
       </c>
-      <c r="K61" s="394"/>
-      <c r="L61" s="394"/>
-      <c r="M61" s="394"/>
-      <c r="N61" s="395"/>
+      <c r="K61" s="460"/>
+      <c r="L61" s="460"/>
+      <c r="M61" s="460"/>
+      <c r="N61" s="461"/>
       <c r="P61" s="366"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="367"/>
       <c r="H62" s="368"/>
       <c r="I62" s="369"/>
-      <c r="J62" s="396"/>
-      <c r="K62" s="396"/>
-      <c r="L62" s="396"/>
-      <c r="M62" s="396"/>
-      <c r="N62" s="397"/>
+      <c r="J62" s="462"/>
+      <c r="K62" s="462"/>
+      <c r="L62" s="462"/>
+      <c r="M62" s="462"/>
+      <c r="N62" s="463"/>
       <c r="O62" s="366"/>
       <c r="P62" s="366"/>
     </row>
@@ -12799,13 +12713,13 @@
       <c r="I63" s="371" t="s">
         <v>292</v>
       </c>
-      <c r="J63" s="388" t="s">
+      <c r="J63" s="454" t="s">
         <v>293</v>
       </c>
-      <c r="K63" s="388"/>
-      <c r="L63" s="388"/>
-      <c r="M63" s="388"/>
-      <c r="N63" s="389"/>
+      <c r="K63" s="454"/>
+      <c r="L63" s="454"/>
+      <c r="M63" s="454"/>
+      <c r="N63" s="455"/>
       <c r="O63" s="366"/>
       <c r="P63" s="366"/>
     </row>
@@ -12813,20 +12727,20 @@
       <c r="A64" s="367"/>
       <c r="H64" s="368"/>
       <c r="I64" s="369"/>
-      <c r="J64" s="388"/>
-      <c r="K64" s="388"/>
-      <c r="L64" s="388"/>
-      <c r="M64" s="388"/>
-      <c r="N64" s="389"/>
+      <c r="J64" s="454"/>
+      <c r="K64" s="454"/>
+      <c r="L64" s="454"/>
+      <c r="M64" s="454"/>
+      <c r="N64" s="455"/>
       <c r="O64" s="366"/>
       <c r="P64" s="366"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A65" s="386" t="s">
+      <c r="A65" s="452" t="s">
         <v>294</v>
       </c>
-      <c r="B65" s="387"/>
-      <c r="C65" s="387"/>
+      <c r="B65" s="453"/>
+      <c r="C65" s="453"/>
       <c r="D65" s="357" t="s">
         <v>289</v>
       </c>
@@ -12839,13 +12753,13 @@
       <c r="I65" s="357" t="s">
         <v>295</v>
       </c>
-      <c r="J65" s="388" t="s">
+      <c r="J65" s="454" t="s">
         <v>296</v>
       </c>
-      <c r="K65" s="388"/>
-      <c r="L65" s="388"/>
-      <c r="M65" s="388"/>
-      <c r="N65" s="389"/>
+      <c r="K65" s="454"/>
+      <c r="L65" s="454"/>
+      <c r="M65" s="454"/>
+      <c r="N65" s="455"/>
       <c r="O65" s="366"/>
       <c r="P65" s="366"/>
     </row>
@@ -12859,11 +12773,11 @@
       <c r="G66" s="373"/>
       <c r="H66" s="374"/>
       <c r="I66" s="373"/>
-      <c r="J66" s="390"/>
-      <c r="K66" s="390"/>
-      <c r="L66" s="390"/>
-      <c r="M66" s="390"/>
-      <c r="N66" s="391"/>
+      <c r="J66" s="456"/>
+      <c r="K66" s="456"/>
+      <c r="L66" s="456"/>
+      <c r="M66" s="456"/>
+      <c r="N66" s="457"/>
       <c r="O66" s="366"/>
       <c r="P66" s="366"/>
     </row>
@@ -12873,21 +12787,17 @@
   </sheetData>
   <autoFilter ref="A10:U59" xr:uid="{DF439493-26CE-48BA-9DA7-277495715DBD}"/>
   <mergeCells count="42">
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:D4"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="T33:T34"/>
+    <mergeCell ref="A52:U52"/>
+    <mergeCell ref="A32:U32"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="J65:N66"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="J61:N62"/>
+    <mergeCell ref="J63:N64"/>
+    <mergeCell ref="A59:U59"/>
+    <mergeCell ref="U33:U34"/>
     <mergeCell ref="A23:U23"/>
     <mergeCell ref="A5:B7"/>
     <mergeCell ref="C5:D7"/>
@@ -12904,68 +12814,72 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="T33:T34"/>
-    <mergeCell ref="A52:U52"/>
-    <mergeCell ref="A32:U32"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="J65:N66"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="J61:N62"/>
-    <mergeCell ref="J63:N64"/>
-    <mergeCell ref="A59:U59"/>
-    <mergeCell ref="U33:U34"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:D4"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="O8:O9"/>
   </mergeCells>
   <conditionalFormatting sqref="K12:M22">
-    <cfRule type="cellIs" dxfId="80" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:M31">
-    <cfRule type="containsBlanks" dxfId="77" priority="15" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="69" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(K24))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="16" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="17" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="18" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K33:M51">
-    <cfRule type="containsBlanks" dxfId="73" priority="11" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="65" priority="11" stopIfTrue="1">
       <formula>LEN(TRIM(K33))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="12" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="13" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="14" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K53:M58">
-    <cfRule type="containsBlanks" dxfId="69" priority="4" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="61" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(K53))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="5" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="6" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="7" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13021,22 +12935,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="474"/>
-      <c r="B1" s="474"/>
-      <c r="C1" s="474"/>
-      <c r="D1" s="474"/>
-      <c r="E1" s="475" t="s">
+      <c r="A1" s="476"/>
+      <c r="B1" s="476"/>
+      <c r="C1" s="476"/>
+      <c r="D1" s="476"/>
+      <c r="E1" s="477" t="s">
         <v>10</v>
       </c>
       <c r="F1" s="141" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="140"/>
-      <c r="H1" s="476" t="s">
+      <c r="H1" s="478" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="476"/>
-      <c r="J1" s="476"/>
+      <c r="I1" s="478"/>
+      <c r="J1" s="478"/>
       <c r="K1" s="142" t="s">
         <v>13</v>
       </c>
@@ -13058,19 +12972,19 @@
       <c r="U1" s="140"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="474"/>
-      <c r="B2" s="474"/>
-      <c r="C2" s="474"/>
-      <c r="D2" s="474"/>
-      <c r="E2" s="475"/>
+      <c r="A2" s="476"/>
+      <c r="B2" s="476"/>
+      <c r="C2" s="476"/>
+      <c r="D2" s="476"/>
+      <c r="E2" s="477"/>
       <c r="F2" s="141" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="140"/>
-      <c r="H2" s="473" t="s">
+      <c r="H2" s="475" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="473"/>
+      <c r="I2" s="475"/>
       <c r="J2" s="165" t="s">
         <v>19</v>
       </c>
@@ -13095,19 +13009,19 @@
       <c r="U2" s="140"/>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="474"/>
-      <c r="B3" s="474"/>
-      <c r="C3" s="474"/>
-      <c r="D3" s="474"/>
-      <c r="E3" s="473" t="s">
+      <c r="A3" s="476"/>
+      <c r="B3" s="476"/>
+      <c r="C3" s="476"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="475" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="473"/>
-      <c r="G3" s="473"/>
-      <c r="H3" s="473" t="s">
+      <c r="F3" s="475"/>
+      <c r="G3" s="475"/>
+      <c r="H3" s="475" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="473"/>
+      <c r="I3" s="475"/>
       <c r="J3" s="165" t="s">
         <v>22</v>
       </c>
@@ -13128,17 +13042,17 @@
       <c r="U3" s="140"/>
     </row>
     <row r="4" spans="1:24" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="474"/>
-      <c r="B4" s="474"/>
-      <c r="C4" s="474"/>
-      <c r="D4" s="474"/>
-      <c r="E4" s="473"/>
-      <c r="F4" s="473"/>
-      <c r="G4" s="473"/>
-      <c r="H4" s="473" t="s">
+      <c r="A4" s="476"/>
+      <c r="B4" s="476"/>
+      <c r="C4" s="476"/>
+      <c r="D4" s="476"/>
+      <c r="E4" s="475"/>
+      <c r="F4" s="475"/>
+      <c r="G4" s="475"/>
+      <c r="H4" s="475" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="473"/>
+      <c r="I4" s="475"/>
       <c r="J4" s="165" t="s">
         <v>24</v>
       </c>
@@ -13163,23 +13077,23 @@
       <c r="U4" s="140"/>
     </row>
     <row r="5" spans="1:24" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="466" t="s">
+      <c r="A5" s="468" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="467"/>
-      <c r="C5" s="469" t="s">
+      <c r="B5" s="469"/>
+      <c r="C5" s="471" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="469"/>
-      <c r="E5" s="471" t="s">
+      <c r="D5" s="471"/>
+      <c r="E5" s="473" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="471"/>
-      <c r="G5" s="471"/>
-      <c r="H5" s="473" t="s">
+      <c r="F5" s="473"/>
+      <c r="G5" s="473"/>
+      <c r="H5" s="475" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="473"/>
+      <c r="I5" s="475"/>
       <c r="J5" s="165" t="s">
         <v>29</v>
       </c>
@@ -13200,17 +13114,17 @@
       <c r="U5" s="140"/>
     </row>
     <row r="6" spans="1:24" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="466"/>
-      <c r="B6" s="467"/>
-      <c r="C6" s="469"/>
-      <c r="D6" s="469"/>
-      <c r="E6" s="471"/>
-      <c r="F6" s="471"/>
-      <c r="G6" s="471"/>
-      <c r="H6" s="473" t="s">
+      <c r="A6" s="468"/>
+      <c r="B6" s="469"/>
+      <c r="C6" s="471"/>
+      <c r="D6" s="471"/>
+      <c r="E6" s="473"/>
+      <c r="F6" s="473"/>
+      <c r="G6" s="473"/>
+      <c r="H6" s="475" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="473"/>
+      <c r="I6" s="475"/>
       <c r="J6" s="165" t="s">
         <v>19</v>
       </c>
@@ -13231,17 +13145,17 @@
       <c r="U6" s="140"/>
     </row>
     <row r="7" spans="1:24" s="3" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="468"/>
-      <c r="B7" s="468"/>
-      <c r="C7" s="470"/>
-      <c r="D7" s="470"/>
-      <c r="E7" s="472"/>
-      <c r="F7" s="472"/>
-      <c r="G7" s="472"/>
-      <c r="H7" s="477" t="s">
+      <c r="A7" s="470"/>
+      <c r="B7" s="470"/>
+      <c r="C7" s="472"/>
+      <c r="D7" s="472"/>
+      <c r="E7" s="474"/>
+      <c r="F7" s="474"/>
+      <c r="G7" s="474"/>
+      <c r="H7" s="479" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="477"/>
+      <c r="I7" s="479"/>
       <c r="J7" s="166" t="s">
         <v>32</v>
       </c>
@@ -13262,63 +13176,63 @@
       <c r="U7" s="150"/>
     </row>
     <row r="8" spans="1:24" s="7" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="438" t="s">
+      <c r="A8" s="506" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="440" t="s">
+      <c r="B8" s="502" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="442" t="s">
+      <c r="C8" s="508" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="443"/>
-      <c r="E8" s="443"/>
-      <c r="F8" s="444"/>
-      <c r="G8" s="445" t="s">
+      <c r="D8" s="509"/>
+      <c r="E8" s="509"/>
+      <c r="F8" s="510"/>
+      <c r="G8" s="504" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="445" t="s">
+      <c r="H8" s="504" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="445" t="s">
+      <c r="I8" s="504" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="440" t="s">
+      <c r="J8" s="502" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="445" t="s">
+      <c r="K8" s="504" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="445"/>
-      <c r="M8" s="445"/>
-      <c r="N8" s="445"/>
-      <c r="O8" s="423" t="s">
+      <c r="L8" s="504"/>
+      <c r="M8" s="504"/>
+      <c r="N8" s="504"/>
+      <c r="O8" s="425" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="423" t="s">
+      <c r="P8" s="425" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="423" t="s">
+      <c r="Q8" s="425" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="423" t="s">
+      <c r="R8" s="425" t="s">
         <v>297</v>
       </c>
-      <c r="S8" s="423" t="s">
+      <c r="S8" s="425" t="s">
         <v>298</v>
       </c>
-      <c r="T8" s="423" t="s">
+      <c r="T8" s="425" t="s">
         <v>45</v>
       </c>
-      <c r="U8" s="447" t="s">
+      <c r="U8" s="500" t="s">
         <v>46</v>
       </c>
       <c r="W8" s="88"/>
       <c r="X8" s="88"/>
     </row>
     <row r="9" spans="1:24" s="7" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="439"/>
-      <c r="B9" s="441"/>
+      <c r="A9" s="507"/>
+      <c r="B9" s="503"/>
       <c r="C9" s="138" t="s">
         <v>47</v>
       </c>
@@ -13331,10 +13245,10 @@
       <c r="F9" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="446"/>
-      <c r="H9" s="446"/>
-      <c r="I9" s="446"/>
-      <c r="J9" s="441"/>
+      <c r="G9" s="505"/>
+      <c r="H9" s="505"/>
+      <c r="I9" s="505"/>
+      <c r="J9" s="503"/>
       <c r="K9" s="139" t="s">
         <v>51</v>
       </c>
@@ -13347,13 +13261,13 @@
       <c r="N9" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="424"/>
-      <c r="P9" s="424"/>
-      <c r="Q9" s="424"/>
-      <c r="R9" s="424"/>
-      <c r="S9" s="424"/>
-      <c r="T9" s="424"/>
-      <c r="U9" s="448"/>
+      <c r="O9" s="426"/>
+      <c r="P9" s="426"/>
+      <c r="Q9" s="426"/>
+      <c r="R9" s="426"/>
+      <c r="S9" s="426"/>
+      <c r="T9" s="426"/>
+      <c r="U9" s="501"/>
       <c r="W9" s="88"/>
       <c r="X9" s="88"/>
     </row>
@@ -13383,29 +13297,29 @@
       <c r="X10" s="88"/>
     </row>
     <row r="11" spans="1:24" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="449" t="s">
+      <c r="A11" s="480" t="s">
         <v>299</v>
       </c>
-      <c r="B11" s="450"/>
-      <c r="C11" s="450"/>
-      <c r="D11" s="450"/>
-      <c r="E11" s="450"/>
-      <c r="F11" s="450"/>
-      <c r="G11" s="450"/>
-      <c r="H11" s="450"/>
-      <c r="I11" s="450"/>
-      <c r="J11" s="450"/>
-      <c r="K11" s="450"/>
-      <c r="L11" s="450"/>
-      <c r="M11" s="450"/>
-      <c r="N11" s="450"/>
-      <c r="O11" s="450"/>
-      <c r="P11" s="450"/>
-      <c r="Q11" s="450"/>
-      <c r="R11" s="450"/>
-      <c r="S11" s="450"/>
-      <c r="T11" s="450"/>
-      <c r="U11" s="451"/>
+      <c r="B11" s="481"/>
+      <c r="C11" s="481"/>
+      <c r="D11" s="481"/>
+      <c r="E11" s="481"/>
+      <c r="F11" s="481"/>
+      <c r="G11" s="481"/>
+      <c r="H11" s="481"/>
+      <c r="I11" s="481"/>
+      <c r="J11" s="481"/>
+      <c r="K11" s="481"/>
+      <c r="L11" s="481"/>
+      <c r="M11" s="481"/>
+      <c r="N11" s="481"/>
+      <c r="O11" s="481"/>
+      <c r="P11" s="481"/>
+      <c r="Q11" s="481"/>
+      <c r="R11" s="481"/>
+      <c r="S11" s="481"/>
+      <c r="T11" s="481"/>
+      <c r="U11" s="482"/>
       <c r="W11" s="88"/>
       <c r="X11" s="88"/>
     </row>
@@ -13479,16 +13393,16 @@
         <f t="shared" ref="A13:A19" si="0">+A12+0.01</f>
         <v>2.0199999999999996</v>
       </c>
-      <c r="B13" s="619" t="s">
+      <c r="B13" s="381" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="619" t="s">
+      <c r="C13" s="381" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="619" t="s">
+      <c r="D13" s="381" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="619" t="s">
+      <c r="E13" s="381" t="s">
         <v>130</v>
       </c>
       <c r="F13" s="276" t="s">
@@ -13531,10 +13445,10 @@
       <c r="S13" s="276" t="s">
         <v>125</v>
       </c>
-      <c r="T13" s="620" t="s">
+      <c r="T13" s="382" t="s">
         <v>136</v>
       </c>
-      <c r="U13" s="621" t="s">
+      <c r="U13" s="383" t="s">
         <v>303</v>
       </c>
       <c r="W13" s="88"/>
@@ -13545,16 +13459,16 @@
         <f t="shared" si="0"/>
         <v>2.0299999999999994</v>
       </c>
-      <c r="B14" s="619" t="s">
+      <c r="B14" s="381" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="619" t="s">
+      <c r="C14" s="381" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="619" t="s">
+      <c r="D14" s="381" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="619" t="s">
+      <c r="E14" s="381" t="s">
         <v>130</v>
       </c>
       <c r="F14" s="276" t="s">
@@ -13597,10 +13511,10 @@
       <c r="S14" s="276" t="s">
         <v>125</v>
       </c>
-      <c r="T14" s="620" t="s">
+      <c r="T14" s="382" t="s">
         <v>136</v>
       </c>
-      <c r="U14" s="621" t="s">
+      <c r="U14" s="383" t="s">
         <v>303</v>
       </c>
       <c r="V14" s="185" t="s">
@@ -13614,7 +13528,7 @@
         <f t="shared" si="0"/>
         <v>2.0399999999999991</v>
       </c>
-      <c r="B15" s="624" t="s">
+      <c r="B15" s="386" t="s">
         <v>143</v>
       </c>
       <c r="C15" s="273" t="s">
@@ -13668,10 +13582,10 @@
       <c r="S15" s="280" t="s">
         <v>125</v>
       </c>
-      <c r="T15" s="623" t="s">
+      <c r="T15" s="385" t="s">
         <v>71</v>
       </c>
-      <c r="U15" s="622" t="s">
+      <c r="U15" s="384" t="s">
         <v>153</v>
       </c>
       <c r="V15" s="185" t="s">
@@ -13685,7 +13599,7 @@
         <f t="shared" si="0"/>
         <v>2.0499999999999989</v>
       </c>
-      <c r="B16" s="624" t="s">
+      <c r="B16" s="386" t="s">
         <v>143</v>
       </c>
       <c r="C16" s="273" t="s">
@@ -13739,10 +13653,10 @@
       <c r="S16" s="280" t="s">
         <v>125</v>
       </c>
-      <c r="T16" s="623" t="s">
+      <c r="T16" s="385" t="s">
         <v>71</v>
       </c>
-      <c r="U16" s="622" t="s">
+      <c r="U16" s="384" t="s">
         <v>153</v>
       </c>
       <c r="V16" s="185" t="s">
@@ -13756,7 +13670,7 @@
         <f t="shared" si="0"/>
         <v>2.0599999999999987</v>
       </c>
-      <c r="B17" s="624" t="s">
+      <c r="B17" s="386" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="273" t="s">
@@ -13810,10 +13724,10 @@
       <c r="S17" s="280" t="s">
         <v>125</v>
       </c>
-      <c r="T17" s="623" t="s">
+      <c r="T17" s="385" t="s">
         <v>71</v>
       </c>
-      <c r="U17" s="622" t="s">
+      <c r="U17" s="384" t="s">
         <v>153</v>
       </c>
       <c r="V17" s="185" t="s">
@@ -13882,7 +13796,7 @@
       <c r="T18" s="276" t="s">
         <v>126</v>
       </c>
-      <c r="U18" s="621" t="s">
+      <c r="U18" s="383" t="s">
         <v>127</v>
       </c>
       <c r="W18" s="88"/>
@@ -13948,36 +13862,36 @@
       <c r="T19" s="276" t="s">
         <v>306</v>
       </c>
-      <c r="U19" s="621" t="s">
+      <c r="U19" s="383" t="s">
         <v>127</v>
       </c>
       <c r="W19" s="88"/>
       <c r="X19" s="88"/>
     </row>
     <row r="20" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="435" t="s">
+      <c r="A20" s="497" t="s">
         <v>307</v>
       </c>
-      <c r="B20" s="436"/>
-      <c r="C20" s="436"/>
-      <c r="D20" s="436"/>
-      <c r="E20" s="436"/>
-      <c r="F20" s="436"/>
-      <c r="G20" s="436"/>
-      <c r="H20" s="436"/>
-      <c r="I20" s="436"/>
-      <c r="J20" s="436"/>
-      <c r="K20" s="436"/>
-      <c r="L20" s="436"/>
-      <c r="M20" s="436"/>
-      <c r="N20" s="436"/>
-      <c r="O20" s="436"/>
-      <c r="P20" s="436"/>
-      <c r="Q20" s="436"/>
-      <c r="R20" s="436"/>
-      <c r="S20" s="436"/>
-      <c r="T20" s="436"/>
-      <c r="U20" s="437"/>
+      <c r="B20" s="498"/>
+      <c r="C20" s="498"/>
+      <c r="D20" s="498"/>
+      <c r="E20" s="498"/>
+      <c r="F20" s="498"/>
+      <c r="G20" s="498"/>
+      <c r="H20" s="498"/>
+      <c r="I20" s="498"/>
+      <c r="J20" s="498"/>
+      <c r="K20" s="498"/>
+      <c r="L20" s="498"/>
+      <c r="M20" s="498"/>
+      <c r="N20" s="498"/>
+      <c r="O20" s="498"/>
+      <c r="P20" s="498"/>
+      <c r="Q20" s="498"/>
+      <c r="R20" s="498"/>
+      <c r="S20" s="498"/>
+      <c r="T20" s="498"/>
+      <c r="U20" s="499"/>
       <c r="W20" s="89"/>
       <c r="X20" s="89"/>
     </row>
@@ -13985,7 +13899,7 @@
       <c r="A21" s="224">
         <v>3.01</v>
       </c>
-      <c r="B21" s="462" t="s">
+      <c r="B21" s="493" t="s">
         <v>178</v>
       </c>
       <c r="C21" s="215" t="s">
@@ -14031,10 +13945,10 @@
       <c r="S21" s="219" t="s">
         <v>125</v>
       </c>
-      <c r="T21" s="429" t="s">
+      <c r="T21" s="511" t="s">
         <v>184</v>
       </c>
-      <c r="U21" s="432" t="s">
+      <c r="U21" s="514" t="s">
         <v>185</v>
       </c>
       <c r="W21" s="88"/>
@@ -14045,7 +13959,7 @@
         <f>+A21+0.01</f>
         <v>3.0199999999999996</v>
       </c>
-      <c r="B22" s="462"/>
+      <c r="B22" s="493"/>
       <c r="C22" s="215" t="s">
         <v>186</v>
       </c>
@@ -14089,15 +14003,15 @@
       <c r="S22" s="219" t="s">
         <v>125</v>
       </c>
-      <c r="T22" s="430"/>
-      <c r="U22" s="433"/>
+      <c r="T22" s="512"/>
+      <c r="U22" s="515"/>
     </row>
     <row r="23" spans="1:24" ht="51" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="224">
         <f t="shared" ref="A23:A39" si="1">+A22+0.01</f>
         <v>3.0299999999999994</v>
       </c>
-      <c r="B23" s="462"/>
+      <c r="B23" s="493"/>
       <c r="C23" s="215" t="s">
         <v>188</v>
       </c>
@@ -14141,8 +14055,8 @@
       <c r="S23" s="219" t="s">
         <v>125</v>
       </c>
-      <c r="T23" s="431"/>
-      <c r="U23" s="434"/>
+      <c r="T23" s="513"/>
+      <c r="U23" s="516"/>
     </row>
     <row r="24" spans="1:24" s="13" customFormat="1" ht="46.5" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A24" s="284">
@@ -14176,7 +14090,7 @@
       <c r="J24" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="K24" s="625"/>
+      <c r="K24" s="387"/>
       <c r="L24" s="11" t="s">
         <v>64</v>
       </c>
@@ -14204,7 +14118,7 @@
       <c r="T24" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U24" s="627" t="s">
+      <c r="U24" s="389" t="s">
         <v>197</v>
       </c>
       <c r="W24" s="88"/>
@@ -14242,7 +14156,7 @@
       <c r="J25" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="K25" s="625"/>
+      <c r="K25" s="387"/>
       <c r="L25" s="11" t="s">
         <v>64</v>
       </c>
@@ -14270,7 +14184,7 @@
       <c r="T25" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U25" s="627" t="s">
+      <c r="U25" s="389" t="s">
         <v>197</v>
       </c>
       <c r="W25" s="88"/>
@@ -14308,7 +14222,7 @@
       <c r="J26" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="K26" s="625"/>
+      <c r="K26" s="387"/>
       <c r="L26" s="11" t="s">
         <v>64</v>
       </c>
@@ -14336,7 +14250,7 @@
       <c r="T26" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U26" s="627" t="s">
+      <c r="U26" s="389" t="s">
         <v>197</v>
       </c>
       <c r="W26" s="88"/>
@@ -14347,7 +14261,7 @@
         <f t="shared" si="1"/>
         <v>3.0699999999999985</v>
       </c>
-      <c r="B27" s="634" t="s">
+      <c r="B27" s="396" t="s">
         <v>204</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -14374,7 +14288,7 @@
       <c r="J27" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="K27" s="625"/>
+      <c r="K27" s="387"/>
       <c r="L27" s="11" t="s">
         <v>64</v>
       </c>
@@ -14402,7 +14316,7 @@
       <c r="T27" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U27" s="627" t="s">
+      <c r="U27" s="389" t="s">
         <v>197</v>
       </c>
       <c r="V27" s="186" t="s">
@@ -14416,7 +14330,7 @@
         <f t="shared" si="1"/>
         <v>3.0799999999999983</v>
       </c>
-      <c r="B28" s="634" t="s">
+      <c r="B28" s="396" t="s">
         <v>204</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -14443,7 +14357,7 @@
       <c r="J28" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="K28" s="625"/>
+      <c r="K28" s="387"/>
       <c r="L28" s="11" t="s">
         <v>64</v>
       </c>
@@ -14471,7 +14385,7 @@
       <c r="T28" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U28" s="627" t="s">
+      <c r="U28" s="389" t="s">
         <v>197</v>
       </c>
       <c r="V28" s="186" t="s">
@@ -14485,7 +14399,7 @@
         <f t="shared" si="1"/>
         <v>3.0899999999999981</v>
       </c>
-      <c r="B29" s="626" t="s">
+      <c r="B29" s="388" t="s">
         <v>213</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -14512,7 +14426,7 @@
       <c r="J29" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="K29" s="625"/>
+      <c r="K29" s="387"/>
       <c r="L29" s="11" t="s">
         <v>64</v>
       </c>
@@ -14540,7 +14454,7 @@
       <c r="T29" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U29" s="627" t="s">
+      <c r="U29" s="389" t="s">
         <v>197</v>
       </c>
       <c r="W29" s="34"/>
@@ -14551,7 +14465,7 @@
         <f t="shared" si="1"/>
         <v>3.0999999999999979</v>
       </c>
-      <c r="B30" s="626" t="s">
+      <c r="B30" s="388" t="s">
         <v>213</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -14578,7 +14492,7 @@
       <c r="J30" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="K30" s="625"/>
+      <c r="K30" s="387"/>
       <c r="L30" s="11" t="s">
         <v>64</v>
       </c>
@@ -14606,7 +14520,7 @@
       <c r="T30" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U30" s="627" t="s">
+      <c r="U30" s="389" t="s">
         <v>197</v>
       </c>
       <c r="W30" s="34"/>
@@ -14617,7 +14531,7 @@
         <f t="shared" si="1"/>
         <v>3.1099999999999977</v>
       </c>
-      <c r="B31" s="626" t="s">
+      <c r="B31" s="388" t="s">
         <v>213</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -14644,7 +14558,7 @@
       <c r="J31" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="K31" s="625"/>
+      <c r="K31" s="387"/>
       <c r="L31" s="11" t="s">
         <v>64</v>
       </c>
@@ -14672,7 +14586,7 @@
       <c r="T31" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U31" s="627" t="s">
+      <c r="U31" s="389" t="s">
         <v>197</v>
       </c>
       <c r="W31" s="34"/>
@@ -14710,7 +14624,7 @@
       <c r="J32" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="K32" s="625"/>
+      <c r="K32" s="387"/>
       <c r="L32" s="11" t="s">
         <v>64</v>
       </c>
@@ -14738,7 +14652,7 @@
       <c r="T32" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U32" s="627" t="s">
+      <c r="U32" s="389" t="s">
         <v>197</v>
       </c>
       <c r="W32" s="34"/>
@@ -14776,7 +14690,7 @@
       <c r="J33" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="K33" s="625"/>
+      <c r="K33" s="387"/>
       <c r="L33" s="11" t="s">
         <v>64</v>
       </c>
@@ -14804,7 +14718,7 @@
       <c r="T33" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U33" s="627" t="s">
+      <c r="U33" s="389" t="s">
         <v>197</v>
       </c>
       <c r="W33" s="34"/>
@@ -14854,7 +14768,7 @@
       <c r="N34" s="218" t="s">
         <v>66</v>
       </c>
-      <c r="O34" s="632"/>
+      <c r="O34" s="394"/>
       <c r="P34" s="215" t="s">
         <v>312</v>
       </c>
@@ -14884,7 +14798,7 @@
         <f t="shared" si="1"/>
         <v>3.1499999999999968</v>
       </c>
-      <c r="B35" s="630" t="s">
+      <c r="B35" s="392" t="s">
         <v>143</v>
       </c>
       <c r="C35" s="152" t="s">
@@ -14938,10 +14852,10 @@
       <c r="S35" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T35" s="628" t="s">
+      <c r="T35" s="390" t="s">
         <v>71</v>
       </c>
-      <c r="U35" s="629" t="s">
+      <c r="U35" s="391" t="s">
         <v>153</v>
       </c>
       <c r="V35" s="186" t="s">
@@ -14955,7 +14869,7 @@
         <f t="shared" si="1"/>
         <v>3.1599999999999966</v>
       </c>
-      <c r="B36" s="630" t="s">
+      <c r="B36" s="392" t="s">
         <v>143</v>
       </c>
       <c r="C36" s="152" t="s">
@@ -15009,10 +14923,10 @@
       <c r="S36" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T36" s="628" t="s">
+      <c r="T36" s="390" t="s">
         <v>71</v>
       </c>
-      <c r="U36" s="629" t="s">
+      <c r="U36" s="391" t="s">
         <v>153</v>
       </c>
       <c r="V36" s="186" t="s">
@@ -15026,7 +14940,7 @@
         <f t="shared" si="1"/>
         <v>3.1699999999999964</v>
       </c>
-      <c r="B37" s="630" t="s">
+      <c r="B37" s="392" t="s">
         <v>143</v>
       </c>
       <c r="C37" s="152" t="s">
@@ -15080,10 +14994,10 @@
       <c r="S37" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T37" s="628" t="s">
+      <c r="T37" s="390" t="s">
         <v>71</v>
       </c>
-      <c r="U37" s="629" t="s">
+      <c r="U37" s="391" t="s">
         <v>153</v>
       </c>
       <c r="V37" s="186" t="s">
@@ -15097,7 +15011,7 @@
         <f t="shared" si="1"/>
         <v>3.1799999999999962</v>
       </c>
-      <c r="B38" s="631" t="s">
+      <c r="B38" s="393" t="s">
         <v>242</v>
       </c>
       <c r="C38" s="152" t="s">
@@ -15151,10 +15065,10 @@
       <c r="S38" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T38" s="628" t="s">
+      <c r="T38" s="390" t="s">
         <v>71</v>
       </c>
-      <c r="U38" s="629" t="s">
+      <c r="U38" s="391" t="s">
         <v>153</v>
       </c>
       <c r="V38" s="15"/>
@@ -15164,7 +15078,7 @@
         <f t="shared" si="1"/>
         <v>3.1899999999999959</v>
       </c>
-      <c r="B39" s="631" t="s">
+      <c r="B39" s="393" t="s">
         <v>242</v>
       </c>
       <c r="C39" s="152" t="s">
@@ -15206,7 +15120,7 @@
       <c r="O39" s="154">
         <v>3712</v>
       </c>
-      <c r="P39" s="633" t="s">
+      <c r="P39" s="395" t="s">
         <v>649</v>
       </c>
       <c r="Q39" s="173" t="s">
@@ -15218,10 +15132,10 @@
       <c r="S39" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T39" s="628" t="s">
+      <c r="T39" s="390" t="s">
         <v>71</v>
       </c>
-      <c r="U39" s="629" t="s">
+      <c r="U39" s="391" t="s">
         <v>153</v>
       </c>
       <c r="V39" s="186" t="s">
@@ -15231,29 +15145,29 @@
       <c r="X39" s="34"/>
     </row>
     <row r="40" spans="1:24" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="435" t="s">
+      <c r="A40" s="497" t="s">
         <v>253</v>
       </c>
-      <c r="B40" s="436"/>
-      <c r="C40" s="436"/>
-      <c r="D40" s="436"/>
-      <c r="E40" s="436"/>
-      <c r="F40" s="436"/>
-      <c r="G40" s="436"/>
-      <c r="H40" s="436"/>
-      <c r="I40" s="436"/>
-      <c r="J40" s="436"/>
-      <c r="K40" s="436"/>
-      <c r="L40" s="436"/>
-      <c r="M40" s="436"/>
-      <c r="N40" s="436"/>
-      <c r="O40" s="436"/>
-      <c r="P40" s="436"/>
-      <c r="Q40" s="436"/>
-      <c r="R40" s="436"/>
-      <c r="S40" s="436"/>
-      <c r="T40" s="436"/>
-      <c r="U40" s="437"/>
+      <c r="B40" s="498"/>
+      <c r="C40" s="498"/>
+      <c r="D40" s="498"/>
+      <c r="E40" s="498"/>
+      <c r="F40" s="498"/>
+      <c r="G40" s="498"/>
+      <c r="H40" s="498"/>
+      <c r="I40" s="498"/>
+      <c r="J40" s="498"/>
+      <c r="K40" s="498"/>
+      <c r="L40" s="498"/>
+      <c r="M40" s="498"/>
+      <c r="N40" s="498"/>
+      <c r="O40" s="498"/>
+      <c r="P40" s="498"/>
+      <c r="Q40" s="498"/>
+      <c r="R40" s="498"/>
+      <c r="S40" s="498"/>
+      <c r="T40" s="498"/>
+      <c r="U40" s="499"/>
       <c r="W40" s="89"/>
       <c r="X40" s="89"/>
     </row>
@@ -15261,7 +15175,7 @@
       <c r="A41" s="284">
         <v>4.01</v>
       </c>
-      <c r="B41" s="626" t="s">
+      <c r="B41" s="388" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="14" t="s">
@@ -15327,7 +15241,7 @@
         <f>+A41+0.01</f>
         <v>4.0199999999999996</v>
       </c>
-      <c r="B42" s="626" t="s">
+      <c r="B42" s="388" t="s">
         <v>254</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -15393,7 +15307,7 @@
         <f t="shared" ref="A43:A45" si="2">+A42+0.01</f>
         <v>4.0299999999999994</v>
       </c>
-      <c r="B43" s="626" t="s">
+      <c r="B43" s="388" t="s">
         <v>254</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -15459,7 +15373,7 @@
         <f t="shared" si="2"/>
         <v>4.0399999999999991</v>
       </c>
-      <c r="B44" s="626" t="s">
+      <c r="B44" s="388" t="s">
         <v>254</v>
       </c>
       <c r="C44" s="14" t="s">
@@ -15525,7 +15439,7 @@
         <f t="shared" si="2"/>
         <v>4.0499999999999989</v>
       </c>
-      <c r="B45" s="626" t="s">
+      <c r="B45" s="388" t="s">
         <v>254</v>
       </c>
       <c r="C45" s="152" t="s">
@@ -15640,29 +15554,29 @@
       <c r="X46" s="34"/>
     </row>
     <row r="47" spans="1:24" s="13" customFormat="1" ht="56.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="463" t="s">
+      <c r="A47" s="494" t="s">
         <v>316</v>
       </c>
-      <c r="B47" s="464"/>
-      <c r="C47" s="464"/>
-      <c r="D47" s="464"/>
-      <c r="E47" s="464"/>
-      <c r="F47" s="464"/>
-      <c r="G47" s="464"/>
-      <c r="H47" s="464"/>
-      <c r="I47" s="464"/>
-      <c r="J47" s="464"/>
-      <c r="K47" s="464"/>
-      <c r="L47" s="464"/>
-      <c r="M47" s="464"/>
-      <c r="N47" s="464"/>
-      <c r="O47" s="464"/>
-      <c r="P47" s="464"/>
-      <c r="Q47" s="464"/>
-      <c r="R47" s="464"/>
-      <c r="S47" s="464"/>
-      <c r="T47" s="464"/>
-      <c r="U47" s="465"/>
+      <c r="B47" s="495"/>
+      <c r="C47" s="495"/>
+      <c r="D47" s="495"/>
+      <c r="E47" s="495"/>
+      <c r="F47" s="495"/>
+      <c r="G47" s="495"/>
+      <c r="H47" s="495"/>
+      <c r="I47" s="495"/>
+      <c r="J47" s="495"/>
+      <c r="K47" s="495"/>
+      <c r="L47" s="495"/>
+      <c r="M47" s="495"/>
+      <c r="N47" s="495"/>
+      <c r="O47" s="495"/>
+      <c r="P47" s="495"/>
+      <c r="Q47" s="495"/>
+      <c r="R47" s="495"/>
+      <c r="S47" s="495"/>
+      <c r="T47" s="495"/>
+      <c r="U47" s="496"/>
       <c r="W47" s="88"/>
       <c r="X47" s="88"/>
     </row>
@@ -15682,13 +15596,13 @@
       <c r="I49" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="J49" s="452" t="s">
+      <c r="J49" s="483" t="s">
         <v>287</v>
       </c>
-      <c r="K49" s="452"/>
-      <c r="L49" s="452"/>
-      <c r="M49" s="452"/>
-      <c r="N49" s="453"/>
+      <c r="K49" s="483"/>
+      <c r="L49" s="483"/>
+      <c r="M49" s="483"/>
+      <c r="N49" s="484"/>
       <c r="O49" s="31"/>
       <c r="P49" s="31"/>
       <c r="Q49" s="96"/>
@@ -15700,11 +15614,11 @@
       <c r="A50" s="23"/>
       <c r="H50" s="24"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="454"/>
-      <c r="K50" s="454"/>
-      <c r="L50" s="454"/>
-      <c r="M50" s="454"/>
-      <c r="N50" s="455"/>
+      <c r="J50" s="485"/>
+      <c r="K50" s="485"/>
+      <c r="L50" s="485"/>
+      <c r="M50" s="485"/>
+      <c r="N50" s="486"/>
       <c r="O50" s="31"/>
       <c r="P50" s="31"/>
       <c r="Q50" s="96"/>
@@ -15728,13 +15642,13 @@
       <c r="I51" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="J51" s="456" t="s">
+      <c r="J51" s="487" t="s">
         <v>293</v>
       </c>
-      <c r="K51" s="456"/>
-      <c r="L51" s="456"/>
-      <c r="M51" s="456"/>
-      <c r="N51" s="457"/>
+      <c r="K51" s="487"/>
+      <c r="L51" s="487"/>
+      <c r="M51" s="487"/>
+      <c r="N51" s="488"/>
       <c r="O51" s="31"/>
       <c r="P51" s="31"/>
       <c r="Q51" s="96"/>
@@ -15746,11 +15660,11 @@
       <c r="A52" s="23"/>
       <c r="H52" s="24"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="454"/>
-      <c r="K52" s="454"/>
-      <c r="L52" s="454"/>
-      <c r="M52" s="454"/>
-      <c r="N52" s="455"/>
+      <c r="J52" s="485"/>
+      <c r="K52" s="485"/>
+      <c r="L52" s="485"/>
+      <c r="M52" s="485"/>
+      <c r="N52" s="486"/>
       <c r="O52" s="31"/>
       <c r="P52" s="31"/>
       <c r="Q52" s="96"/>
@@ -15759,11 +15673,11 @@
       <c r="T52" s="31"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="458" t="s">
+      <c r="A53" s="489" t="s">
         <v>294</v>
       </c>
-      <c r="B53" s="459"/>
-      <c r="C53" s="459"/>
+      <c r="B53" s="490"/>
+      <c r="C53" s="490"/>
       <c r="D53" s="3" t="s">
         <v>289</v>
       </c>
@@ -15778,13 +15692,13 @@
       <c r="I53" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="J53" s="456" t="s">
+      <c r="J53" s="487" t="s">
         <v>296</v>
       </c>
-      <c r="K53" s="456"/>
-      <c r="L53" s="456"/>
-      <c r="M53" s="456"/>
-      <c r="N53" s="457"/>
+      <c r="K53" s="487"/>
+      <c r="L53" s="487"/>
+      <c r="M53" s="487"/>
+      <c r="N53" s="488"/>
       <c r="O53" s="31"/>
       <c r="P53" s="31"/>
       <c r="Q53" s="96"/>
@@ -15802,11 +15716,11 @@
       <c r="G54" s="168"/>
       <c r="H54" s="29"/>
       <c r="I54" s="30"/>
-      <c r="J54" s="460"/>
-      <c r="K54" s="460"/>
-      <c r="L54" s="460"/>
-      <c r="M54" s="460"/>
-      <c r="N54" s="461"/>
+      <c r="J54" s="491"/>
+      <c r="K54" s="491"/>
+      <c r="L54" s="491"/>
+      <c r="M54" s="491"/>
+      <c r="N54" s="492"/>
       <c r="O54" s="31"/>
       <c r="P54" s="31"/>
       <c r="Q54" s="96"/>
@@ -15829,6 +15743,32 @@
   </sheetData>
   <autoFilter ref="A10:X47" xr:uid="{514E3F07-39FE-4F66-9435-C6446AF9C9D4}"/>
   <mergeCells count="40">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="A11:U11"/>
+    <mergeCell ref="J49:N50"/>
+    <mergeCell ref="J51:N52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="J53:N54"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A47:U47"/>
+    <mergeCell ref="A40:U40"/>
+    <mergeCell ref="T21:T23"/>
+    <mergeCell ref="U21:U23"/>
+    <mergeCell ref="A20:U20"/>
     <mergeCell ref="A5:B7"/>
     <mergeCell ref="C5:D7"/>
     <mergeCell ref="E5:G7"/>
@@ -15843,73 +15783,47 @@
     <mergeCell ref="H4:I4"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="A11:U11"/>
-    <mergeCell ref="J49:N50"/>
-    <mergeCell ref="J51:N52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="J53:N54"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A47:U47"/>
-    <mergeCell ref="A40:U40"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="T21:T23"/>
-    <mergeCell ref="U21:U23"/>
-    <mergeCell ref="A20:U20"/>
   </mergeCells>
   <phoneticPr fontId="36" type="noConversion"/>
   <conditionalFormatting sqref="K12:M19">
-    <cfRule type="containsBlanks" dxfId="65" priority="19" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="57" priority="19" stopIfTrue="1">
       <formula>LEN(TRIM(K12))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="20" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="21" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="22" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K21:M39">
-    <cfRule type="containsBlanks" dxfId="61" priority="15" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="53" priority="15" stopIfTrue="1">
       <formula>LEN(TRIM(K21))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="16" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="17" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="18" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:M46">
-    <cfRule type="containsBlanks" dxfId="57" priority="4" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="49" priority="4" stopIfTrue="1">
       <formula>LEN(TRIM(K41))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15933,8 +15847,8 @@
   </sheetPr>
   <dimension ref="A1:AB82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView topLeftCell="A69" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:U74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -15970,22 +15884,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="635"/>
-      <c r="B1" s="635"/>
-      <c r="C1" s="635"/>
-      <c r="D1" s="635"/>
-      <c r="E1" s="475" t="s">
+      <c r="A1" s="517"/>
+      <c r="B1" s="517"/>
+      <c r="C1" s="517"/>
+      <c r="D1" s="517"/>
+      <c r="E1" s="477" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="636" t="s">
+      <c r="F1" s="398" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="637"/>
-      <c r="H1" s="638" t="s">
+      <c r="G1" s="397"/>
+      <c r="H1" s="518" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="638"/>
-      <c r="J1" s="638"/>
+      <c r="I1" s="518"/>
+      <c r="J1" s="518"/>
       <c r="K1" s="142" t="s">
         <v>13</v>
       </c>
@@ -16004,22 +15918,22 @@
       <c r="R1" s="195"/>
       <c r="S1" s="195"/>
       <c r="T1" s="143"/>
-      <c r="U1" s="637"/>
+      <c r="U1" s="397"/>
     </row>
     <row r="2" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="635"/>
-      <c r="B2" s="635"/>
-      <c r="C2" s="635"/>
-      <c r="D2" s="635"/>
-      <c r="E2" s="475"/>
-      <c r="F2" s="636" t="s">
+      <c r="A2" s="517"/>
+      <c r="B2" s="517"/>
+      <c r="C2" s="517"/>
+      <c r="D2" s="517"/>
+      <c r="E2" s="477"/>
+      <c r="F2" s="398" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="637"/>
-      <c r="H2" s="639" t="s">
+      <c r="G2" s="397"/>
+      <c r="H2" s="519" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="639"/>
+      <c r="I2" s="519"/>
       <c r="J2" s="165" t="s">
         <v>19</v>
       </c>
@@ -16041,22 +15955,22 @@
       <c r="R2" s="146"/>
       <c r="S2" s="146"/>
       <c r="T2" s="146"/>
-      <c r="U2" s="637"/>
+      <c r="U2" s="397"/>
     </row>
     <row r="3" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="635"/>
-      <c r="B3" s="635"/>
-      <c r="C3" s="635"/>
-      <c r="D3" s="635"/>
-      <c r="E3" s="639" t="s">
+      <c r="A3" s="517"/>
+      <c r="B3" s="517"/>
+      <c r="C3" s="517"/>
+      <c r="D3" s="517"/>
+      <c r="E3" s="519" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="639"/>
-      <c r="G3" s="639"/>
-      <c r="H3" s="639" t="s">
+      <c r="F3" s="519"/>
+      <c r="G3" s="519"/>
+      <c r="H3" s="519" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="639"/>
+      <c r="I3" s="519"/>
       <c r="J3" s="165" t="s">
         <v>22</v>
       </c>
@@ -16074,20 +15988,20 @@
       <c r="R3" s="146"/>
       <c r="S3" s="146"/>
       <c r="T3" s="146"/>
-      <c r="U3" s="637"/>
+      <c r="U3" s="397"/>
     </row>
     <row r="4" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="635"/>
-      <c r="B4" s="635"/>
-      <c r="C4" s="635"/>
-      <c r="D4" s="635"/>
-      <c r="E4" s="639"/>
-      <c r="F4" s="639"/>
-      <c r="G4" s="639"/>
-      <c r="H4" s="639" t="s">
+      <c r="A4" s="517"/>
+      <c r="B4" s="517"/>
+      <c r="C4" s="517"/>
+      <c r="D4" s="517"/>
+      <c r="E4" s="519"/>
+      <c r="F4" s="519"/>
+      <c r="G4" s="519"/>
+      <c r="H4" s="519" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="639"/>
+      <c r="I4" s="519"/>
       <c r="J4" s="165" t="s">
         <v>24</v>
       </c>
@@ -16109,26 +16023,26 @@
       <c r="R4" s="146"/>
       <c r="S4" s="146"/>
       <c r="T4" s="146"/>
-      <c r="U4" s="637"/>
+      <c r="U4" s="397"/>
     </row>
     <row r="5" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="640" t="s">
+      <c r="A5" s="520" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="469"/>
-      <c r="C5" s="469" t="s">
+      <c r="B5" s="471"/>
+      <c r="C5" s="471" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="469"/>
-      <c r="E5" s="475" t="s">
+      <c r="D5" s="471"/>
+      <c r="E5" s="477" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="475"/>
-      <c r="G5" s="475"/>
-      <c r="H5" s="639" t="s">
+      <c r="F5" s="477"/>
+      <c r="G5" s="477"/>
+      <c r="H5" s="519" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="639"/>
+      <c r="I5" s="519"/>
       <c r="J5" s="165" t="s">
         <v>29</v>
       </c>
@@ -16146,20 +16060,20 @@
       <c r="R5" s="146"/>
       <c r="S5" s="146"/>
       <c r="T5" s="146"/>
-      <c r="U5" s="637"/>
+      <c r="U5" s="397"/>
     </row>
     <row r="6" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="640"/>
-      <c r="B6" s="469"/>
-      <c r="C6" s="469"/>
-      <c r="D6" s="469"/>
-      <c r="E6" s="475"/>
-      <c r="F6" s="475"/>
-      <c r="G6" s="475"/>
-      <c r="H6" s="639" t="s">
+      <c r="A6" s="520"/>
+      <c r="B6" s="471"/>
+      <c r="C6" s="471"/>
+      <c r="D6" s="471"/>
+      <c r="E6" s="477"/>
+      <c r="F6" s="477"/>
+      <c r="G6" s="477"/>
+      <c r="H6" s="519" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="639"/>
+      <c r="I6" s="519"/>
       <c r="J6" s="165" t="s">
         <v>19</v>
       </c>
@@ -16177,20 +16091,20 @@
       <c r="R6" s="146"/>
       <c r="S6" s="146"/>
       <c r="T6" s="146"/>
-      <c r="U6" s="637"/>
+      <c r="U6" s="397"/>
     </row>
     <row r="7" spans="1:28" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="470"/>
-      <c r="B7" s="470"/>
-      <c r="C7" s="470"/>
-      <c r="D7" s="470"/>
-      <c r="E7" s="641"/>
-      <c r="F7" s="641"/>
-      <c r="G7" s="641"/>
-      <c r="H7" s="642" t="s">
+      <c r="A7" s="472"/>
+      <c r="B7" s="472"/>
+      <c r="C7" s="472"/>
+      <c r="D7" s="472"/>
+      <c r="E7" s="521"/>
+      <c r="F7" s="521"/>
+      <c r="G7" s="521"/>
+      <c r="H7" s="522" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="642"/>
+      <c r="I7" s="522"/>
       <c r="J7" s="166" t="s">
         <v>32</v>
       </c>
@@ -16208,64 +16122,64 @@
       <c r="R7" s="149"/>
       <c r="S7" s="149"/>
       <c r="T7" s="149"/>
-      <c r="U7" s="643"/>
+      <c r="U7" s="399"/>
     </row>
     <row r="8" spans="1:28" s="13" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="438" t="s">
+      <c r="A8" s="506" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="440" t="s">
+      <c r="B8" s="502" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="442" t="s">
+      <c r="C8" s="508" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="443"/>
-      <c r="E8" s="443"/>
-      <c r="F8" s="444"/>
-      <c r="G8" s="445" t="s">
+      <c r="D8" s="509"/>
+      <c r="E8" s="509"/>
+      <c r="F8" s="510"/>
+      <c r="G8" s="504" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="445" t="s">
+      <c r="H8" s="504" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="445" t="s">
+      <c r="I8" s="504" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="440" t="s">
+      <c r="J8" s="502" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="445" t="s">
+      <c r="K8" s="504" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="445"/>
-      <c r="M8" s="445"/>
-      <c r="N8" s="445"/>
-      <c r="O8" s="423" t="s">
+      <c r="L8" s="504"/>
+      <c r="M8" s="504"/>
+      <c r="N8" s="504"/>
+      <c r="O8" s="425" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="423" t="s">
+      <c r="P8" s="425" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="423" t="s">
+      <c r="Q8" s="425" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="423" t="s">
+      <c r="R8" s="425" t="s">
         <v>297</v>
       </c>
-      <c r="S8" s="423" t="s">
+      <c r="S8" s="425" t="s">
         <v>298</v>
       </c>
-      <c r="T8" s="423" t="s">
+      <c r="T8" s="425" t="s">
         <v>45</v>
       </c>
-      <c r="U8" s="447" t="s">
+      <c r="U8" s="500" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:28" s="13" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="439"/>
-      <c r="B9" s="441"/>
+      <c r="A9" s="507"/>
+      <c r="B9" s="503"/>
       <c r="C9" s="138" t="s">
         <v>47</v>
       </c>
@@ -16278,10 +16192,10 @@
       <c r="F9" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="446"/>
-      <c r="H9" s="446"/>
-      <c r="I9" s="446"/>
-      <c r="J9" s="441"/>
+      <c r="G9" s="505"/>
+      <c r="H9" s="505"/>
+      <c r="I9" s="505"/>
+      <c r="J9" s="503"/>
       <c r="K9" s="139" t="s">
         <v>51</v>
       </c>
@@ -16294,18 +16208,18 @@
       <c r="N9" s="139" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="424"/>
-      <c r="P9" s="424"/>
-      <c r="Q9" s="424"/>
-      <c r="R9" s="424"/>
-      <c r="S9" s="424"/>
-      <c r="T9" s="424"/>
-      <c r="U9" s="448"/>
-      <c r="X9" s="644"/>
+      <c r="O9" s="426"/>
+      <c r="P9" s="426"/>
+      <c r="Q9" s="426"/>
+      <c r="R9" s="426"/>
+      <c r="S9" s="426"/>
+      <c r="T9" s="426"/>
+      <c r="U9" s="501"/>
+      <c r="X9" s="400"/>
       <c r="Y9" s="97"/>
-      <c r="Z9" s="644"/>
-      <c r="AA9" s="644"/>
-      <c r="AB9" s="644"/>
+      <c r="Z9" s="400"/>
+      <c r="AA9" s="400"/>
+      <c r="AB9" s="400"/>
     </row>
     <row r="10" spans="1:28" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="187"/>
@@ -16331,29 +16245,29 @@
       <c r="U10" s="193"/>
     </row>
     <row r="11" spans="1:28" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="645" t="s">
+      <c r="A11" s="523" t="s">
         <v>299</v>
       </c>
-      <c r="B11" s="646"/>
-      <c r="C11" s="646"/>
-      <c r="D11" s="646"/>
-      <c r="E11" s="646"/>
-      <c r="F11" s="646"/>
-      <c r="G11" s="646"/>
-      <c r="H11" s="646"/>
-      <c r="I11" s="646"/>
-      <c r="J11" s="646"/>
-      <c r="K11" s="646"/>
-      <c r="L11" s="646"/>
-      <c r="M11" s="646"/>
-      <c r="N11" s="646"/>
-      <c r="O11" s="646"/>
-      <c r="P11" s="646"/>
-      <c r="Q11" s="646"/>
-      <c r="R11" s="646"/>
-      <c r="S11" s="646"/>
-      <c r="T11" s="646"/>
-      <c r="U11" s="647"/>
+      <c r="B11" s="524"/>
+      <c r="C11" s="524"/>
+      <c r="D11" s="524"/>
+      <c r="E11" s="524"/>
+      <c r="F11" s="524"/>
+      <c r="G11" s="524"/>
+      <c r="H11" s="524"/>
+      <c r="I11" s="524"/>
+      <c r="J11" s="524"/>
+      <c r="K11" s="524"/>
+      <c r="L11" s="524"/>
+      <c r="M11" s="524"/>
+      <c r="N11" s="524"/>
+      <c r="O11" s="524"/>
+      <c r="P11" s="524"/>
+      <c r="Q11" s="524"/>
+      <c r="R11" s="524"/>
+      <c r="S11" s="524"/>
+      <c r="T11" s="524"/>
+      <c r="U11" s="525"/>
     </row>
     <row r="12" spans="1:28" s="13" customFormat="1" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="284">
@@ -16386,7 +16300,7 @@
       <c r="J12" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="K12" s="625" t="s">
+      <c r="K12" s="387" t="s">
         <v>649</v>
       </c>
       <c r="L12" s="11" t="s">
@@ -16425,16 +16339,16 @@
         <f t="shared" ref="A13:A19" si="0">+A12+0.01</f>
         <v>2.0199999999999996</v>
       </c>
-      <c r="B13" s="664" t="s">
+      <c r="B13" s="410" t="s">
         <v>128</v>
       </c>
-      <c r="C13" s="664" t="s">
+      <c r="C13" s="410" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="664" t="s">
+      <c r="D13" s="410" t="s">
         <v>58</v>
       </c>
-      <c r="E13" s="664" t="s">
+      <c r="E13" s="410" t="s">
         <v>130</v>
       </c>
       <c r="F13" s="10" t="s">
@@ -16452,7 +16366,7 @@
       <c r="J13" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K13" s="625" t="s">
+      <c r="K13" s="387" t="s">
         <v>649</v>
       </c>
       <c r="L13" s="11" t="s">
@@ -16482,7 +16396,7 @@
       <c r="T13" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="U13" s="627" t="s">
+      <c r="U13" s="389" t="s">
         <v>303</v>
       </c>
     </row>
@@ -16491,16 +16405,16 @@
         <f t="shared" si="0"/>
         <v>2.0299999999999994</v>
       </c>
-      <c r="B14" s="664" t="s">
+      <c r="B14" s="410" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="664" t="s">
+      <c r="C14" s="410" t="s">
         <v>129</v>
       </c>
-      <c r="D14" s="664" t="s">
+      <c r="D14" s="410" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="664" t="s">
+      <c r="E14" s="410" t="s">
         <v>130</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -16518,7 +16432,7 @@
       <c r="J14" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="625" t="s">
+      <c r="K14" s="387" t="s">
         <v>649</v>
       </c>
       <c r="L14" s="11" t="s">
@@ -16548,7 +16462,7 @@
       <c r="T14" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="U14" s="627" t="s">
+      <c r="U14" s="389" t="s">
         <v>303</v>
       </c>
       <c r="V14" s="185" t="s">
@@ -16560,7 +16474,7 @@
         <f t="shared" si="0"/>
         <v>2.0399999999999991</v>
       </c>
-      <c r="B15" s="630" t="s">
+      <c r="B15" s="392" t="s">
         <v>143</v>
       </c>
       <c r="C15" s="152" t="s">
@@ -16614,23 +16528,23 @@
       <c r="S15" s="171" t="s">
         <v>125</v>
       </c>
-      <c r="T15" s="665" t="s">
+      <c r="T15" s="411" t="s">
         <v>71</v>
       </c>
-      <c r="U15" s="629" t="s">
+      <c r="U15" s="391" t="s">
         <v>153</v>
       </c>
       <c r="V15" s="185" t="s">
         <v>304</v>
       </c>
-      <c r="W15" s="648"/>
+      <c r="W15" s="401"/>
     </row>
     <row r="16" spans="1:28" s="13" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="151">
         <f t="shared" si="0"/>
         <v>2.0499999999999989</v>
       </c>
-      <c r="B16" s="630" t="s">
+      <c r="B16" s="392" t="s">
         <v>143</v>
       </c>
       <c r="C16" s="152" t="s">
@@ -16684,23 +16598,23 @@
       <c r="S16" s="171" t="s">
         <v>125</v>
       </c>
-      <c r="T16" s="665" t="s">
+      <c r="T16" s="411" t="s">
         <v>71</v>
       </c>
-      <c r="U16" s="629" t="s">
+      <c r="U16" s="391" t="s">
         <v>153</v>
       </c>
       <c r="V16" s="185" t="s">
         <v>305</v>
       </c>
-      <c r="W16" s="648"/>
+      <c r="W16" s="401"/>
     </row>
     <row r="17" spans="1:23" s="13" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="151">
         <f t="shared" si="0"/>
         <v>2.0599999999999987</v>
       </c>
-      <c r="B17" s="630" t="s">
+      <c r="B17" s="392" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="152" t="s">
@@ -16724,7 +16638,7 @@
       <c r="I17" s="154" t="s">
         <v>133</v>
       </c>
-      <c r="J17" s="666" t="s">
+      <c r="J17" s="412" t="s">
         <v>649</v>
       </c>
       <c r="K17" s="155" t="s">
@@ -16754,16 +16668,16 @@
       <c r="S17" s="171" t="s">
         <v>125</v>
       </c>
-      <c r="T17" s="665" t="s">
+      <c r="T17" s="411" t="s">
         <v>71</v>
       </c>
-      <c r="U17" s="629" t="s">
+      <c r="U17" s="391" t="s">
         <v>153</v>
       </c>
       <c r="V17" s="185" t="s">
         <v>305</v>
       </c>
-      <c r="W17" s="648"/>
+      <c r="W17" s="401"/>
     </row>
     <row r="18" spans="1:23" s="13" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="136">
@@ -16797,7 +16711,7 @@
       <c r="J18" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="K18" s="625" t="s">
+      <c r="K18" s="387" t="s">
         <v>649</v>
       </c>
       <c r="L18" s="11" t="s">
@@ -16827,7 +16741,7 @@
       <c r="T18" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="U18" s="627" t="s">
+      <c r="U18" s="389" t="s">
         <v>127</v>
       </c>
     </row>
@@ -16863,7 +16777,7 @@
       <c r="J19" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="K19" s="625" t="s">
+      <c r="K19" s="387" t="s">
         <v>649</v>
       </c>
       <c r="L19" s="11" t="s">
@@ -16893,34 +16807,34 @@
       <c r="T19" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="U19" s="627" t="s">
+      <c r="U19" s="389" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:23" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="645" t="s">
+      <c r="A20" s="523" t="s">
         <v>307</v>
       </c>
-      <c r="B20" s="646"/>
-      <c r="C20" s="646"/>
-      <c r="D20" s="646"/>
-      <c r="E20" s="646"/>
-      <c r="F20" s="646"/>
-      <c r="G20" s="646"/>
-      <c r="H20" s="646"/>
-      <c r="I20" s="646"/>
-      <c r="J20" s="646"/>
-      <c r="K20" s="646"/>
-      <c r="L20" s="646"/>
-      <c r="M20" s="646"/>
-      <c r="N20" s="646"/>
-      <c r="O20" s="646"/>
-      <c r="P20" s="646"/>
-      <c r="Q20" s="646"/>
-      <c r="R20" s="646"/>
-      <c r="S20" s="646"/>
-      <c r="T20" s="646"/>
-      <c r="U20" s="647"/>
+      <c r="B20" s="524"/>
+      <c r="C20" s="524"/>
+      <c r="D20" s="524"/>
+      <c r="E20" s="524"/>
+      <c r="F20" s="524"/>
+      <c r="G20" s="524"/>
+      <c r="H20" s="524"/>
+      <c r="I20" s="524"/>
+      <c r="J20" s="524"/>
+      <c r="K20" s="524"/>
+      <c r="L20" s="524"/>
+      <c r="M20" s="524"/>
+      <c r="N20" s="524"/>
+      <c r="O20" s="524"/>
+      <c r="P20" s="524"/>
+      <c r="Q20" s="524"/>
+      <c r="R20" s="524"/>
+      <c r="S20" s="524"/>
+      <c r="T20" s="524"/>
+      <c r="U20" s="525"/>
     </row>
     <row r="21" spans="1:23" s="13" customFormat="1" ht="51" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="224">
@@ -16980,10 +16894,10 @@
       <c r="S21" s="219" t="s">
         <v>125</v>
       </c>
-      <c r="T21" s="667" t="s">
+      <c r="T21" s="413" t="s">
         <v>184</v>
       </c>
-      <c r="U21" s="618" t="s">
+      <c r="U21" s="380" t="s">
         <v>185</v>
       </c>
     </row>
@@ -17046,10 +16960,10 @@
       <c r="S22" s="219" t="s">
         <v>125</v>
       </c>
-      <c r="T22" s="667" t="s">
+      <c r="T22" s="413" t="s">
         <v>184</v>
       </c>
-      <c r="U22" s="618" t="s">
+      <c r="U22" s="380" t="s">
         <v>185</v>
       </c>
     </row>
@@ -17112,10 +17026,10 @@
       <c r="S23" s="219" t="s">
         <v>125</v>
       </c>
-      <c r="T23" s="667" t="s">
+      <c r="T23" s="413" t="s">
         <v>184</v>
       </c>
-      <c r="U23" s="618" t="s">
+      <c r="U23" s="380" t="s">
         <v>185</v>
       </c>
     </row>
@@ -17181,7 +17095,7 @@
       <c r="T24" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U24" s="627" t="s">
+      <c r="U24" s="389" t="s">
         <v>197</v>
       </c>
     </row>
@@ -17247,7 +17161,7 @@
       <c r="T25" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U25" s="627" t="s">
+      <c r="U25" s="389" t="s">
         <v>197</v>
       </c>
     </row>
@@ -17313,7 +17227,7 @@
       <c r="T26" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U26" s="627" t="s">
+      <c r="U26" s="389" t="s">
         <v>197</v>
       </c>
     </row>
@@ -17322,7 +17236,7 @@
         <f t="shared" si="1"/>
         <v>3.0699999999999985</v>
       </c>
-      <c r="B27" s="626" t="s">
+      <c r="B27" s="388" t="s">
         <v>204</v>
       </c>
       <c r="C27" s="14" t="s">
@@ -17379,10 +17293,10 @@
       <c r="T27" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U27" s="627" t="s">
+      <c r="U27" s="389" t="s">
         <v>197</v>
       </c>
-      <c r="V27" s="649" t="s">
+      <c r="V27" s="402" t="s">
         <v>305</v>
       </c>
     </row>
@@ -17391,7 +17305,7 @@
         <f t="shared" si="1"/>
         <v>3.0799999999999983</v>
       </c>
-      <c r="B28" s="626" t="s">
+      <c r="B28" s="388" t="s">
         <v>204</v>
       </c>
       <c r="C28" s="14" t="s">
@@ -17448,10 +17362,10 @@
       <c r="T28" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U28" s="627" t="s">
+      <c r="U28" s="389" t="s">
         <v>197</v>
       </c>
-      <c r="V28" s="649" t="s">
+      <c r="V28" s="402" t="s">
         <v>305</v>
       </c>
     </row>
@@ -17460,7 +17374,7 @@
         <f t="shared" si="1"/>
         <v>3.0899999999999981</v>
       </c>
-      <c r="B29" s="626" t="s">
+      <c r="B29" s="388" t="s">
         <v>213</v>
       </c>
       <c r="C29" s="14" t="s">
@@ -17517,7 +17431,7 @@
       <c r="T29" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U29" s="627" t="s">
+      <c r="U29" s="389" t="s">
         <v>197</v>
       </c>
     </row>
@@ -17526,7 +17440,7 @@
         <f t="shared" si="1"/>
         <v>3.0999999999999979</v>
       </c>
-      <c r="B30" s="626" t="s">
+      <c r="B30" s="388" t="s">
         <v>213</v>
       </c>
       <c r="C30" s="14" t="s">
@@ -17583,7 +17497,7 @@
       <c r="T30" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U30" s="627" t="s">
+      <c r="U30" s="389" t="s">
         <v>197</v>
       </c>
     </row>
@@ -17592,7 +17506,7 @@
         <f t="shared" si="1"/>
         <v>3.1099999999999977</v>
       </c>
-      <c r="B31" s="626" t="s">
+      <c r="B31" s="388" t="s">
         <v>213</v>
       </c>
       <c r="C31" s="14" t="s">
@@ -17649,7 +17563,7 @@
       <c r="T31" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U31" s="627" t="s">
+      <c r="U31" s="389" t="s">
         <v>197</v>
       </c>
     </row>
@@ -17715,7 +17629,7 @@
       <c r="T32" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U32" s="627" t="s">
+      <c r="U32" s="389" t="s">
         <v>197</v>
       </c>
     </row>
@@ -17781,7 +17695,7 @@
       <c r="T33" s="183" t="s">
         <v>306</v>
       </c>
-      <c r="U33" s="627" t="s">
+      <c r="U33" s="389" t="s">
         <v>197</v>
       </c>
     </row>
@@ -17847,13 +17761,13 @@
       <c r="T34" s="215" t="s">
         <v>71</v>
       </c>
-      <c r="U34" s="650" t="s">
+      <c r="U34" s="403" t="s">
         <v>102</v>
       </c>
-      <c r="V34" s="649" t="s">
+      <c r="V34" s="402" t="s">
         <v>313</v>
       </c>
-      <c r="W34" s="651" t="s">
+      <c r="W34" s="404" t="s">
         <v>318</v>
       </c>
     </row>
@@ -17862,7 +17776,7 @@
         <f t="shared" si="1"/>
         <v>3.1499999999999968</v>
       </c>
-      <c r="B35" s="630" t="s">
+      <c r="B35" s="392" t="s">
         <v>143</v>
       </c>
       <c r="C35" s="152" t="s">
@@ -17916,16 +17830,16 @@
       <c r="S35" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T35" s="628" t="s">
+      <c r="T35" s="390" t="s">
         <v>71</v>
       </c>
-      <c r="U35" s="629" t="s">
+      <c r="U35" s="391" t="s">
         <v>153</v>
       </c>
-      <c r="V35" s="649" t="s">
+      <c r="V35" s="402" t="s">
         <v>304</v>
       </c>
-      <c r="W35" s="651" t="s">
+      <c r="W35" s="404" t="s">
         <v>318</v>
       </c>
     </row>
@@ -17934,7 +17848,7 @@
         <f t="shared" si="1"/>
         <v>3.1599999999999966</v>
       </c>
-      <c r="B36" s="630" t="s">
+      <c r="B36" s="392" t="s">
         <v>143</v>
       </c>
       <c r="C36" s="152" t="s">
@@ -17988,16 +17902,16 @@
       <c r="S36" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T36" s="628" t="s">
+      <c r="T36" s="390" t="s">
         <v>71</v>
       </c>
-      <c r="U36" s="629" t="s">
+      <c r="U36" s="391" t="s">
         <v>153</v>
       </c>
-      <c r="V36" s="649" t="s">
+      <c r="V36" s="402" t="s">
         <v>305</v>
       </c>
-      <c r="W36" s="651" t="s">
+      <c r="W36" s="404" t="s">
         <v>318</v>
       </c>
     </row>
@@ -18006,7 +17920,7 @@
         <f t="shared" si="1"/>
         <v>3.1699999999999964</v>
       </c>
-      <c r="B37" s="630" t="s">
+      <c r="B37" s="392" t="s">
         <v>143</v>
       </c>
       <c r="C37" s="152" t="s">
@@ -18060,16 +17974,16 @@
       <c r="S37" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T37" s="628" t="s">
+      <c r="T37" s="390" t="s">
         <v>71</v>
       </c>
-      <c r="U37" s="629" t="s">
+      <c r="U37" s="391" t="s">
         <v>153</v>
       </c>
-      <c r="V37" s="649" t="s">
+      <c r="V37" s="402" t="s">
         <v>305</v>
       </c>
-      <c r="W37" s="651" t="s">
+      <c r="W37" s="404" t="s">
         <v>318</v>
       </c>
     </row>
@@ -18078,7 +17992,7 @@
         <f t="shared" si="1"/>
         <v>3.1799999999999962</v>
       </c>
-      <c r="B38" s="631" t="s">
+      <c r="B38" s="393" t="s">
         <v>242</v>
       </c>
       <c r="C38" s="152" t="s">
@@ -18132,14 +18046,14 @@
       <c r="S38" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T38" s="628" t="s">
+      <c r="T38" s="390" t="s">
         <v>71</v>
       </c>
-      <c r="U38" s="629" t="s">
+      <c r="U38" s="391" t="s">
         <v>153</v>
       </c>
       <c r="V38" s="107"/>
-      <c r="W38" s="651" t="s">
+      <c r="W38" s="404" t="s">
         <v>318</v>
       </c>
     </row>
@@ -18148,7 +18062,7 @@
         <f t="shared" si="1"/>
         <v>3.1899999999999959</v>
       </c>
-      <c r="B39" s="631" t="s">
+      <c r="B39" s="393" t="s">
         <v>242</v>
       </c>
       <c r="C39" s="152" t="s">
@@ -18202,49 +18116,49 @@
       <c r="S39" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T39" s="628" t="s">
+      <c r="T39" s="390" t="s">
         <v>71</v>
       </c>
-      <c r="U39" s="629" t="s">
+      <c r="U39" s="391" t="s">
         <v>153</v>
       </c>
-      <c r="V39" s="649" t="s">
+      <c r="V39" s="402" t="s">
         <v>305</v>
       </c>
-      <c r="W39" s="651" t="s">
+      <c r="W39" s="404" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="40" spans="1:23" s="9" customFormat="1" ht="20.100000000000001" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="645" t="s">
+      <c r="A40" s="523" t="s">
         <v>253</v>
       </c>
-      <c r="B40" s="646"/>
-      <c r="C40" s="646"/>
-      <c r="D40" s="646"/>
-      <c r="E40" s="646"/>
-      <c r="F40" s="646"/>
-      <c r="G40" s="646"/>
-      <c r="H40" s="646"/>
-      <c r="I40" s="646"/>
-      <c r="J40" s="646"/>
-      <c r="K40" s="646"/>
-      <c r="L40" s="646"/>
-      <c r="M40" s="646"/>
-      <c r="N40" s="646"/>
-      <c r="O40" s="646"/>
-      <c r="P40" s="646"/>
-      <c r="Q40" s="646"/>
-      <c r="R40" s="646"/>
-      <c r="S40" s="646"/>
-      <c r="T40" s="646"/>
-      <c r="U40" s="647"/>
+      <c r="B40" s="524"/>
+      <c r="C40" s="524"/>
+      <c r="D40" s="524"/>
+      <c r="E40" s="524"/>
+      <c r="F40" s="524"/>
+      <c r="G40" s="524"/>
+      <c r="H40" s="524"/>
+      <c r="I40" s="524"/>
+      <c r="J40" s="524"/>
+      <c r="K40" s="524"/>
+      <c r="L40" s="524"/>
+      <c r="M40" s="524"/>
+      <c r="N40" s="524"/>
+      <c r="O40" s="524"/>
+      <c r="P40" s="524"/>
+      <c r="Q40" s="524"/>
+      <c r="R40" s="524"/>
+      <c r="S40" s="524"/>
+      <c r="T40" s="524"/>
+      <c r="U40" s="525"/>
     </row>
     <row r="41" spans="1:23" s="107" customFormat="1" ht="30" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="237">
         <v>4.01</v>
       </c>
-      <c r="B41" s="626" t="s">
+      <c r="B41" s="388" t="s">
         <v>254</v>
       </c>
       <c r="C41" s="14" t="s">
@@ -18310,7 +18224,7 @@
         <f>+A41+0.01</f>
         <v>4.0199999999999996</v>
       </c>
-      <c r="B42" s="626" t="s">
+      <c r="B42" s="388" t="s">
         <v>254</v>
       </c>
       <c r="C42" s="14" t="s">
@@ -18376,7 +18290,7 @@
         <f t="shared" ref="A43:A45" si="2">+A42+0.01</f>
         <v>4.0299999999999994</v>
       </c>
-      <c r="B43" s="626" t="s">
+      <c r="B43" s="388" t="s">
         <v>254</v>
       </c>
       <c r="C43" s="14" t="s">
@@ -18442,7 +18356,7 @@
         <f t="shared" si="2"/>
         <v>4.0399999999999991</v>
       </c>
-      <c r="B44" s="626" t="s">
+      <c r="B44" s="388" t="s">
         <v>254</v>
       </c>
       <c r="C44" s="14" t="s">
@@ -18508,7 +18422,7 @@
         <f t="shared" si="2"/>
         <v>4.0499999999999989</v>
       </c>
-      <c r="B45" s="626" t="s">
+      <c r="B45" s="388" t="s">
         <v>254</v>
       </c>
       <c r="C45" s="152" t="s">
@@ -18635,29 +18549,29 @@
       </c>
     </row>
     <row r="47" spans="1:23" s="13" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="383" t="s">
+      <c r="A47" s="440" t="s">
         <v>319</v>
       </c>
-      <c r="B47" s="384"/>
-      <c r="C47" s="384"/>
-      <c r="D47" s="384"/>
-      <c r="E47" s="384"/>
-      <c r="F47" s="384"/>
-      <c r="G47" s="384"/>
-      <c r="H47" s="384"/>
-      <c r="I47" s="384"/>
-      <c r="J47" s="384"/>
-      <c r="K47" s="384"/>
-      <c r="L47" s="384"/>
-      <c r="M47" s="384"/>
-      <c r="N47" s="384"/>
-      <c r="O47" s="384"/>
-      <c r="P47" s="384"/>
-      <c r="Q47" s="384"/>
-      <c r="R47" s="384"/>
-      <c r="S47" s="384"/>
-      <c r="T47" s="384"/>
-      <c r="U47" s="385"/>
+      <c r="B47" s="450"/>
+      <c r="C47" s="450"/>
+      <c r="D47" s="450"/>
+      <c r="E47" s="450"/>
+      <c r="F47" s="450"/>
+      <c r="G47" s="450"/>
+      <c r="H47" s="450"/>
+      <c r="I47" s="450"/>
+      <c r="J47" s="450"/>
+      <c r="K47" s="450"/>
+      <c r="L47" s="450"/>
+      <c r="M47" s="450"/>
+      <c r="N47" s="450"/>
+      <c r="O47" s="450"/>
+      <c r="P47" s="450"/>
+      <c r="Q47" s="450"/>
+      <c r="R47" s="450"/>
+      <c r="S47" s="450"/>
+      <c r="T47" s="450"/>
+      <c r="U47" s="451"/>
     </row>
     <row r="48" spans="1:23" s="13" customFormat="1" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="284">
@@ -18786,7 +18700,7 @@
       <c r="T49" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="U49" s="627" t="s">
+      <c r="U49" s="389" t="s">
         <v>649</v>
       </c>
     </row>
@@ -18852,7 +18766,7 @@
       <c r="T50" s="183" t="s">
         <v>136</v>
       </c>
-      <c r="U50" s="627" t="s">
+      <c r="U50" s="389" t="s">
         <v>649</v>
       </c>
     </row>
@@ -18915,13 +18829,13 @@
       <c r="S51" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T51" s="628" t="s">
+      <c r="T51" s="390" t="s">
         <v>340</v>
       </c>
-      <c r="U51" s="669" t="s">
+      <c r="U51" s="415" t="s">
         <v>153</v>
       </c>
-      <c r="W51" s="648"/>
+      <c r="W51" s="401"/>
       <c r="X51" s="96"/>
       <c r="Z51" s="96"/>
       <c r="AA51" s="326"/>
@@ -18932,7 +18846,7 @@
         <f>+A51+0.01</f>
         <v>2.0499999999999989</v>
       </c>
-      <c r="B52" s="668" t="s">
+      <c r="B52" s="414" t="s">
         <v>143</v>
       </c>
       <c r="C52" s="152" t="s">
@@ -18986,19 +18900,19 @@
       <c r="S52" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T52" s="628" t="s">
+      <c r="T52" s="390" t="s">
         <v>340</v>
       </c>
-      <c r="U52" s="669" t="s">
+      <c r="U52" s="415" t="s">
         <v>153</v>
       </c>
-      <c r="W52" s="648"/>
+      <c r="W52" s="401"/>
     </row>
     <row r="53" spans="1:28" s="13" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="151" t="s">
         <v>649</v>
       </c>
-      <c r="B53" s="668" t="s">
+      <c r="B53" s="414" t="s">
         <v>143</v>
       </c>
       <c r="C53" s="152" t="s">
@@ -19052,19 +18966,19 @@
       <c r="S53" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T53" s="628" t="s">
+      <c r="T53" s="390" t="s">
         <v>340</v>
       </c>
-      <c r="U53" s="669" t="s">
+      <c r="U53" s="415" t="s">
         <v>153</v>
       </c>
-      <c r="W53" s="648"/>
+      <c r="W53" s="401"/>
     </row>
     <row r="54" spans="1:28" s="13" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="151" t="s">
         <v>649</v>
       </c>
-      <c r="B54" s="668" t="s">
+      <c r="B54" s="414" t="s">
         <v>143</v>
       </c>
       <c r="C54" s="152" t="s">
@@ -19118,13 +19032,13 @@
       <c r="S54" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T54" s="628" t="s">
+      <c r="T54" s="390" t="s">
         <v>340</v>
       </c>
-      <c r="U54" s="669" t="s">
+      <c r="U54" s="415" t="s">
         <v>153</v>
       </c>
-      <c r="W54" s="648"/>
+      <c r="W54" s="401"/>
       <c r="X54" s="96"/>
       <c r="Z54" s="96"/>
       <c r="AA54" s="326"/>
@@ -19135,7 +19049,7 @@
         <f>+A52+0.01</f>
         <v>2.0599999999999987</v>
       </c>
-      <c r="B55" s="668" t="s">
+      <c r="B55" s="414" t="s">
         <v>143</v>
       </c>
       <c r="C55" s="152" t="s">
@@ -19189,42 +19103,42 @@
       <c r="S55" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T55" s="628" t="s">
+      <c r="T55" s="390" t="s">
         <v>340</v>
       </c>
-      <c r="U55" s="669" t="s">
+      <c r="U55" s="415" t="s">
         <v>153</v>
       </c>
-      <c r="W55" s="648"/>
+      <c r="W55" s="401"/>
       <c r="X55" s="96"/>
       <c r="Z55" s="96"/>
       <c r="AA55" s="326"/>
       <c r="AB55" s="326"/>
     </row>
     <row r="56" spans="1:28" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="383" t="s">
+      <c r="A56" s="440" t="s">
         <v>350</v>
       </c>
-      <c r="B56" s="384"/>
-      <c r="C56" s="384"/>
-      <c r="D56" s="384"/>
-      <c r="E56" s="384"/>
-      <c r="F56" s="384"/>
-      <c r="G56" s="384"/>
-      <c r="H56" s="384"/>
-      <c r="I56" s="384"/>
-      <c r="J56" s="384"/>
-      <c r="K56" s="384"/>
-      <c r="L56" s="384"/>
-      <c r="M56" s="384"/>
-      <c r="N56" s="384"/>
-      <c r="O56" s="384"/>
-      <c r="P56" s="384"/>
-      <c r="Q56" s="384"/>
-      <c r="R56" s="384"/>
-      <c r="S56" s="384"/>
-      <c r="T56" s="384"/>
-      <c r="U56" s="385"/>
+      <c r="B56" s="450"/>
+      <c r="C56" s="450"/>
+      <c r="D56" s="450"/>
+      <c r="E56" s="450"/>
+      <c r="F56" s="450"/>
+      <c r="G56" s="450"/>
+      <c r="H56" s="450"/>
+      <c r="I56" s="450"/>
+      <c r="J56" s="450"/>
+      <c r="K56" s="450"/>
+      <c r="L56" s="450"/>
+      <c r="M56" s="450"/>
+      <c r="N56" s="450"/>
+      <c r="O56" s="450"/>
+      <c r="P56" s="450"/>
+      <c r="Q56" s="450"/>
+      <c r="R56" s="450"/>
+      <c r="S56" s="450"/>
+      <c r="T56" s="450"/>
+      <c r="U56" s="451"/>
     </row>
     <row r="57" spans="1:28" s="107" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="287">
@@ -19284,10 +19198,10 @@
       <c r="S57" s="204" t="s">
         <v>125</v>
       </c>
-      <c r="T57" s="670" t="s">
+      <c r="T57" s="416" t="s">
         <v>126</v>
       </c>
-      <c r="U57" s="671" t="s">
+      <c r="U57" s="417" t="s">
         <v>153</v>
       </c>
     </row>
@@ -19350,10 +19264,10 @@
       <c r="S58" s="204" t="s">
         <v>125</v>
       </c>
-      <c r="T58" s="670" t="s">
+      <c r="T58" s="416" t="s">
         <v>126</v>
       </c>
-      <c r="U58" s="671" t="s">
+      <c r="U58" s="417" t="s">
         <v>153</v>
       </c>
     </row>
@@ -19416,10 +19330,10 @@
       <c r="S59" s="204" t="s">
         <v>125</v>
       </c>
-      <c r="T59" s="670" t="s">
+      <c r="T59" s="416" t="s">
         <v>126</v>
       </c>
-      <c r="U59" s="671" t="s">
+      <c r="U59" s="417" t="s">
         <v>153</v>
       </c>
     </row>
@@ -19482,10 +19396,10 @@
       <c r="S60" s="204" t="s">
         <v>125</v>
       </c>
-      <c r="T60" s="670" t="s">
+      <c r="T60" s="416" t="s">
         <v>306</v>
       </c>
-      <c r="U60" s="671" t="s">
+      <c r="U60" s="417" t="s">
         <v>153</v>
       </c>
     </row>
@@ -19548,10 +19462,10 @@
       <c r="S61" s="204" t="s">
         <v>125</v>
       </c>
-      <c r="T61" s="670" t="s">
+      <c r="T61" s="416" t="s">
         <v>306</v>
       </c>
-      <c r="U61" s="671" t="s">
+      <c r="U61" s="417" t="s">
         <v>153</v>
       </c>
     </row>
@@ -19614,10 +19528,10 @@
       <c r="S62" s="204" t="s">
         <v>125</v>
       </c>
-      <c r="T62" s="670" t="s">
+      <c r="T62" s="416" t="s">
         <v>306</v>
       </c>
-      <c r="U62" s="671" t="s">
+      <c r="U62" s="417" t="s">
         <v>153</v>
       </c>
     </row>
@@ -19686,7 +19600,7 @@
       <c r="U63" s="378" t="s">
         <v>153</v>
       </c>
-      <c r="W63" s="652" t="s">
+      <c r="W63" s="405" t="s">
         <v>367</v>
       </c>
     </row>
@@ -19755,32 +19669,32 @@
       <c r="U64" s="378" t="s">
         <v>153</v>
       </c>
-      <c r="W64" s="648"/>
+      <c r="W64" s="401"/>
     </row>
     <row r="65" spans="1:27" s="268" customFormat="1" ht="38.25" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="402" t="s">
+      <c r="A65" s="431" t="s">
         <v>116</v>
       </c>
-      <c r="B65" s="403"/>
-      <c r="C65" s="403"/>
-      <c r="D65" s="403"/>
-      <c r="E65" s="403"/>
-      <c r="F65" s="403"/>
-      <c r="G65" s="403"/>
-      <c r="H65" s="403"/>
-      <c r="I65" s="403"/>
-      <c r="J65" s="403"/>
-      <c r="K65" s="403"/>
-      <c r="L65" s="403"/>
-      <c r="M65" s="403"/>
-      <c r="N65" s="403"/>
-      <c r="O65" s="403"/>
-      <c r="P65" s="403"/>
-      <c r="Q65" s="403"/>
-      <c r="R65" s="403"/>
-      <c r="S65" s="403"/>
-      <c r="T65" s="403"/>
-      <c r="U65" s="404"/>
+      <c r="B65" s="432"/>
+      <c r="C65" s="432"/>
+      <c r="D65" s="432"/>
+      <c r="E65" s="432"/>
+      <c r="F65" s="432"/>
+      <c r="G65" s="432"/>
+      <c r="H65" s="432"/>
+      <c r="I65" s="432"/>
+      <c r="J65" s="432"/>
+      <c r="K65" s="432"/>
+      <c r="L65" s="432"/>
+      <c r="M65" s="432"/>
+      <c r="N65" s="432"/>
+      <c r="O65" s="432"/>
+      <c r="P65" s="432"/>
+      <c r="Q65" s="432"/>
+      <c r="R65" s="432"/>
+      <c r="S65" s="432"/>
+      <c r="T65" s="432"/>
+      <c r="U65" s="433"/>
     </row>
     <row r="66" spans="1:27" s="268" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A66" s="284">
@@ -19813,7 +19727,7 @@
       <c r="J66" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="K66" s="673" t="s">
+      <c r="K66" s="419" t="s">
         <v>649</v>
       </c>
       <c r="L66" s="11" t="s">
@@ -19852,16 +19766,16 @@
         <f t="shared" ref="A67:A73" si="4">+A66+0.01</f>
         <v>2.0199999999999996</v>
       </c>
-      <c r="B67" s="664" t="s">
+      <c r="B67" s="410" t="s">
         <v>128</v>
       </c>
-      <c r="C67" s="664" t="s">
+      <c r="C67" s="410" t="s">
         <v>129</v>
       </c>
-      <c r="D67" s="664" t="s">
+      <c r="D67" s="410" t="s">
         <v>58</v>
       </c>
-      <c r="E67" s="664" t="s">
+      <c r="E67" s="410" t="s">
         <v>130</v>
       </c>
       <c r="F67" s="10" t="s">
@@ -19879,7 +19793,7 @@
       <c r="J67" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="K67" s="673" t="s">
+      <c r="K67" s="419" t="s">
         <v>649</v>
       </c>
       <c r="L67" s="11" t="s">
@@ -19906,10 +19820,10 @@
       <c r="S67" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="T67" s="664" t="s">
+      <c r="T67" s="410" t="s">
         <v>136</v>
       </c>
-      <c r="U67" s="672" t="s">
+      <c r="U67" s="418" t="s">
         <v>137</v>
       </c>
     </row>
@@ -19918,16 +19832,16 @@
         <f t="shared" si="4"/>
         <v>2.0299999999999994</v>
       </c>
-      <c r="B68" s="664" t="s">
+      <c r="B68" s="410" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="664" t="s">
+      <c r="C68" s="410" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="664" t="s">
+      <c r="D68" s="410" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="664" t="s">
+      <c r="E68" s="410" t="s">
         <v>130</v>
       </c>
       <c r="F68" s="10" t="s">
@@ -19945,7 +19859,7 @@
       <c r="J68" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="K68" s="673" t="s">
+      <c r="K68" s="419" t="s">
         <v>649</v>
       </c>
       <c r="L68" s="11" t="s">
@@ -19972,10 +19886,10 @@
       <c r="S68" s="134" t="s">
         <v>125</v>
       </c>
-      <c r="T68" s="664" t="s">
+      <c r="T68" s="410" t="s">
         <v>136</v>
       </c>
-      <c r="U68" s="672" t="s">
+      <c r="U68" s="418" t="s">
         <v>137</v>
       </c>
     </row>
@@ -19984,7 +19898,7 @@
         <f t="shared" si="4"/>
         <v>2.0399999999999991</v>
       </c>
-      <c r="B69" s="631" t="s">
+      <c r="B69" s="393" t="s">
         <v>143</v>
       </c>
       <c r="C69" s="152" t="s">
@@ -20038,13 +19952,13 @@
       <c r="S69" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T69" s="628" t="s">
+      <c r="T69" s="390" t="s">
         <v>152</v>
       </c>
-      <c r="U69" s="629" t="s">
+      <c r="U69" s="391" t="s">
         <v>153</v>
       </c>
-      <c r="W69" s="651" t="s">
+      <c r="W69" s="404" t="s">
         <v>372</v>
       </c>
     </row>
@@ -20053,7 +19967,7 @@
         <f t="shared" si="4"/>
         <v>2.0499999999999989</v>
       </c>
-      <c r="B70" s="631" t="s">
+      <c r="B70" s="393" t="s">
         <v>143</v>
       </c>
       <c r="C70" s="152" t="s">
@@ -20107,13 +20021,13 @@
       <c r="S70" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T70" s="628" t="s">
+      <c r="T70" s="390" t="s">
         <v>152</v>
       </c>
-      <c r="U70" s="629" t="s">
+      <c r="U70" s="391" t="s">
         <v>153</v>
       </c>
-      <c r="W70" s="651" t="s">
+      <c r="W70" s="404" t="s">
         <v>372</v>
       </c>
     </row>
@@ -20122,7 +20036,7 @@
         <f t="shared" si="4"/>
         <v>2.0599999999999987</v>
       </c>
-      <c r="B71" s="631" t="s">
+      <c r="B71" s="393" t="s">
         <v>143</v>
       </c>
       <c r="C71" s="152" t="s">
@@ -20176,13 +20090,13 @@
       <c r="S71" s="173" t="s">
         <v>125</v>
       </c>
-      <c r="T71" s="628" t="s">
+      <c r="T71" s="390" t="s">
         <v>152</v>
       </c>
-      <c r="U71" s="629" t="s">
+      <c r="U71" s="391" t="s">
         <v>153</v>
       </c>
-      <c r="W71" s="651" t="s">
+      <c r="W71" s="404" t="s">
         <v>372</v>
       </c>
     </row>
@@ -20319,54 +20233,54 @@
       </c>
     </row>
     <row r="74" spans="1:27" s="13" customFormat="1" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="398" t="s">
+      <c r="A74" s="464" t="s">
         <v>373</v>
       </c>
-      <c r="B74" s="399"/>
-      <c r="C74" s="399"/>
-      <c r="D74" s="399"/>
-      <c r="E74" s="399"/>
-      <c r="F74" s="399"/>
-      <c r="G74" s="399"/>
-      <c r="H74" s="399"/>
-      <c r="I74" s="399"/>
-      <c r="J74" s="399"/>
-      <c r="K74" s="399"/>
-      <c r="L74" s="399"/>
-      <c r="M74" s="399"/>
-      <c r="N74" s="399"/>
-      <c r="O74" s="399"/>
-      <c r="P74" s="399"/>
-      <c r="Q74" s="399"/>
-      <c r="R74" s="399"/>
-      <c r="S74" s="399"/>
-      <c r="T74" s="399"/>
-      <c r="U74" s="400"/>
+      <c r="B74" s="465"/>
+      <c r="C74" s="465"/>
+      <c r="D74" s="465"/>
+      <c r="E74" s="465"/>
+      <c r="F74" s="465"/>
+      <c r="G74" s="465"/>
+      <c r="H74" s="465"/>
+      <c r="I74" s="465"/>
+      <c r="J74" s="465"/>
+      <c r="K74" s="465"/>
+      <c r="L74" s="465"/>
+      <c r="M74" s="465"/>
+      <c r="N74" s="465"/>
+      <c r="O74" s="465"/>
+      <c r="P74" s="465"/>
+      <c r="Q74" s="465"/>
+      <c r="R74" s="465"/>
+      <c r="S74" s="465"/>
+      <c r="T74" s="465"/>
+      <c r="U74" s="466"/>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25"/>
     <row r="76" spans="1:27" s="366" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="B76" s="653"/>
-      <c r="C76" s="653"/>
-      <c r="D76" s="653"/>
-      <c r="E76" s="653"/>
-      <c r="F76" s="653"/>
+      <c r="B76" s="406"/>
+      <c r="C76" s="406"/>
+      <c r="D76" s="406"/>
+      <c r="E76" s="406"/>
+      <c r="F76" s="406"/>
       <c r="G76" s="370"/>
       <c r="H76" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="I76" s="653" t="s">
+      <c r="I76" s="406" t="s">
         <v>286</v>
       </c>
-      <c r="J76" s="396" t="s">
+      <c r="J76" s="462" t="s">
         <v>287</v>
       </c>
-      <c r="K76" s="396"/>
-      <c r="L76" s="396"/>
-      <c r="M76" s="396"/>
-      <c r="N76" s="654"/>
+      <c r="K76" s="462"/>
+      <c r="L76" s="462"/>
+      <c r="M76" s="462"/>
+      <c r="N76" s="532"/>
       <c r="Q76" s="96"/>
       <c r="R76" s="96"/>
       <c r="S76" s="96"/>
@@ -20385,11 +20299,11 @@
       <c r="F77" s="357"/>
       <c r="H77" s="368"/>
       <c r="I77" s="369"/>
-      <c r="J77" s="655"/>
-      <c r="K77" s="655"/>
-      <c r="L77" s="655"/>
-      <c r="M77" s="655"/>
-      <c r="N77" s="656"/>
+      <c r="J77" s="527"/>
+      <c r="K77" s="527"/>
+      <c r="L77" s="527"/>
+      <c r="M77" s="527"/>
+      <c r="N77" s="528"/>
       <c r="Q77" s="96"/>
       <c r="R77" s="96"/>
       <c r="S77" s="96"/>
@@ -20399,7 +20313,7 @@
       <c r="Z77" s="357"/>
       <c r="AA77" s="357"/>
     </row>
-    <row r="78" spans="1:27" s="366" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" s="366" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A78" s="28" t="s">
         <v>288</v>
       </c>
@@ -20419,13 +20333,13 @@
       <c r="I78" s="371" t="s">
         <v>292</v>
       </c>
-      <c r="J78" s="388" t="s">
+      <c r="J78" s="454" t="s">
         <v>293</v>
       </c>
-      <c r="K78" s="388"/>
-      <c r="L78" s="388"/>
-      <c r="M78" s="388"/>
-      <c r="N78" s="657"/>
+      <c r="K78" s="454"/>
+      <c r="L78" s="454"/>
+      <c r="M78" s="454"/>
+      <c r="N78" s="526"/>
       <c r="Q78" s="96"/>
       <c r="R78" s="96"/>
       <c r="S78" s="96"/>
@@ -20444,11 +20358,11 @@
       <c r="F79" s="357"/>
       <c r="H79" s="368"/>
       <c r="I79" s="369"/>
-      <c r="J79" s="655"/>
-      <c r="K79" s="655"/>
-      <c r="L79" s="655"/>
-      <c r="M79" s="655"/>
-      <c r="N79" s="656"/>
+      <c r="J79" s="527"/>
+      <c r="K79" s="527"/>
+      <c r="L79" s="527"/>
+      <c r="M79" s="527"/>
+      <c r="N79" s="528"/>
       <c r="Q79" s="96"/>
       <c r="R79" s="96"/>
       <c r="S79" s="96"/>
@@ -20458,12 +20372,12 @@
       <c r="Z79" s="357"/>
       <c r="AA79" s="357"/>
     </row>
-    <row r="80" spans="1:27" s="366" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="387" t="s">
+    <row r="80" spans="1:27" s="366" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="453" t="s">
         <v>294</v>
       </c>
-      <c r="B80" s="658"/>
-      <c r="C80" s="658"/>
+      <c r="B80" s="529"/>
+      <c r="C80" s="529"/>
       <c r="D80" s="357" t="s">
         <v>289</v>
       </c>
@@ -20478,13 +20392,13 @@
       <c r="I80" s="357" t="s">
         <v>295</v>
       </c>
-      <c r="J80" s="388" t="s">
+      <c r="J80" s="454" t="s">
         <v>296</v>
       </c>
-      <c r="K80" s="388"/>
-      <c r="L80" s="388"/>
-      <c r="M80" s="388"/>
-      <c r="N80" s="657"/>
+      <c r="K80" s="454"/>
+      <c r="L80" s="454"/>
+      <c r="M80" s="454"/>
+      <c r="N80" s="526"/>
       <c r="Q80" s="96"/>
       <c r="R80" s="96"/>
       <c r="S80" s="96"/>
@@ -20495,20 +20409,20 @@
       <c r="AA80" s="357"/>
     </row>
     <row r="81" spans="1:27" s="366" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="659"/>
-      <c r="B81" s="660"/>
-      <c r="C81" s="660"/>
-      <c r="D81" s="660"/>
-      <c r="E81" s="660"/>
-      <c r="F81" s="660"/>
-      <c r="G81" s="661"/>
-      <c r="H81" s="659"/>
-      <c r="I81" s="660"/>
-      <c r="J81" s="662"/>
-      <c r="K81" s="662"/>
-      <c r="L81" s="662"/>
-      <c r="M81" s="662"/>
-      <c r="N81" s="663"/>
+      <c r="A81" s="407"/>
+      <c r="B81" s="408"/>
+      <c r="C81" s="408"/>
+      <c r="D81" s="408"/>
+      <c r="E81" s="408"/>
+      <c r="F81" s="408"/>
+      <c r="G81" s="409"/>
+      <c r="H81" s="407"/>
+      <c r="I81" s="408"/>
+      <c r="J81" s="530"/>
+      <c r="K81" s="530"/>
+      <c r="L81" s="530"/>
+      <c r="M81" s="530"/>
+      <c r="N81" s="531"/>
       <c r="Q81" s="96"/>
       <c r="R81" s="96"/>
       <c r="S81" s="96"/>
@@ -20545,20 +20459,23 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:D4"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="C5:D7"/>
-    <mergeCell ref="E5:G7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J78:N79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="J80:N81"/>
+    <mergeCell ref="J76:N77"/>
+    <mergeCell ref="A20:U20"/>
+    <mergeCell ref="A40:U40"/>
+    <mergeCell ref="A74:U74"/>
+    <mergeCell ref="A56:U56"/>
+    <mergeCell ref="A65:U65"/>
+    <mergeCell ref="A47:U47"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="A11:U11"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
     <mergeCell ref="R8:R9"/>
@@ -20568,165 +20485,148 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="A11:U11"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="A20:U20"/>
-    <mergeCell ref="A40:U40"/>
-    <mergeCell ref="A74:U74"/>
-    <mergeCell ref="A56:U56"/>
-    <mergeCell ref="A65:U65"/>
-    <mergeCell ref="A47:U47"/>
-    <mergeCell ref="J78:N79"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="J80:N81"/>
-    <mergeCell ref="J76:N77"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="C5:D7"/>
+    <mergeCell ref="E5:G7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:D4"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <conditionalFormatting sqref="K12:M19">
-    <cfRule type="containsBlanks" dxfId="53" priority="37" stopIfTrue="1">
-      <formula>LEN(TRIM(K12))=0</formula>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="containsBlanks" dxfId="45" priority="9" stopIfTrue="1">
+      <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="10" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="11" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="12" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J37:J38">
+    <cfRule type="containsBlanks" dxfId="41" priority="13" stopIfTrue="1">
+      <formula>LEN(TRIM(J37))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12:M19">
+    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="36" priority="37" stopIfTrue="1">
+      <formula>LEN(TRIM(K12))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="38" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="K21:M39">
-    <cfRule type="containsBlanks" dxfId="49" priority="33" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="31" priority="33" stopIfTrue="1">
       <formula>LEN(TRIM(K21))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="34" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="35" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="36" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K41:M46">
-    <cfRule type="containsBlanks" dxfId="45" priority="29" stopIfTrue="1">
-      <formula>LEN(TRIM(K41))=0</formula>
+    <cfRule type="cellIs" dxfId="29" priority="32" operator="equal">
+      <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="31" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="31" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="32" operator="equal">
-      <formula>"I"</formula>
+    <cfRule type="containsBlanks" dxfId="26" priority="29" stopIfTrue="1">
+      <formula>LEN(TRIM(K41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48:M55 K57:M64">
-    <cfRule type="containsBlanks" dxfId="41" priority="25" stopIfTrue="1">
-      <formula>LEN(TRIM(K48))=0</formula>
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+      <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="27" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="27" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="28" operator="equal">
-      <formula>"I"</formula>
+    <cfRule type="containsBlanks" dxfId="22" priority="25" stopIfTrue="1">
+      <formula>LEN(TRIM(K48))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K66:M73">
-    <cfRule type="containsBlanks" dxfId="37" priority="21" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="21" priority="21" stopIfTrue="1">
       <formula>LEN(TRIM(K66))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="24" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J37">
-    <cfRule type="containsBlanks" dxfId="23" priority="17" stopIfTrue="1">
-      <formula>LEN(TRIM(J37))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="18" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="19" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J38">
-    <cfRule type="containsBlanks" dxfId="19" priority="13" stopIfTrue="1">
-      <formula>LEN(TRIM(J38))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="14" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
-    <cfRule type="containsBlanks" dxfId="11" priority="9" stopIfTrue="1">
-      <formula>LEN(TRIM(F38))=0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P37">
-    <cfRule type="containsBlanks" dxfId="7" priority="5" stopIfTrue="1">
-      <formula>LEN(TRIM(P37))=0</formula>
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>"I"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"I"</formula>
+    <cfRule type="containsBlanks" dxfId="14" priority="5" stopIfTrue="1">
+      <formula>LEN(TRIM(P37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P39">
-    <cfRule type="containsBlanks" dxfId="3" priority="1" stopIfTrue="1">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>"I"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>"A"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="10" priority="1" stopIfTrue="1">
       <formula>LEN(TRIM(P39))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
-      <formula>"R"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
-      <formula>"A"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
-      <formula>"I"</formula>
-    </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q21:Q39 Q12:Q19 Q41:Q46" xr:uid="{F69D6CD9-CCFA-4D31-B3FE-F38C30814065}">
       <formula1>#REF!</formula1>
     </dataValidation>
@@ -20751,8 +20651,8 @@
   </sheetPr>
   <dimension ref="A1:AS79"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -20799,22 +20699,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="498"/>
-      <c r="B1" s="498"/>
-      <c r="C1" s="498"/>
-      <c r="D1" s="498"/>
-      <c r="E1" s="409" t="s">
+      <c r="A1" s="533"/>
+      <c r="B1" s="533"/>
+      <c r="C1" s="533"/>
+      <c r="D1" s="533"/>
+      <c r="E1" s="428" t="s">
         <v>374</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="82"/>
-      <c r="H1" s="499" t="s">
+      <c r="H1" s="534" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="499"/>
-      <c r="J1" s="499"/>
+      <c r="I1" s="534"/>
+      <c r="J1" s="534"/>
       <c r="K1" s="91">
         <v>0</v>
       </c>
@@ -20831,19 +20731,19 @@
       <c r="P1" s="174"/>
     </row>
     <row r="2" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="498"/>
-      <c r="B2" s="498"/>
-      <c r="C2" s="498"/>
-      <c r="D2" s="498"/>
-      <c r="E2" s="409"/>
+      <c r="A2" s="533"/>
+      <c r="B2" s="533"/>
+      <c r="C2" s="533"/>
+      <c r="D2" s="533"/>
+      <c r="E2" s="428"/>
       <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="82"/>
-      <c r="H2" s="496" t="s">
+      <c r="H2" s="535" t="s">
         <v>375</v>
       </c>
-      <c r="I2" s="496"/>
+      <c r="I2" s="535"/>
       <c r="J2" s="90" t="s">
         <v>376</v>
       </c>
@@ -20857,19 +20757,19 @@
       <c r="P2" s="175"/>
     </row>
     <row r="3" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="498"/>
-      <c r="B3" s="498"/>
-      <c r="C3" s="498"/>
-      <c r="D3" s="498"/>
-      <c r="E3" s="500" t="s">
+      <c r="A3" s="533"/>
+      <c r="B3" s="533"/>
+      <c r="C3" s="533"/>
+      <c r="D3" s="533"/>
+      <c r="E3" s="536" t="s">
         <v>377</v>
       </c>
-      <c r="F3" s="500"/>
-      <c r="G3" s="500"/>
-      <c r="H3" s="496" t="s">
+      <c r="F3" s="536"/>
+      <c r="G3" s="536"/>
+      <c r="H3" s="535" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="496"/>
+      <c r="I3" s="535"/>
       <c r="J3" s="5" t="s">
         <v>378</v>
       </c>
@@ -20885,17 +20785,17 @@
       <c r="U3" s="88"/>
     </row>
     <row r="4" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="498"/>
-      <c r="B4" s="498"/>
-      <c r="C4" s="498"/>
-      <c r="D4" s="498"/>
-      <c r="E4" s="500"/>
-      <c r="F4" s="500"/>
-      <c r="G4" s="500"/>
-      <c r="H4" s="496" t="s">
+      <c r="A4" s="533"/>
+      <c r="B4" s="533"/>
+      <c r="C4" s="533"/>
+      <c r="D4" s="533"/>
+      <c r="E4" s="536"/>
+      <c r="F4" s="536"/>
+      <c r="G4" s="536"/>
+      <c r="H4" s="535" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="496"/>
+      <c r="I4" s="535"/>
       <c r="J4" s="90" t="s">
         <v>379</v>
       </c>
@@ -20911,23 +20811,23 @@
       <c r="U4" s="88"/>
     </row>
     <row r="5" spans="1:45" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="493" t="s">
+      <c r="A5" s="537" t="s">
         <v>380</v>
       </c>
-      <c r="B5" s="494"/>
-      <c r="C5" s="407" t="s">
+      <c r="B5" s="538"/>
+      <c r="C5" s="436" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="407"/>
-      <c r="E5" s="496" t="s">
+      <c r="D5" s="436"/>
+      <c r="E5" s="535" t="s">
         <v>382</v>
       </c>
-      <c r="F5" s="496"/>
-      <c r="G5" s="496"/>
-      <c r="H5" s="496" t="s">
+      <c r="F5" s="535"/>
+      <c r="G5" s="535"/>
+      <c r="H5" s="535" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="496"/>
+      <c r="I5" s="535"/>
       <c r="J5" s="90" t="s">
         <v>383</v>
       </c>
@@ -20943,17 +20843,17 @@
       <c r="U5" s="88"/>
     </row>
     <row r="6" spans="1:45" s="3" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="493"/>
-      <c r="B6" s="494"/>
-      <c r="C6" s="407"/>
-      <c r="D6" s="407"/>
-      <c r="E6" s="496"/>
-      <c r="F6" s="496"/>
-      <c r="G6" s="496"/>
-      <c r="H6" s="496" t="s">
+      <c r="A6" s="537"/>
+      <c r="B6" s="538"/>
+      <c r="C6" s="436"/>
+      <c r="D6" s="436"/>
+      <c r="E6" s="535"/>
+      <c r="F6" s="535"/>
+      <c r="G6" s="535"/>
+      <c r="H6" s="535" t="s">
         <v>384</v>
       </c>
-      <c r="I6" s="496"/>
+      <c r="I6" s="535"/>
       <c r="J6" s="90" t="s">
         <v>385</v>
       </c>
@@ -20969,17 +20869,17 @@
       <c r="U6" s="88"/>
     </row>
     <row r="7" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="495"/>
-      <c r="B7" s="495"/>
-      <c r="C7" s="408"/>
-      <c r="D7" s="408"/>
-      <c r="E7" s="497"/>
-      <c r="F7" s="497"/>
-      <c r="G7" s="497"/>
-      <c r="H7" s="497" t="s">
+      <c r="A7" s="539"/>
+      <c r="B7" s="539"/>
+      <c r="C7" s="437"/>
+      <c r="D7" s="437"/>
+      <c r="E7" s="540"/>
+      <c r="F7" s="540"/>
+      <c r="G7" s="540"/>
+      <c r="H7" s="540" t="s">
         <v>386</v>
       </c>
-      <c r="I7" s="497"/>
+      <c r="I7" s="540"/>
       <c r="J7" s="99" t="s">
         <v>376</v>
       </c>
@@ -20995,73 +20895,73 @@
       <c r="U7" s="88"/>
     </row>
     <row r="8" spans="1:45" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="419" t="s">
+      <c r="A8" s="443" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="421" t="s">
+      <c r="B8" s="424" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="421" t="s">
+      <c r="C8" s="424" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="421"/>
-      <c r="E8" s="421"/>
-      <c r="F8" s="421"/>
-      <c r="G8" s="421" t="s">
+      <c r="D8" s="424"/>
+      <c r="E8" s="424"/>
+      <c r="F8" s="424"/>
+      <c r="G8" s="424" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="421" t="s">
+      <c r="H8" s="424" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="421" t="s">
+      <c r="I8" s="424" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="421" t="s">
+      <c r="J8" s="424" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="421" t="s">
+      <c r="K8" s="424" t="s">
         <v>40</v>
       </c>
-      <c r="L8" s="421"/>
-      <c r="M8" s="421"/>
-      <c r="N8" s="421"/>
-      <c r="O8" s="481" t="s">
+      <c r="L8" s="424"/>
+      <c r="M8" s="424"/>
+      <c r="N8" s="424"/>
+      <c r="O8" s="546" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="481" t="s">
+      <c r="P8" s="546" t="s">
         <v>387</v>
       </c>
-      <c r="Q8" s="481" t="s">
+      <c r="Q8" s="546" t="s">
         <v>43</v>
       </c>
-      <c r="R8" s="481" t="s">
+      <c r="R8" s="546" t="s">
         <v>38</v>
       </c>
-      <c r="S8" s="481" t="s">
+      <c r="S8" s="546" t="s">
         <v>298</v>
       </c>
-      <c r="T8" s="481" t="s">
+      <c r="T8" s="546" t="s">
         <v>45</v>
       </c>
-      <c r="U8" s="483" t="s">
+      <c r="U8" s="551" t="s">
         <v>46</v>
       </c>
-      <c r="AG8" s="478"/>
-      <c r="AH8" s="479"/>
-      <c r="AI8" s="479"/>
-      <c r="AJ8" s="479"/>
-      <c r="AK8" s="479"/>
-      <c r="AL8" s="480"/>
-      <c r="AN8" s="478"/>
-      <c r="AO8" s="479"/>
-      <c r="AP8" s="479"/>
-      <c r="AQ8" s="479"/>
-      <c r="AR8" s="479"/>
-      <c r="AS8" s="480"/>
+      <c r="AG8" s="548"/>
+      <c r="AH8" s="549"/>
+      <c r="AI8" s="549"/>
+      <c r="AJ8" s="549"/>
+      <c r="AK8" s="549"/>
+      <c r="AL8" s="550"/>
+      <c r="AN8" s="548"/>
+      <c r="AO8" s="549"/>
+      <c r="AP8" s="549"/>
+      <c r="AQ8" s="549"/>
+      <c r="AR8" s="549"/>
+      <c r="AS8" s="550"/>
     </row>
     <row r="9" spans="1:45" s="7" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="486"/>
-      <c r="B9" s="485"/>
+      <c r="A9" s="542"/>
+      <c r="B9" s="541"/>
       <c r="C9" s="6" t="s">
         <v>47</v>
       </c>
@@ -21074,10 +20974,10 @@
       <c r="F9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G9" s="485"/>
-      <c r="H9" s="485"/>
-      <c r="I9" s="485"/>
-      <c r="J9" s="485"/>
+      <c r="G9" s="541"/>
+      <c r="H9" s="541"/>
+      <c r="I9" s="541"/>
+      <c r="J9" s="541"/>
       <c r="K9" s="8" t="s">
         <v>388</v>
       </c>
@@ -21090,13 +20990,13 @@
       <c r="N9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="482"/>
-      <c r="P9" s="482"/>
-      <c r="Q9" s="482"/>
-      <c r="R9" s="482"/>
-      <c r="S9" s="482"/>
-      <c r="T9" s="482"/>
-      <c r="U9" s="484"/>
+      <c r="O9" s="547"/>
+      <c r="P9" s="547"/>
+      <c r="Q9" s="547"/>
+      <c r="R9" s="547"/>
+      <c r="S9" s="547"/>
+      <c r="T9" s="547"/>
+      <c r="U9" s="552"/>
       <c r="V9" s="107"/>
       <c r="W9" s="107"/>
       <c r="X9" s="322"/>
@@ -21161,7 +21061,7 @@
       <c r="A11" s="214">
         <v>1.01</v>
       </c>
-      <c r="B11" s="617" t="s">
+      <c r="B11" s="379" t="s">
         <v>390</v>
       </c>
       <c r="C11" s="215" t="s">
@@ -21218,7 +21118,7 @@
       <c r="T11" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="U11" s="618" t="s">
+      <c r="U11" s="380" t="s">
         <v>391</v>
       </c>
       <c r="X11" s="328"/>
@@ -21245,7 +21145,7 @@
         <f t="shared" ref="A12:A17" si="0">A11+0.01</f>
         <v>1.02</v>
       </c>
-      <c r="B12" s="617" t="s">
+      <c r="B12" s="379" t="s">
         <v>390</v>
       </c>
       <c r="C12" s="215" t="s">
@@ -21302,7 +21202,7 @@
       <c r="T12" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="U12" s="618" t="s">
+      <c r="U12" s="380" t="s">
         <v>391</v>
       </c>
       <c r="X12" s="333"/>
@@ -21327,7 +21227,7 @@
         <f t="shared" si="0"/>
         <v>1.03</v>
       </c>
-      <c r="B13" s="617" t="s">
+      <c r="B13" s="379" t="s">
         <v>390</v>
       </c>
       <c r="C13" s="215" t="s">
@@ -21384,7 +21284,7 @@
       <c r="T13" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="U13" s="618" t="s">
+      <c r="U13" s="380" t="s">
         <v>391</v>
       </c>
       <c r="X13" s="333"/>
@@ -21409,7 +21309,7 @@
         <f t="shared" si="0"/>
         <v>1.04</v>
       </c>
-      <c r="B14" s="617" t="s">
+      <c r="B14" s="379" t="s">
         <v>390</v>
       </c>
       <c r="C14" s="215" t="s">
@@ -21466,7 +21366,7 @@
       <c r="T14" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="U14" s="618" t="s">
+      <c r="U14" s="380" t="s">
         <v>391</v>
       </c>
       <c r="X14" s="335"/>
@@ -21491,7 +21391,7 @@
         <f t="shared" si="0"/>
         <v>1.05</v>
       </c>
-      <c r="B15" s="617" t="s">
+      <c r="B15" s="379" t="s">
         <v>390</v>
       </c>
       <c r="C15" s="215" t="s">
@@ -21548,7 +21448,7 @@
       <c r="T15" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="U15" s="618" t="s">
+      <c r="U15" s="380" t="s">
         <v>391</v>
       </c>
       <c r="X15" s="333"/>
@@ -21573,7 +21473,7 @@
         <f t="shared" si="0"/>
         <v>1.06</v>
       </c>
-      <c r="B16" s="617" t="s">
+      <c r="B16" s="379" t="s">
         <v>390</v>
       </c>
       <c r="C16" s="221" t="s">
@@ -21630,7 +21530,7 @@
       <c r="T16" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="U16" s="618" t="s">
+      <c r="U16" s="380" t="s">
         <v>391</v>
       </c>
       <c r="X16" s="335"/>
@@ -21655,7 +21555,7 @@
         <f t="shared" si="0"/>
         <v>1.07</v>
       </c>
-      <c r="B17" s="617" t="s">
+      <c r="B17" s="379" t="s">
         <v>390</v>
       </c>
       <c r="C17" s="221" t="s">
@@ -21712,7 +21612,7 @@
       <c r="T17" s="226" t="s">
         <v>71</v>
       </c>
-      <c r="U17" s="618" t="s">
+      <c r="U17" s="380" t="s">
         <v>391</v>
       </c>
       <c r="X17" s="336"/>
@@ -21737,29 +21637,29 @@
       <c r="AS17" s="344"/>
     </row>
     <row r="18" spans="1:45" s="9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="435" t="s">
+      <c r="A18" s="497" t="s">
         <v>395</v>
       </c>
-      <c r="B18" s="436"/>
-      <c r="C18" s="436"/>
-      <c r="D18" s="436"/>
-      <c r="E18" s="436"/>
-      <c r="F18" s="436"/>
-      <c r="G18" s="436"/>
-      <c r="H18" s="436"/>
-      <c r="I18" s="436"/>
-      <c r="J18" s="436"/>
-      <c r="K18" s="436"/>
-      <c r="L18" s="436"/>
-      <c r="M18" s="436"/>
-      <c r="N18" s="436"/>
-      <c r="O18" s="436"/>
-      <c r="P18" s="436"/>
-      <c r="Q18" s="436"/>
-      <c r="R18" s="436"/>
-      <c r="S18" s="436"/>
-      <c r="T18" s="436"/>
-      <c r="U18" s="437"/>
+      <c r="B18" s="498"/>
+      <c r="C18" s="498"/>
+      <c r="D18" s="498"/>
+      <c r="E18" s="498"/>
+      <c r="F18" s="498"/>
+      <c r="G18" s="498"/>
+      <c r="H18" s="498"/>
+      <c r="I18" s="498"/>
+      <c r="J18" s="498"/>
+      <c r="K18" s="498"/>
+      <c r="L18" s="498"/>
+      <c r="M18" s="498"/>
+      <c r="N18" s="498"/>
+      <c r="O18" s="498"/>
+      <c r="P18" s="498"/>
+      <c r="Q18" s="498"/>
+      <c r="R18" s="498"/>
+      <c r="S18" s="498"/>
+      <c r="T18" s="498"/>
+      <c r="U18" s="499"/>
     </row>
     <row r="19" spans="1:45" s="13" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="136">
@@ -21789,7 +21689,9 @@
       <c r="I19" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="10"/>
+      <c r="J19" s="10" t="s">
+        <v>649</v>
+      </c>
       <c r="K19" s="11" t="s">
         <v>63</v>
       </c>
@@ -21805,7 +21707,9 @@
       <c r="O19" s="10">
         <v>3731</v>
       </c>
-      <c r="P19" s="12"/>
+      <c r="P19" s="12" t="s">
+        <v>649</v>
+      </c>
       <c r="Q19" s="14" t="s">
         <v>170</v>
       </c>
@@ -21950,7 +21854,7 @@
         <f>+A21+0.01</f>
         <v>1.03</v>
       </c>
-      <c r="B22" s="487" t="s">
+      <c r="B22" s="659" t="s">
         <v>417</v>
       </c>
       <c r="C22" s="14" t="s">
@@ -21959,7 +21863,9 @@
       <c r="D22" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>649</v>
+      </c>
       <c r="F22" s="14" t="s">
         <v>399</v>
       </c>
@@ -21972,7 +21878,9 @@
       <c r="I22" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="16"/>
+      <c r="J22" s="16" t="s">
+        <v>649</v>
+      </c>
       <c r="K22" s="11" t="s">
         <v>63</v>
       </c>
@@ -21988,7 +21896,9 @@
       <c r="O22" s="10">
         <v>3731</v>
       </c>
-      <c r="P22" s="12"/>
+      <c r="P22" s="12" t="s">
+        <v>649</v>
+      </c>
       <c r="Q22" s="10" t="s">
         <v>135</v>
       </c>
@@ -22010,7 +21920,9 @@
         <f>+A22+0.01</f>
         <v>1.04</v>
       </c>
-      <c r="B23" s="488"/>
+      <c r="B23" s="659" t="s">
+        <v>417</v>
+      </c>
       <c r="C23" s="14" t="s">
         <v>419</v>
       </c>
@@ -22032,7 +21944,9 @@
       <c r="I23" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="16"/>
+      <c r="J23" s="16" t="s">
+        <v>649</v>
+      </c>
       <c r="K23" s="11" t="s">
         <v>63</v>
       </c>
@@ -22048,7 +21962,9 @@
       <c r="O23" s="10">
         <v>3731</v>
       </c>
-      <c r="P23" s="12"/>
+      <c r="P23" s="12" t="s">
+        <v>649</v>
+      </c>
       <c r="Q23" s="345" t="s">
         <v>151</v>
       </c>
@@ -22075,7 +21991,9 @@
       <c r="A24" s="136">
         <v>1.05</v>
       </c>
-      <c r="B24" s="489"/>
+      <c r="B24" s="659" t="s">
+        <v>417</v>
+      </c>
       <c r="C24" s="14" t="s">
         <v>422</v>
       </c>
@@ -22115,7 +22033,9 @@
       <c r="O24" s="10">
         <v>3731</v>
       </c>
-      <c r="P24" s="12"/>
+      <c r="P24" s="12" t="s">
+        <v>649</v>
+      </c>
       <c r="Q24" s="345" t="s">
         <v>151</v>
       </c>
@@ -22165,7 +22085,9 @@
       <c r="I25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J25" s="16"/>
+      <c r="J25" s="16" t="s">
+        <v>649</v>
+      </c>
       <c r="K25" s="11" t="s">
         <v>63</v>
       </c>
@@ -22207,29 +22129,29 @@
       <c r="AD25" s="326"/>
     </row>
     <row r="26" spans="1:45" s="15" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="490" t="s">
+      <c r="A26" s="543" t="s">
         <v>433</v>
       </c>
-      <c r="B26" s="491"/>
-      <c r="C26" s="491"/>
-      <c r="D26" s="491"/>
-      <c r="E26" s="491"/>
-      <c r="F26" s="491"/>
-      <c r="G26" s="491"/>
-      <c r="H26" s="491"/>
-      <c r="I26" s="491"/>
-      <c r="J26" s="491"/>
-      <c r="K26" s="491"/>
-      <c r="L26" s="491"/>
-      <c r="M26" s="491"/>
-      <c r="N26" s="491"/>
-      <c r="O26" s="491"/>
-      <c r="P26" s="491"/>
-      <c r="Q26" s="491"/>
-      <c r="R26" s="491"/>
-      <c r="S26" s="491"/>
-      <c r="T26" s="491"/>
-      <c r="U26" s="492"/>
+      <c r="B26" s="544"/>
+      <c r="C26" s="544"/>
+      <c r="D26" s="544"/>
+      <c r="E26" s="544"/>
+      <c r="F26" s="544"/>
+      <c r="G26" s="544"/>
+      <c r="H26" s="544"/>
+      <c r="I26" s="544"/>
+      <c r="J26" s="544"/>
+      <c r="K26" s="544"/>
+      <c r="L26" s="544"/>
+      <c r="M26" s="544"/>
+      <c r="N26" s="544"/>
+      <c r="O26" s="544"/>
+      <c r="P26" s="544"/>
+      <c r="Q26" s="544"/>
+      <c r="R26" s="544"/>
+      <c r="S26" s="544"/>
+      <c r="T26" s="544"/>
+      <c r="U26" s="545"/>
     </row>
     <row r="27" spans="1:45" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="95"/>
@@ -22265,13 +22187,13 @@
       <c r="I29" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="J29" s="452" t="s">
+      <c r="J29" s="483" t="s">
         <v>287</v>
       </c>
-      <c r="K29" s="452"/>
-      <c r="L29" s="452"/>
-      <c r="M29" s="452"/>
-      <c r="N29" s="453"/>
+      <c r="K29" s="483"/>
+      <c r="L29" s="483"/>
+      <c r="M29" s="483"/>
+      <c r="N29" s="484"/>
       <c r="O29" s="31"/>
       <c r="P29" s="31"/>
     </row>
@@ -22279,11 +22201,11 @@
       <c r="A30" s="23"/>
       <c r="H30" s="24"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="454"/>
-      <c r="K30" s="454"/>
-      <c r="L30" s="454"/>
-      <c r="M30" s="454"/>
-      <c r="N30" s="455"/>
+      <c r="J30" s="485"/>
+      <c r="K30" s="485"/>
+      <c r="L30" s="485"/>
+      <c r="M30" s="485"/>
+      <c r="N30" s="486"/>
       <c r="O30" s="31"/>
       <c r="P30" s="31"/>
     </row>
@@ -22303,13 +22225,13 @@
       <c r="I31" s="27" t="s">
         <v>292</v>
       </c>
-      <c r="J31" s="456" t="s">
+      <c r="J31" s="487" t="s">
         <v>293</v>
       </c>
-      <c r="K31" s="456"/>
-      <c r="L31" s="456"/>
-      <c r="M31" s="456"/>
-      <c r="N31" s="457"/>
+      <c r="K31" s="487"/>
+      <c r="L31" s="487"/>
+      <c r="M31" s="487"/>
+      <c r="N31" s="488"/>
       <c r="O31" s="31"/>
       <c r="P31" s="31"/>
     </row>
@@ -22317,20 +22239,20 @@
       <c r="A32" s="23"/>
       <c r="H32" s="24"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="454"/>
-      <c r="K32" s="454"/>
-      <c r="L32" s="454"/>
-      <c r="M32" s="454"/>
-      <c r="N32" s="455"/>
+      <c r="J32" s="485"/>
+      <c r="K32" s="485"/>
+      <c r="L32" s="485"/>
+      <c r="M32" s="485"/>
+      <c r="N32" s="486"/>
       <c r="O32" s="31"/>
       <c r="P32" s="31"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="458" t="s">
+      <c r="A33" s="489" t="s">
         <v>294</v>
       </c>
-      <c r="B33" s="459"/>
-      <c r="C33" s="459"/>
+      <c r="B33" s="490"/>
+      <c r="C33" s="490"/>
       <c r="D33" s="3" t="s">
         <v>289</v>
       </c>
@@ -22345,13 +22267,13 @@
       <c r="I33" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="J33" s="456" t="s">
+      <c r="J33" s="487" t="s">
         <v>296</v>
       </c>
-      <c r="K33" s="456"/>
-      <c r="L33" s="456"/>
-      <c r="M33" s="456"/>
-      <c r="N33" s="457"/>
+      <c r="K33" s="487"/>
+      <c r="L33" s="487"/>
+      <c r="M33" s="487"/>
+      <c r="N33" s="488"/>
       <c r="O33" s="31"/>
       <c r="P33" s="31"/>
     </row>
@@ -22365,11 +22287,11 @@
       <c r="G34" s="177"/>
       <c r="H34" s="29"/>
       <c r="I34" s="30"/>
-      <c r="J34" s="460"/>
-      <c r="K34" s="460"/>
-      <c r="L34" s="460"/>
-      <c r="M34" s="460"/>
-      <c r="N34" s="461"/>
+      <c r="J34" s="491"/>
+      <c r="K34" s="491"/>
+      <c r="L34" s="491"/>
+      <c r="M34" s="491"/>
+      <c r="N34" s="492"/>
       <c r="O34" s="31"/>
       <c r="P34" s="31"/>
     </row>
@@ -22466,22 +22388,16 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A10:W26" xr:uid="{24C90510-8EF1-425D-9536-2C1004DCAAB2}"/>
-  <mergeCells count="38">
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:D4"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="A5:B7"/>
-    <mergeCell ref="C5:D7"/>
-    <mergeCell ref="E5:G7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+  <mergeCells count="37">
+    <mergeCell ref="AN8:AS8"/>
+    <mergeCell ref="AG8:AL8"/>
+    <mergeCell ref="A18:U18"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
+    <mergeCell ref="O8:O9"/>
     <mergeCell ref="A33:C33"/>
     <mergeCell ref="J33:N34"/>
     <mergeCell ref="J8:J9"/>
@@ -22494,56 +22410,60 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B22:B24"/>
     <mergeCell ref="A26:U26"/>
     <mergeCell ref="P8:P9"/>
-    <mergeCell ref="AN8:AS8"/>
-    <mergeCell ref="AG8:AL8"/>
-    <mergeCell ref="A18:U18"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="A5:B7"/>
+    <mergeCell ref="C5:D7"/>
+    <mergeCell ref="E5:G7"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:D4"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <conditionalFormatting sqref="K11:M17">
-    <cfRule type="cellIs" dxfId="33" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K19:M25">
-    <cfRule type="cellIs" dxfId="30" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K27:M27">
-    <cfRule type="containsBlanks" dxfId="27" priority="13" stopIfTrue="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="13" stopIfTrue="1">
       <formula>LEN(TRIM(K27))=0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="equal">
       <formula>"R"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="16" operator="equal">
       <formula>"I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations disablePrompts="1" count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q11:Q17 Q19:Q24" xr:uid="{962B0F12-6655-4288-AC75-4085488FCDCB}">
       <formula1>$Q$72:$Q$78</formula1>
     </dataValidation>
@@ -22582,13 +22502,13 @@
   </sheetPr>
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
@@ -22607,22 +22527,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="567"/>
-      <c r="B1" s="568"/>
-      <c r="C1" s="573"/>
-      <c r="D1" s="568"/>
-      <c r="E1" s="576" t="s">
+      <c r="A1" s="553"/>
+      <c r="B1" s="554"/>
+      <c r="C1" s="559"/>
+      <c r="D1" s="554"/>
+      <c r="E1" s="562" t="s">
         <v>434</v>
       </c>
       <c r="F1" s="252" t="s">
         <v>11</v>
       </c>
       <c r="G1" s="253"/>
-      <c r="H1" s="578" t="s">
+      <c r="H1" s="564" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="579"/>
-      <c r="J1" s="580"/>
+      <c r="I1" s="565"/>
+      <c r="J1" s="566"/>
       <c r="K1" s="254"/>
       <c r="L1" s="254"/>
       <c r="M1" s="255"/>
@@ -22644,19 +22564,19 @@
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="569"/>
-      <c r="B2" s="570"/>
-      <c r="C2" s="574"/>
-      <c r="D2" s="570"/>
-      <c r="E2" s="577"/>
+      <c r="A2" s="555"/>
+      <c r="B2" s="556"/>
+      <c r="C2" s="560"/>
+      <c r="D2" s="556"/>
+      <c r="E2" s="563"/>
       <c r="F2" s="108" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="109"/>
-      <c r="H2" s="560" t="s">
+      <c r="H2" s="567" t="s">
         <v>375</v>
       </c>
-      <c r="I2" s="561"/>
+      <c r="I2" s="568"/>
       <c r="J2" s="110" t="s">
         <v>376</v>
       </c>
@@ -22675,19 +22595,19 @@
       <c r="U2" s="259"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="569"/>
-      <c r="B3" s="570"/>
-      <c r="C3" s="574"/>
-      <c r="D3" s="570"/>
-      <c r="E3" s="581" t="s">
+      <c r="A3" s="555"/>
+      <c r="B3" s="556"/>
+      <c r="C3" s="560"/>
+      <c r="D3" s="556"/>
+      <c r="E3" s="569" t="s">
         <v>435</v>
       </c>
-      <c r="F3" s="582"/>
-      <c r="G3" s="583"/>
-      <c r="H3" s="560" t="s">
+      <c r="F3" s="570"/>
+      <c r="G3" s="571"/>
+      <c r="H3" s="567" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="561"/>
+      <c r="I3" s="568"/>
       <c r="J3" s="10" t="s">
         <v>378</v>
       </c>
@@ -22706,17 +22626,17 @@
       <c r="U3" s="259"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="571"/>
-      <c r="B4" s="572"/>
-      <c r="C4" s="575"/>
-      <c r="D4" s="572"/>
-      <c r="E4" s="584"/>
-      <c r="F4" s="585"/>
-      <c r="G4" s="586"/>
-      <c r="H4" s="560" t="s">
+      <c r="A4" s="557"/>
+      <c r="B4" s="558"/>
+      <c r="C4" s="561"/>
+      <c r="D4" s="558"/>
+      <c r="E4" s="572"/>
+      <c r="F4" s="573"/>
+      <c r="G4" s="574"/>
+      <c r="H4" s="567" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="561"/>
+      <c r="I4" s="568"/>
       <c r="J4" s="110" t="s">
         <v>379</v>
       </c>
@@ -22735,23 +22655,23 @@
       <c r="U4" s="259"/>
     </row>
     <row r="5" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="546" t="s">
+      <c r="A5" s="577" t="s">
         <v>436</v>
       </c>
-      <c r="B5" s="547"/>
-      <c r="C5" s="550" t="s">
+      <c r="B5" s="578"/>
+      <c r="C5" s="581" t="s">
         <v>437</v>
       </c>
-      <c r="D5" s="551"/>
-      <c r="E5" s="554" t="s">
+      <c r="D5" s="582"/>
+      <c r="E5" s="585" t="s">
         <v>438</v>
       </c>
-      <c r="F5" s="555"/>
-      <c r="G5" s="556"/>
-      <c r="H5" s="560" t="s">
+      <c r="F5" s="586"/>
+      <c r="G5" s="587"/>
+      <c r="H5" s="567" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="561"/>
+      <c r="I5" s="568"/>
       <c r="J5" s="110" t="s">
         <v>383</v>
       </c>
@@ -22770,17 +22690,17 @@
       <c r="U5" s="259"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="548"/>
-      <c r="B6" s="549"/>
-      <c r="C6" s="552"/>
-      <c r="D6" s="553"/>
-      <c r="E6" s="557"/>
-      <c r="F6" s="558"/>
-      <c r="G6" s="559"/>
-      <c r="H6" s="560" t="s">
+      <c r="A6" s="579"/>
+      <c r="B6" s="580"/>
+      <c r="C6" s="583"/>
+      <c r="D6" s="584"/>
+      <c r="E6" s="588"/>
+      <c r="F6" s="589"/>
+      <c r="G6" s="590"/>
+      <c r="H6" s="567" t="s">
         <v>384</v>
       </c>
-      <c r="I6" s="561"/>
+      <c r="I6" s="568"/>
       <c r="J6" s="110" t="s">
         <v>385</v>
       </c>
@@ -22799,17 +22719,17 @@
       <c r="U6" s="259"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="548"/>
-      <c r="B7" s="549"/>
-      <c r="C7" s="552"/>
-      <c r="D7" s="553"/>
-      <c r="E7" s="557"/>
-      <c r="F7" s="558"/>
-      <c r="G7" s="559"/>
-      <c r="H7" s="554" t="s">
+      <c r="A7" s="579"/>
+      <c r="B7" s="580"/>
+      <c r="C7" s="583"/>
+      <c r="D7" s="584"/>
+      <c r="E7" s="588"/>
+      <c r="F7" s="589"/>
+      <c r="G7" s="590"/>
+      <c r="H7" s="585" t="s">
         <v>386</v>
       </c>
-      <c r="I7" s="556"/>
+      <c r="I7" s="587"/>
       <c r="J7" s="296" t="s">
         <v>376</v>
       </c>
@@ -22828,87 +22748,87 @@
       <c r="U7" s="300"/>
     </row>
     <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="564" t="s">
+      <c r="A8" s="597" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="513" t="s">
+      <c r="B8" s="603" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="516" t="s">
+      <c r="C8" s="591" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="517"/>
-      <c r="E8" s="517"/>
-      <c r="F8" s="518"/>
-      <c r="G8" s="513" t="s">
+      <c r="D8" s="592"/>
+      <c r="E8" s="592"/>
+      <c r="F8" s="622"/>
+      <c r="G8" s="603" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="513" t="s">
+      <c r="H8" s="603" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="513" t="s">
+      <c r="I8" s="603" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="513" t="s">
+      <c r="J8" s="603" t="s">
         <v>39</v>
       </c>
-      <c r="K8" s="503" t="s">
+      <c r="K8" s="600" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="503" t="s">
+      <c r="L8" s="600" t="s">
         <v>387</v>
       </c>
-      <c r="M8" s="503" t="s">
+      <c r="M8" s="600" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="503" t="s">
+      <c r="N8" s="600" t="s">
         <v>38</v>
       </c>
-      <c r="O8" s="503" t="s">
+      <c r="O8" s="600" t="s">
         <v>44</v>
       </c>
-      <c r="P8" s="503" t="s">
+      <c r="P8" s="600" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="503" t="s">
+      <c r="Q8" s="600" t="s">
         <v>46</v>
       </c>
-      <c r="R8" s="516" t="s">
+      <c r="R8" s="591" t="s">
         <v>439</v>
       </c>
-      <c r="S8" s="517"/>
-      <c r="T8" s="517"/>
-      <c r="U8" s="562"/>
+      <c r="S8" s="592"/>
+      <c r="T8" s="592"/>
+      <c r="U8" s="593"/>
     </row>
     <row r="9" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="565"/>
-      <c r="B9" s="514"/>
-      <c r="C9" s="519"/>
-      <c r="D9" s="520"/>
-      <c r="E9" s="520"/>
-      <c r="F9" s="521"/>
-      <c r="G9" s="514"/>
-      <c r="H9" s="514"/>
-      <c r="I9" s="514"/>
-      <c r="J9" s="514"/>
-      <c r="K9" s="504"/>
-      <c r="L9" s="504"/>
-      <c r="M9" s="504"/>
-      <c r="N9" s="504"/>
-      <c r="O9" s="504"/>
-      <c r="P9" s="504"/>
-      <c r="Q9" s="504"/>
-      <c r="R9" s="519" t="s">
+      <c r="A9" s="598"/>
+      <c r="B9" s="604"/>
+      <c r="C9" s="594"/>
+      <c r="D9" s="595"/>
+      <c r="E9" s="595"/>
+      <c r="F9" s="623"/>
+      <c r="G9" s="604"/>
+      <c r="H9" s="604"/>
+      <c r="I9" s="604"/>
+      <c r="J9" s="604"/>
+      <c r="K9" s="601"/>
+      <c r="L9" s="601"/>
+      <c r="M9" s="601"/>
+      <c r="N9" s="601"/>
+      <c r="O9" s="601"/>
+      <c r="P9" s="601"/>
+      <c r="Q9" s="601"/>
+      <c r="R9" s="594" t="s">
         <v>440</v>
       </c>
-      <c r="S9" s="520"/>
-      <c r="T9" s="520"/>
-      <c r="U9" s="563"/>
+      <c r="S9" s="595"/>
+      <c r="T9" s="595"/>
+      <c r="U9" s="596"/>
     </row>
     <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="565"/>
-      <c r="B10" s="514"/>
-      <c r="C10" s="522" t="s">
+      <c r="A10" s="598"/>
+      <c r="B10" s="604"/>
+      <c r="C10" s="624" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="113" t="s">
@@ -22917,59 +22837,59 @@
       <c r="E10" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="522" t="s">
+      <c r="F10" s="624" t="s">
         <v>442</v>
       </c>
-      <c r="G10" s="514"/>
-      <c r="H10" s="514"/>
-      <c r="I10" s="514"/>
-      <c r="J10" s="514"/>
-      <c r="K10" s="504"/>
-      <c r="L10" s="504"/>
-      <c r="M10" s="504"/>
-      <c r="N10" s="504"/>
-      <c r="O10" s="504"/>
-      <c r="P10" s="504"/>
-      <c r="Q10" s="504"/>
-      <c r="R10" s="544" t="s">
+      <c r="G10" s="604"/>
+      <c r="H10" s="604"/>
+      <c r="I10" s="604"/>
+      <c r="J10" s="604"/>
+      <c r="K10" s="601"/>
+      <c r="L10" s="601"/>
+      <c r="M10" s="601"/>
+      <c r="N10" s="601"/>
+      <c r="O10" s="601"/>
+      <c r="P10" s="601"/>
+      <c r="Q10" s="601"/>
+      <c r="R10" s="575" t="s">
         <v>443</v>
       </c>
-      <c r="S10" s="544" t="s">
+      <c r="S10" s="575" t="s">
         <v>389</v>
       </c>
-      <c r="T10" s="544" t="s">
+      <c r="T10" s="575" t="s">
         <v>53</v>
       </c>
-      <c r="U10" s="501" t="s">
+      <c r="U10" s="618" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="566"/>
-      <c r="B11" s="515"/>
-      <c r="C11" s="515"/>
+      <c r="A11" s="599"/>
+      <c r="B11" s="605"/>
+      <c r="C11" s="605"/>
       <c r="D11" s="114" t="s">
         <v>444</v>
       </c>
       <c r="E11" s="115" t="s">
         <v>445</v>
       </c>
-      <c r="F11" s="515"/>
-      <c r="G11" s="515"/>
-      <c r="H11" s="515"/>
-      <c r="I11" s="515"/>
-      <c r="J11" s="515"/>
-      <c r="K11" s="505"/>
-      <c r="L11" s="505"/>
-      <c r="M11" s="505"/>
-      <c r="N11" s="505"/>
-      <c r="O11" s="505"/>
-      <c r="P11" s="505"/>
-      <c r="Q11" s="505"/>
-      <c r="R11" s="545"/>
-      <c r="S11" s="545"/>
-      <c r="T11" s="545"/>
-      <c r="U11" s="502"/>
+      <c r="F11" s="605"/>
+      <c r="G11" s="605"/>
+      <c r="H11" s="605"/>
+      <c r="I11" s="605"/>
+      <c r="J11" s="605"/>
+      <c r="K11" s="602"/>
+      <c r="L11" s="602"/>
+      <c r="M11" s="602"/>
+      <c r="N11" s="602"/>
+      <c r="O11" s="602"/>
+      <c r="P11" s="602"/>
+      <c r="Q11" s="602"/>
+      <c r="R11" s="576"/>
+      <c r="S11" s="576"/>
+      <c r="T11" s="576"/>
+      <c r="U11" s="619"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="301"/>
@@ -22995,35 +22915,35 @@
       <c r="U12" s="302"/>
     </row>
     <row r="13" spans="1:21" ht="15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="523" t="s">
+      <c r="A13" s="625" t="s">
         <v>446</v>
       </c>
-      <c r="B13" s="524"/>
-      <c r="C13" s="524"/>
-      <c r="D13" s="524"/>
-      <c r="E13" s="524"/>
-      <c r="F13" s="524"/>
-      <c r="G13" s="524"/>
-      <c r="H13" s="524"/>
-      <c r="I13" s="524"/>
-      <c r="J13" s="524"/>
-      <c r="K13" s="524"/>
-      <c r="L13" s="524"/>
-      <c r="M13" s="524"/>
-      <c r="N13" s="524"/>
-      <c r="O13" s="525"/>
-      <c r="P13" s="525"/>
-      <c r="Q13" s="524"/>
-      <c r="R13" s="524"/>
-      <c r="S13" s="524"/>
-      <c r="T13" s="524"/>
-      <c r="U13" s="526"/>
+      <c r="B13" s="626"/>
+      <c r="C13" s="626"/>
+      <c r="D13" s="626"/>
+      <c r="E13" s="626"/>
+      <c r="F13" s="626"/>
+      <c r="G13" s="626"/>
+      <c r="H13" s="626"/>
+      <c r="I13" s="626"/>
+      <c r="J13" s="626"/>
+      <c r="K13" s="626"/>
+      <c r="L13" s="626"/>
+      <c r="M13" s="626"/>
+      <c r="N13" s="626"/>
+      <c r="O13" s="627"/>
+      <c r="P13" s="627"/>
+      <c r="Q13" s="626"/>
+      <c r="R13" s="626"/>
+      <c r="S13" s="626"/>
+      <c r="T13" s="626"/>
+      <c r="U13" s="628"/>
     </row>
     <row r="14" spans="1:21" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="303">
         <v>1.01</v>
       </c>
-      <c r="B14" s="429" t="s">
+      <c r="B14" s="413" t="s">
         <v>447</v>
       </c>
       <c r="C14" s="215" t="s">
@@ -23047,24 +22967,28 @@
       <c r="I14" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="J14" s="215"/>
+      <c r="J14" s="215" t="s">
+        <v>649</v>
+      </c>
       <c r="K14" s="215">
         <v>3761</v>
       </c>
-      <c r="L14" s="215"/>
-      <c r="M14" s="429" t="s">
+      <c r="L14" s="215" t="s">
+        <v>649</v>
+      </c>
+      <c r="M14" s="413" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="527" t="s">
+      <c r="N14" s="661" t="s">
         <v>450</v>
       </c>
-      <c r="O14" s="543" t="s">
+      <c r="O14" s="662" t="s">
         <v>70</v>
       </c>
-      <c r="P14" s="462" t="s">
+      <c r="P14" s="228" t="s">
         <v>71</v>
       </c>
-      <c r="Q14" s="510" t="s">
+      <c r="Q14" s="663" t="s">
         <v>451</v>
       </c>
       <c r="R14" s="116" t="s">
@@ -23080,11 +23004,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="25.5" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="38.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="303">
         <v>1.02</v>
       </c>
-      <c r="B15" s="431"/>
+      <c r="B15" s="413" t="s">
+        <v>447</v>
+      </c>
       <c r="C15" s="220" t="s">
         <v>452</v>
       </c>
@@ -23106,16 +23032,30 @@
       <c r="I15" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="J15" s="215"/>
+      <c r="J15" s="215" t="s">
+        <v>649</v>
+      </c>
       <c r="K15" s="215">
         <v>3761</v>
       </c>
-      <c r="L15" s="215"/>
-      <c r="M15" s="430"/>
-      <c r="N15" s="528"/>
-      <c r="O15" s="543"/>
-      <c r="P15" s="462"/>
-      <c r="Q15" s="511"/>
+      <c r="L15" s="215" t="s">
+        <v>649</v>
+      </c>
+      <c r="M15" s="413" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15" s="661" t="s">
+        <v>450</v>
+      </c>
+      <c r="O15" s="662" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" s="228" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q15" s="663" t="s">
+        <v>451</v>
+      </c>
       <c r="R15" s="116" t="s">
         <v>63</v>
       </c>
@@ -23157,20 +23097,30 @@
       <c r="I16" s="215" t="s">
         <v>53</v>
       </c>
-      <c r="J16" s="215"/>
+      <c r="J16" s="215" t="s">
+        <v>649</v>
+      </c>
       <c r="K16" s="215">
         <v>3761</v>
       </c>
-      <c r="L16" s="215"/>
-      <c r="M16" s="431"/>
-      <c r="N16" s="529"/>
+      <c r="L16" s="215" t="s">
+        <v>649</v>
+      </c>
+      <c r="M16" s="413" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16" s="661" t="s">
+        <v>450</v>
+      </c>
       <c r="O16" s="227" t="s">
         <v>450</v>
       </c>
       <c r="P16" s="228" t="s">
         <v>460</v>
       </c>
-      <c r="Q16" s="512"/>
+      <c r="Q16" s="663" t="s">
+        <v>451</v>
+      </c>
       <c r="R16" s="116" t="s">
         <v>63</v>
       </c>
@@ -23185,25 +23135,25 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="506" t="s">
+      <c r="A17" s="620" t="s">
         <v>461</v>
       </c>
-      <c r="B17" s="507"/>
-      <c r="C17" s="507"/>
-      <c r="D17" s="507"/>
-      <c r="E17" s="507"/>
-      <c r="F17" s="507"/>
-      <c r="G17" s="507"/>
-      <c r="H17" s="507"/>
-      <c r="I17" s="507"/>
-      <c r="J17" s="507"/>
-      <c r="K17" s="507"/>
-      <c r="L17" s="507"/>
-      <c r="M17" s="507"/>
-      <c r="N17" s="507"/>
-      <c r="O17" s="507"/>
-      <c r="P17" s="507"/>
-      <c r="Q17" s="507"/>
+      <c r="B17" s="621"/>
+      <c r="C17" s="621"/>
+      <c r="D17" s="621"/>
+      <c r="E17" s="621"/>
+      <c r="F17" s="621"/>
+      <c r="G17" s="621"/>
+      <c r="H17" s="621"/>
+      <c r="I17" s="621"/>
+      <c r="J17" s="621"/>
+      <c r="K17" s="621"/>
+      <c r="L17" s="621"/>
+      <c r="M17" s="621"/>
+      <c r="N17" s="621"/>
+      <c r="O17" s="621"/>
+      <c r="P17" s="621"/>
+      <c r="Q17" s="621"/>
       <c r="R17" s="162"/>
       <c r="S17" s="162"/>
       <c r="T17" s="162"/>
@@ -23225,19 +23175,27 @@
       <c r="E18" s="119" t="s">
         <v>464</v>
       </c>
-      <c r="F18" s="119"/>
+      <c r="F18" s="119" t="s">
+        <v>649</v>
+      </c>
       <c r="G18" s="119" t="s">
         <v>465</v>
       </c>
-      <c r="H18" s="119"/>
+      <c r="H18" s="119" t="s">
+        <v>649</v>
+      </c>
       <c r="I18" s="119" t="s">
         <v>280</v>
       </c>
-      <c r="J18" s="119"/>
+      <c r="J18" s="119" t="s">
+        <v>649</v>
+      </c>
       <c r="K18" s="119">
         <v>3761</v>
       </c>
-      <c r="L18" s="119"/>
+      <c r="L18" s="119" t="s">
+        <v>649</v>
+      </c>
       <c r="M18" s="172" t="s">
         <v>135</v>
       </c>
@@ -23247,10 +23205,10 @@
       <c r="O18" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="P18" s="427" t="s">
+      <c r="P18" s="183" t="s">
         <v>176</v>
       </c>
-      <c r="Q18" s="427" t="s">
+      <c r="Q18" s="183" t="s">
         <v>197</v>
       </c>
       <c r="R18" s="116" t="s">
@@ -23294,11 +23252,15 @@
       <c r="I19" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="J19" s="111"/>
+      <c r="J19" s="119" t="s">
+        <v>649</v>
+      </c>
       <c r="K19" s="111">
         <v>3761</v>
       </c>
-      <c r="L19" s="111"/>
+      <c r="L19" s="119" t="s">
+        <v>649</v>
+      </c>
       <c r="M19" s="172" t="s">
         <v>135</v>
       </c>
@@ -23308,8 +23270,12 @@
       <c r="O19" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="P19" s="428"/>
-      <c r="Q19" s="428"/>
+      <c r="P19" s="183" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q19" s="183" t="s">
+        <v>197</v>
+      </c>
       <c r="R19" s="116" t="s">
         <v>63</v>
       </c>
@@ -23351,11 +23317,15 @@
       <c r="I20" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="119"/>
+      <c r="J20" s="119" t="s">
+        <v>649</v>
+      </c>
       <c r="K20" s="119">
         <v>3761</v>
       </c>
-      <c r="L20" s="119"/>
+      <c r="L20" s="119" t="s">
+        <v>649</v>
+      </c>
       <c r="M20" s="172" t="s">
         <v>135</v>
       </c>
@@ -23365,8 +23335,12 @@
       <c r="O20" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="P20" s="428"/>
-      <c r="Q20" s="428"/>
+      <c r="P20" s="183" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q20" s="183" t="s">
+        <v>197</v>
+      </c>
       <c r="R20" s="116" t="s">
         <v>63</v>
       </c>
@@ -23384,7 +23358,7 @@
       <c r="A21" s="306">
         <v>3.15</v>
       </c>
-      <c r="B21" s="536" t="s">
+      <c r="B21" s="660" t="s">
         <v>472</v>
       </c>
       <c r="C21" s="119" t="s">
@@ -23408,11 +23382,15 @@
       <c r="I21" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="119"/>
+      <c r="J21" s="119" t="s">
+        <v>649</v>
+      </c>
       <c r="K21" s="119">
         <v>3761</v>
       </c>
-      <c r="L21" s="119"/>
+      <c r="L21" s="119" t="s">
+        <v>649</v>
+      </c>
       <c r="M21" s="172" t="s">
         <v>135</v>
       </c>
@@ -23422,8 +23400,12 @@
       <c r="O21" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="P21" s="428"/>
-      <c r="Q21" s="428"/>
+      <c r="P21" s="183" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q21" s="183" t="s">
+        <v>197</v>
+      </c>
       <c r="R21" s="116" t="s">
         <v>63</v>
       </c>
@@ -23441,7 +23423,9 @@
       <c r="A22" s="306">
         <v>3.16</v>
       </c>
-      <c r="B22" s="537"/>
+      <c r="B22" s="660" t="s">
+        <v>472</v>
+      </c>
       <c r="C22" s="119" t="s">
         <v>475</v>
       </c>
@@ -23463,11 +23447,15 @@
       <c r="I22" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="J22" s="119"/>
+      <c r="J22" s="119" t="s">
+        <v>649</v>
+      </c>
       <c r="K22" s="119">
         <v>3761</v>
       </c>
-      <c r="L22" s="119"/>
+      <c r="L22" s="119" t="s">
+        <v>649</v>
+      </c>
       <c r="M22" s="172" t="s">
         <v>135</v>
       </c>
@@ -23477,8 +23465,12 @@
       <c r="O22" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="P22" s="428"/>
-      <c r="Q22" s="428"/>
+      <c r="P22" s="183" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q22" s="183" t="s">
+        <v>197</v>
+      </c>
       <c r="R22" s="116" t="s">
         <v>63</v>
       </c>
@@ -23520,11 +23512,15 @@
       <c r="I23" s="179" t="s">
         <v>53</v>
       </c>
-      <c r="J23" s="179"/>
+      <c r="J23" s="119" t="s">
+        <v>649</v>
+      </c>
       <c r="K23" s="212">
         <v>3761</v>
       </c>
-      <c r="L23" s="212"/>
+      <c r="L23" s="119" t="s">
+        <v>649</v>
+      </c>
       <c r="M23" s="172" t="s">
         <v>135</v>
       </c>
@@ -23534,8 +23530,12 @@
       <c r="O23" s="172" t="s">
         <v>125</v>
       </c>
-      <c r="P23" s="540"/>
-      <c r="Q23" s="540"/>
+      <c r="P23" s="183" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q23" s="183" t="s">
+        <v>197</v>
+      </c>
       <c r="R23" s="180" t="s">
         <v>63</v>
       </c>
@@ -23550,25 +23550,25 @@
       </c>
     </row>
     <row r="24" spans="1:21" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="541" t="s">
+      <c r="A24" s="616" t="s">
         <v>480</v>
       </c>
-      <c r="B24" s="542"/>
-      <c r="C24" s="542"/>
-      <c r="D24" s="542"/>
-      <c r="E24" s="542"/>
-      <c r="F24" s="542"/>
-      <c r="G24" s="542"/>
-      <c r="H24" s="542"/>
-      <c r="I24" s="542"/>
-      <c r="J24" s="542"/>
-      <c r="K24" s="542"/>
-      <c r="L24" s="542"/>
-      <c r="M24" s="542"/>
-      <c r="N24" s="542"/>
-      <c r="O24" s="542"/>
-      <c r="P24" s="542"/>
-      <c r="Q24" s="542"/>
+      <c r="B24" s="617"/>
+      <c r="C24" s="617"/>
+      <c r="D24" s="617"/>
+      <c r="E24" s="617"/>
+      <c r="F24" s="617"/>
+      <c r="G24" s="617"/>
+      <c r="H24" s="617"/>
+      <c r="I24" s="617"/>
+      <c r="J24" s="617"/>
+      <c r="K24" s="617"/>
+      <c r="L24" s="617"/>
+      <c r="M24" s="617"/>
+      <c r="N24" s="617"/>
+      <c r="O24" s="617"/>
+      <c r="P24" s="617"/>
+      <c r="Q24" s="617"/>
       <c r="R24" s="309"/>
       <c r="S24" s="310"/>
       <c r="T24" s="311"/>
@@ -23613,20 +23613,20 @@
       <c r="I26" s="123" t="s">
         <v>286</v>
       </c>
-      <c r="J26" s="538" t="s">
+      <c r="J26" s="614" t="s">
         <v>481</v>
       </c>
-      <c r="K26" s="538"/>
-      <c r="L26" s="538"/>
-      <c r="M26" s="538"/>
-      <c r="N26" s="538"/>
-      <c r="O26" s="538"/>
-      <c r="P26" s="538"/>
-      <c r="Q26" s="538"/>
-      <c r="R26" s="538"/>
-      <c r="S26" s="538"/>
-      <c r="T26" s="538"/>
-      <c r="U26" s="539"/>
+      <c r="K26" s="614"/>
+      <c r="L26" s="614"/>
+      <c r="M26" s="614"/>
+      <c r="N26" s="614"/>
+      <c r="O26" s="614"/>
+      <c r="P26" s="614"/>
+      <c r="Q26" s="614"/>
+      <c r="R26" s="614"/>
+      <c r="S26" s="614"/>
+      <c r="T26" s="614"/>
+      <c r="U26" s="615"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="125"/>
@@ -23638,20 +23638,20 @@
       <c r="G27" s="121"/>
       <c r="H27" s="126"/>
       <c r="I27" s="127"/>
-      <c r="J27" s="530" t="s">
+      <c r="J27" s="606" t="s">
         <v>482</v>
       </c>
-      <c r="K27" s="530"/>
-      <c r="L27" s="530"/>
-      <c r="M27" s="530"/>
-      <c r="N27" s="530"/>
-      <c r="O27" s="530"/>
-      <c r="P27" s="530"/>
-      <c r="Q27" s="530"/>
-      <c r="R27" s="530"/>
-      <c r="S27" s="530"/>
-      <c r="T27" s="530"/>
-      <c r="U27" s="531"/>
+      <c r="K27" s="606"/>
+      <c r="L27" s="606"/>
+      <c r="M27" s="606"/>
+      <c r="N27" s="606"/>
+      <c r="O27" s="606"/>
+      <c r="P27" s="606"/>
+      <c r="Q27" s="606"/>
+      <c r="R27" s="606"/>
+      <c r="S27" s="606"/>
+      <c r="T27" s="606"/>
+      <c r="U27" s="607"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="125" t="s">
@@ -23673,20 +23673,20 @@
       <c r="I28" s="129" t="s">
         <v>292</v>
       </c>
-      <c r="J28" s="508" t="s">
+      <c r="J28" s="610" t="s">
         <v>483</v>
       </c>
-      <c r="K28" s="508"/>
-      <c r="L28" s="508"/>
-      <c r="M28" s="508"/>
-      <c r="N28" s="508"/>
-      <c r="O28" s="508"/>
-      <c r="P28" s="508"/>
-      <c r="Q28" s="508"/>
-      <c r="R28" s="508"/>
-      <c r="S28" s="508"/>
-      <c r="T28" s="508"/>
-      <c r="U28" s="509"/>
+      <c r="K28" s="610"/>
+      <c r="L28" s="610"/>
+      <c r="M28" s="610"/>
+      <c r="N28" s="610"/>
+      <c r="O28" s="610"/>
+      <c r="P28" s="610"/>
+      <c r="Q28" s="610"/>
+      <c r="R28" s="610"/>
+      <c r="S28" s="610"/>
+      <c r="T28" s="610"/>
+      <c r="U28" s="611"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="125"/>
@@ -23698,27 +23698,27 @@
       <c r="G29" s="121"/>
       <c r="H29" s="126"/>
       <c r="I29" s="127"/>
-      <c r="J29" s="530" t="s">
+      <c r="J29" s="606" t="s">
         <v>482</v>
       </c>
-      <c r="K29" s="530"/>
-      <c r="L29" s="530"/>
-      <c r="M29" s="530"/>
-      <c r="N29" s="530"/>
-      <c r="O29" s="530"/>
-      <c r="P29" s="530"/>
-      <c r="Q29" s="530"/>
-      <c r="R29" s="530"/>
-      <c r="S29" s="530"/>
-      <c r="T29" s="530"/>
-      <c r="U29" s="531"/>
+      <c r="K29" s="606"/>
+      <c r="L29" s="606"/>
+      <c r="M29" s="606"/>
+      <c r="N29" s="606"/>
+      <c r="O29" s="606"/>
+      <c r="P29" s="606"/>
+      <c r="Q29" s="606"/>
+      <c r="R29" s="606"/>
+      <c r="S29" s="606"/>
+      <c r="T29" s="606"/>
+      <c r="U29" s="607"/>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="532" t="s">
+      <c r="A30" s="608" t="s">
         <v>294</v>
       </c>
-      <c r="B30" s="533"/>
-      <c r="C30" s="533"/>
+      <c r="B30" s="609"/>
+      <c r="C30" s="609"/>
       <c r="D30" s="130" t="s">
         <v>289</v>
       </c>
@@ -23733,20 +23733,20 @@
       <c r="I30" s="130" t="s">
         <v>295</v>
       </c>
-      <c r="J30" s="508" t="s">
+      <c r="J30" s="610" t="s">
         <v>296</v>
       </c>
-      <c r="K30" s="508"/>
-      <c r="L30" s="508"/>
-      <c r="M30" s="508"/>
-      <c r="N30" s="508"/>
-      <c r="O30" s="508"/>
-      <c r="P30" s="508"/>
-      <c r="Q30" s="508"/>
-      <c r="R30" s="508"/>
-      <c r="S30" s="508"/>
-      <c r="T30" s="508"/>
-      <c r="U30" s="509"/>
+      <c r="K30" s="610"/>
+      <c r="L30" s="610"/>
+      <c r="M30" s="610"/>
+      <c r="N30" s="610"/>
+      <c r="O30" s="610"/>
+      <c r="P30" s="610"/>
+      <c r="Q30" s="610"/>
+      <c r="R30" s="610"/>
+      <c r="S30" s="610"/>
+      <c r="T30" s="610"/>
+      <c r="U30" s="611"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="132"/>
@@ -23758,18 +23758,18 @@
       <c r="G31" s="133"/>
       <c r="H31" s="132"/>
       <c r="I31" s="133"/>
-      <c r="J31" s="534"/>
-      <c r="K31" s="534"/>
-      <c r="L31" s="534"/>
-      <c r="M31" s="534"/>
-      <c r="N31" s="534"/>
-      <c r="O31" s="534"/>
-      <c r="P31" s="534"/>
-      <c r="Q31" s="534"/>
-      <c r="R31" s="534"/>
-      <c r="S31" s="534"/>
-      <c r="T31" s="534"/>
-      <c r="U31" s="535"/>
+      <c r="J31" s="612"/>
+      <c r="K31" s="612"/>
+      <c r="L31" s="612"/>
+      <c r="M31" s="612"/>
+      <c r="N31" s="612"/>
+      <c r="O31" s="612"/>
+      <c r="P31" s="612"/>
+      <c r="Q31" s="612"/>
+      <c r="R31" s="612"/>
+      <c r="S31" s="612"/>
+      <c r="T31" s="612"/>
+      <c r="U31" s="613"/>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="121"/>
@@ -23796,15 +23796,28 @@
     </row>
   </sheetData>
   <autoFilter ref="A12:U24" xr:uid="{9862328D-5BED-41B7-8F4B-049AB453D86A}"/>
-  <mergeCells count="54">
-    <mergeCell ref="A1:B4"/>
-    <mergeCell ref="C1:D4"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="E3:G4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
+  <mergeCells count="45">
+    <mergeCell ref="U10:U11"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="A17:Q17"/>
+    <mergeCell ref="J28:U28"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:F9"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A13:U13"/>
+    <mergeCell ref="J29:U29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="J30:U31"/>
+    <mergeCell ref="J26:U26"/>
+    <mergeCell ref="J27:U27"/>
+    <mergeCell ref="A24:Q24"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="O8:O11"/>
+    <mergeCell ref="P8:P11"/>
     <mergeCell ref="R10:R11"/>
     <mergeCell ref="S10:S11"/>
     <mergeCell ref="A5:B7"/>
@@ -23821,42 +23834,20 @@
     <mergeCell ref="N8:N11"/>
     <mergeCell ref="H8:H11"/>
     <mergeCell ref="T10:T11"/>
-    <mergeCell ref="O14:O15"/>
-    <mergeCell ref="P14:P15"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="O8:O11"/>
-    <mergeCell ref="P8:P11"/>
-    <mergeCell ref="J29:U29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="J30:U31"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="J26:U26"/>
-    <mergeCell ref="J27:U27"/>
-    <mergeCell ref="P18:P23"/>
-    <mergeCell ref="Q18:Q23"/>
-    <mergeCell ref="A24:Q24"/>
-    <mergeCell ref="U10:U11"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="A17:Q17"/>
-    <mergeCell ref="J28:U28"/>
-    <mergeCell ref="Q14:Q16"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:F9"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A13:U13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="N14:N16"/>
+    <mergeCell ref="A1:B4"/>
+    <mergeCell ref="C1:D4"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="E3:G4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14" xr:uid="{3973736F-6B39-43D9-AD5B-CEA09CE6590F}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M14:M16" xr:uid="{5C790149-372F-4F62-9142-FD1E6FDD11C6}">
       <formula1>"Material Testing, Field Testing"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14" xr:uid="{B0709B60-BE22-47A2-B940-E4023695FC44}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14:N16" xr:uid="{00F76FB8-23B4-4DD4-87B4-BF91BB123255}">
       <formula1>"Supplier, Project Team, Sub Contractor, Design Testing"</formula1>
     </dataValidation>
   </dataValidations>
@@ -23907,74 +23898,74 @@
     </row>
     <row r="2" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="39"/>
-      <c r="B2" s="590" t="s">
+      <c r="B2" s="642" t="s">
         <v>485</v>
       </c>
-      <c r="C2" s="590"/>
-      <c r="D2" s="590"/>
-      <c r="E2" s="590"/>
-      <c r="F2" s="590"/>
-      <c r="G2" s="590"/>
-      <c r="H2" s="590"/>
-      <c r="I2" s="591"/>
+      <c r="C2" s="642"/>
+      <c r="D2" s="642"/>
+      <c r="E2" s="642"/>
+      <c r="F2" s="642"/>
+      <c r="G2" s="642"/>
+      <c r="H2" s="642"/>
+      <c r="I2" s="643"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="40"/>
       <c r="B3" s="41" t="s">
         <v>486</v>
       </c>
-      <c r="C3" s="592"/>
-      <c r="D3" s="592"/>
-      <c r="E3" s="592"/>
-      <c r="F3" s="592"/>
+      <c r="C3" s="644"/>
+      <c r="D3" s="644"/>
+      <c r="E3" s="644"/>
+      <c r="F3" s="644"/>
       <c r="G3" s="41" t="s">
         <v>487</v>
       </c>
-      <c r="H3" s="593"/>
-      <c r="I3" s="594"/>
+      <c r="H3" s="645"/>
+      <c r="I3" s="646"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
       <c r="B4" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="C4" s="592"/>
-      <c r="D4" s="592"/>
-      <c r="E4" s="592"/>
-      <c r="F4" s="592"/>
-      <c r="G4" s="592"/>
-      <c r="H4" s="592"/>
-      <c r="I4" s="595"/>
+      <c r="C4" s="644"/>
+      <c r="D4" s="644"/>
+      <c r="E4" s="644"/>
+      <c r="F4" s="644"/>
+      <c r="G4" s="644"/>
+      <c r="H4" s="644"/>
+      <c r="I4" s="647"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>489</v>
       </c>
-      <c r="B5" s="592"/>
-      <c r="C5" s="592"/>
+      <c r="B5" s="644"/>
+      <c r="C5" s="644"/>
       <c r="D5" s="41" t="s">
         <v>490</v>
       </c>
-      <c r="E5" s="592"/>
-      <c r="F5" s="592"/>
-      <c r="G5" s="592"/>
-      <c r="H5" s="592"/>
-      <c r="I5" s="595"/>
+      <c r="E5" s="644"/>
+      <c r="F5" s="644"/>
+      <c r="G5" s="644"/>
+      <c r="H5" s="644"/>
+      <c r="I5" s="647"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="B6" s="596"/>
-      <c r="C6" s="592"/>
+      <c r="B6" s="648"/>
+      <c r="C6" s="644"/>
       <c r="D6" s="41" t="s">
         <v>491</v>
       </c>
-      <c r="E6" s="592"/>
-      <c r="F6" s="592"/>
-      <c r="G6" s="592"/>
-      <c r="H6" s="592"/>
-      <c r="I6" s="595"/>
+      <c r="E6" s="644"/>
+      <c r="F6" s="644"/>
+      <c r="G6" s="644"/>
+      <c r="H6" s="644"/>
+      <c r="I6" s="647"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
@@ -24006,45 +23997,45 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="597" t="s">
+      <c r="A8" s="649" t="s">
         <v>500</v>
       </c>
-      <c r="B8" s="598"/>
-      <c r="C8" s="598"/>
-      <c r="D8" s="598"/>
-      <c r="E8" s="598"/>
-      <c r="F8" s="598"/>
-      <c r="G8" s="598"/>
-      <c r="H8" s="598"/>
-      <c r="I8" s="599"/>
+      <c r="B8" s="650"/>
+      <c r="C8" s="650"/>
+      <c r="D8" s="650"/>
+      <c r="E8" s="650"/>
+      <c r="F8" s="650"/>
+      <c r="G8" s="650"/>
+      <c r="H8" s="650"/>
+      <c r="I8" s="651"/>
     </row>
     <row r="9" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="600" t="s">
+      <c r="A9" s="652" t="s">
         <v>501</v>
       </c>
-      <c r="B9" s="601"/>
-      <c r="C9" s="601"/>
-      <c r="D9" s="601"/>
-      <c r="E9" s="601" t="s">
+      <c r="B9" s="653"/>
+      <c r="C9" s="653"/>
+      <c r="D9" s="653"/>
+      <c r="E9" s="653" t="s">
         <v>502</v>
       </c>
-      <c r="F9" s="601"/>
-      <c r="G9" s="601"/>
-      <c r="H9" s="601"/>
-      <c r="I9" s="602"/>
+      <c r="F9" s="653"/>
+      <c r="G9" s="653"/>
+      <c r="H9" s="653"/>
+      <c r="I9" s="654"/>
     </row>
     <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="587" t="s">
+      <c r="A10" s="629" t="s">
         <v>503</v>
       </c>
-      <c r="B10" s="588"/>
-      <c r="C10" s="588"/>
-      <c r="D10" s="588"/>
-      <c r="E10" s="588"/>
-      <c r="F10" s="588"/>
-      <c r="G10" s="588"/>
-      <c r="H10" s="588"/>
-      <c r="I10" s="589"/>
+      <c r="B10" s="630"/>
+      <c r="C10" s="630"/>
+      <c r="D10" s="630"/>
+      <c r="E10" s="630"/>
+      <c r="F10" s="630"/>
+      <c r="G10" s="630"/>
+      <c r="H10" s="630"/>
+      <c r="I10" s="631"/>
     </row>
     <row r="11" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="46" t="s">
@@ -24101,56 +24092,56 @@
       <c r="I12" s="49"/>
     </row>
     <row r="13" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="587" t="s">
+      <c r="A13" s="629" t="s">
         <v>519</v>
       </c>
-      <c r="B13" s="588"/>
-      <c r="C13" s="588"/>
-      <c r="D13" s="588"/>
-      <c r="E13" s="588"/>
-      <c r="F13" s="588"/>
-      <c r="G13" s="588"/>
-      <c r="H13" s="588"/>
-      <c r="I13" s="589"/>
+      <c r="B13" s="630"/>
+      <c r="C13" s="630"/>
+      <c r="D13" s="630"/>
+      <c r="E13" s="630"/>
+      <c r="F13" s="630"/>
+      <c r="G13" s="630"/>
+      <c r="H13" s="630"/>
+      <c r="I13" s="631"/>
     </row>
     <row r="14" spans="1:10" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="605" t="s">
+      <c r="A14" s="636" t="s">
         <v>520</v>
       </c>
-      <c r="B14" s="607" t="s">
+      <c r="B14" s="638" t="s">
         <v>521</v>
       </c>
-      <c r="C14" s="607" t="s">
+      <c r="C14" s="638" t="s">
         <v>522</v>
       </c>
-      <c r="D14" s="607" t="s">
+      <c r="D14" s="638" t="s">
         <v>523</v>
       </c>
       <c r="E14" s="47" t="s">
         <v>524</v>
       </c>
-      <c r="F14" s="609" t="s">
+      <c r="F14" s="640" t="s">
         <v>525</v>
       </c>
-      <c r="G14" s="604" t="s">
+      <c r="G14" s="632" t="s">
         <v>526</v>
       </c>
-      <c r="H14" s="604" t="s">
+      <c r="H14" s="632" t="s">
         <v>511</v>
       </c>
       <c r="I14" s="49"/>
     </row>
     <row r="15" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="606"/>
-      <c r="B15" s="608"/>
-      <c r="C15" s="608"/>
-      <c r="D15" s="608"/>
+      <c r="A15" s="637"/>
+      <c r="B15" s="639"/>
+      <c r="C15" s="639"/>
+      <c r="D15" s="639"/>
       <c r="E15" s="47" t="s">
         <v>527</v>
       </c>
-      <c r="F15" s="610"/>
-      <c r="G15" s="604"/>
-      <c r="H15" s="604"/>
+      <c r="F15" s="641"/>
+      <c r="G15" s="632"/>
+      <c r="H15" s="632"/>
       <c r="I15" s="49"/>
       <c r="J15" s="37"/>
     </row>
@@ -24173,47 +24164,47 @@
       <c r="F16" s="48" t="s">
         <v>525</v>
       </c>
-      <c r="G16" s="604"/>
-      <c r="H16" s="604"/>
+      <c r="G16" s="632"/>
+      <c r="H16" s="632"/>
       <c r="I16" s="49"/>
     </row>
     <row r="17" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="612" t="s">
+      <c r="A17" s="634" t="s">
         <v>530</v>
       </c>
-      <c r="B17" s="604" t="s">
+      <c r="B17" s="632" t="s">
         <v>531</v>
       </c>
-      <c r="C17" s="604" t="s">
+      <c r="C17" s="632" t="s">
         <v>532</v>
       </c>
       <c r="D17" s="54">
         <v>11.5</v>
       </c>
-      <c r="E17" s="604"/>
-      <c r="F17" s="603" t="s">
+      <c r="E17" s="632"/>
+      <c r="F17" s="635" t="s">
         <v>525</v>
       </c>
-      <c r="G17" s="604" t="s">
+      <c r="G17" s="632" t="s">
         <v>526</v>
       </c>
-      <c r="H17" s="604" t="s">
+      <c r="H17" s="632" t="s">
         <v>511</v>
       </c>
-      <c r="I17" s="611"/>
+      <c r="I17" s="633"/>
     </row>
     <row r="18" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="612"/>
-      <c r="B18" s="604"/>
-      <c r="C18" s="604"/>
+      <c r="A18" s="634"/>
+      <c r="B18" s="632"/>
+      <c r="C18" s="632"/>
       <c r="D18" s="54">
         <v>7.2</v>
       </c>
-      <c r="E18" s="604"/>
-      <c r="F18" s="603"/>
-      <c r="G18" s="604"/>
-      <c r="H18" s="604"/>
-      <c r="I18" s="611"/>
+      <c r="E18" s="632"/>
+      <c r="F18" s="635"/>
+      <c r="G18" s="632"/>
+      <c r="H18" s="632"/>
+      <c r="I18" s="633"/>
     </row>
     <row r="19" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="46" t="s">
@@ -24272,77 +24263,77 @@
       <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="587" t="s">
+      <c r="A21" s="629" t="s">
         <v>546</v>
       </c>
-      <c r="B21" s="588"/>
-      <c r="C21" s="588"/>
-      <c r="D21" s="588"/>
-      <c r="E21" s="588"/>
-      <c r="F21" s="588"/>
-      <c r="G21" s="588"/>
-      <c r="H21" s="588"/>
-      <c r="I21" s="589"/>
+      <c r="B21" s="630"/>
+      <c r="C21" s="630"/>
+      <c r="D21" s="630"/>
+      <c r="E21" s="630"/>
+      <c r="F21" s="630"/>
+      <c r="G21" s="630"/>
+      <c r="H21" s="630"/>
+      <c r="I21" s="631"/>
       <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="612" t="s">
+      <c r="A22" s="634" t="s">
         <v>547</v>
       </c>
       <c r="B22" s="47" t="s">
         <v>548</v>
       </c>
-      <c r="C22" s="604" t="s">
+      <c r="C22" s="632" t="s">
         <v>549</v>
       </c>
-      <c r="D22" s="604" t="s">
+      <c r="D22" s="632" t="s">
         <v>550</v>
       </c>
-      <c r="E22" s="604" t="s">
+      <c r="E22" s="632" t="s">
         <v>551</v>
       </c>
-      <c r="F22" s="603" t="s">
+      <c r="F22" s="635" t="s">
         <v>525</v>
       </c>
       <c r="G22" s="47" t="s">
         <v>552</v>
       </c>
-      <c r="H22" s="604" t="s">
+      <c r="H22" s="632" t="s">
         <v>511</v>
       </c>
-      <c r="I22" s="611"/>
+      <c r="I22" s="633"/>
       <c r="J22" s="37"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="612"/>
+      <c r="A23" s="634"/>
       <c r="B23" s="47" t="s">
         <v>553</v>
       </c>
-      <c r="C23" s="604"/>
-      <c r="D23" s="604"/>
-      <c r="E23" s="604"/>
-      <c r="F23" s="603"/>
+      <c r="C23" s="632"/>
+      <c r="D23" s="632"/>
+      <c r="E23" s="632"/>
+      <c r="F23" s="635"/>
       <c r="G23" s="47" t="s">
         <v>554</v>
       </c>
-      <c r="H23" s="604"/>
-      <c r="I23" s="611"/>
+      <c r="H23" s="632"/>
+      <c r="I23" s="633"/>
       <c r="J23" s="37"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="612"/>
+      <c r="A24" s="634"/>
       <c r="B24" s="47" t="s">
         <v>555</v>
       </c>
-      <c r="C24" s="604"/>
-      <c r="D24" s="604"/>
-      <c r="E24" s="604"/>
-      <c r="F24" s="603"/>
+      <c r="C24" s="632"/>
+      <c r="D24" s="632"/>
+      <c r="E24" s="632"/>
+      <c r="F24" s="635"/>
       <c r="G24" s="47" t="s">
         <v>556</v>
       </c>
-      <c r="H24" s="604"/>
-      <c r="I24" s="611"/>
+      <c r="H24" s="632"/>
+      <c r="I24" s="633"/>
       <c r="J24" s="37"/>
     </row>
     <row r="25" spans="1:10" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -24398,17 +24389,17 @@
       <c r="J26" s="37"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="587" t="s">
+      <c r="A27" s="629" t="s">
         <v>565</v>
       </c>
-      <c r="B27" s="588"/>
-      <c r="C27" s="588"/>
-      <c r="D27" s="588"/>
-      <c r="E27" s="588"/>
-      <c r="F27" s="588"/>
-      <c r="G27" s="588"/>
-      <c r="H27" s="588"/>
-      <c r="I27" s="589"/>
+      <c r="B27" s="630"/>
+      <c r="C27" s="630"/>
+      <c r="D27" s="630"/>
+      <c r="E27" s="630"/>
+      <c r="F27" s="630"/>
+      <c r="G27" s="630"/>
+      <c r="H27" s="630"/>
+      <c r="I27" s="631"/>
       <c r="J27" s="37"/>
     </row>
     <row r="28" spans="1:10" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -24688,17 +24679,17 @@
       <c r="J37" s="37"/>
     </row>
     <row r="38" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="587" t="s">
+      <c r="A38" s="629" t="s">
         <v>622</v>
       </c>
-      <c r="B38" s="588"/>
-      <c r="C38" s="588"/>
-      <c r="D38" s="588"/>
-      <c r="E38" s="588"/>
-      <c r="F38" s="588"/>
-      <c r="G38" s="588"/>
-      <c r="H38" s="588"/>
-      <c r="I38" s="589"/>
+      <c r="B38" s="630"/>
+      <c r="C38" s="630"/>
+      <c r="D38" s="630"/>
+      <c r="E38" s="630"/>
+      <c r="F38" s="630"/>
+      <c r="G38" s="630"/>
+      <c r="H38" s="630"/>
+      <c r="I38" s="631"/>
       <c r="J38" s="37"/>
     </row>
     <row r="39" spans="1:10" s="60" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -24894,6 +24885,28 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="A13:I13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
     <mergeCell ref="A27:I27"/>
     <mergeCell ref="A38:I38"/>
     <mergeCell ref="H17:H18"/>
@@ -24910,28 +24923,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="52" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -24960,22 +24951,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="613" t="s">
+      <c r="B1" s="655" t="s">
         <v>643</v>
       </c>
-      <c r="C1" s="614"/>
-      <c r="D1" s="614"/>
-      <c r="E1" s="615"/>
+      <c r="C1" s="656"/>
+      <c r="D1" s="656"/>
+      <c r="E1" s="657"/>
     </row>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="613" t="s">
+      <c r="B2" s="655" t="s">
         <v>644</v>
       </c>
-      <c r="C2" s="615"/>
-      <c r="D2" s="613" t="s">
+      <c r="C2" s="657"/>
+      <c r="D2" s="655" t="s">
         <v>645</v>
       </c>
-      <c r="E2" s="615"/>
+      <c r="E2" s="657"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="50" t="s">
@@ -25264,10 +25255,10 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="616" t="s">
+      <c r="C22" s="658" t="s">
         <v>648</v>
       </c>
-      <c r="D22" s="616"/>
+      <c r="D22" s="658"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C23" s="68" t="s">
@@ -25299,6 +25290,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="caa1a5c2-8087-47fa-95cc-88f3493687aa">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <Level1 xmlns="caa1a5c2-8087-47fa-95cc-88f3493687aa">32</Level1>
+    <Stage xmlns="caa1a5c2-8087-47fa-95cc-88f3493687aa">6</Stage>
+    <BusinessOwner xmlns="caa1a5c2-8087-47fa-95cc-88f3493687aa">
+      <UserInfo>
+        <DisplayName>Daniel Ludemann</DisplayName>
+        <AccountId>67</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </BusinessOwner>
+    <DocumentReferencing xmlns="caa1a5c2-8087-47fa-95cc-88f3493687aa">Pavement Renewal ITP finalised for IDC tenders.</DocumentReferencing>
+    <Level2 xmlns="caa1a5c2-8087-47fa-95cc-88f3493687aa">93</Level2>
+    <TaxCatchAll xmlns="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CC2465FE7E4E86469D71D1DC0B5C34BA" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3d0b38e3287e025456a855630572407b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="caa1a5c2-8087-47fa-95cc-88f3493687aa" xmlns:ns3="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3288a31f9c6c871e0586ca4470a40301" ns2:_="" ns3:_="">
     <xsd:import namespace="caa1a5c2-8087-47fa-95cc-88f3493687aa"/>
@@ -25545,38 +25567,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="caa1a5c2-8087-47fa-95cc-88f3493687aa">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <Level1 xmlns="caa1a5c2-8087-47fa-95cc-88f3493687aa">32</Level1>
-    <Stage xmlns="caa1a5c2-8087-47fa-95cc-88f3493687aa">6</Stage>
-    <BusinessOwner xmlns="caa1a5c2-8087-47fa-95cc-88f3493687aa">
-      <UserInfo>
-        <DisplayName>Daniel Ludemann</DisplayName>
-        <AccountId>67</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </BusinessOwner>
-    <DocumentReferencing xmlns="caa1a5c2-8087-47fa-95cc-88f3493687aa">Pavement Renewal ITP finalised for IDC tenders.</DocumentReferencing>
-    <Level2 xmlns="caa1a5c2-8087-47fa-95cc-88f3493687aa">93</Level2>
-    <TaxCatchAll xmlns="db50d7e9-ed42-42fb-ade4-11fb6fb5c797" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{331C8163-9D2F-4E95-8055-EDCA1C621485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8568592A-71AA-407E-918C-7103E93FD9C3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="caa1a5c2-8087-47fa-95cc-88f3493687aa"/>
+    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22F72384-0C99-4F8D-940C-CED1C9820599}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25593,23 +25603,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8568592A-71AA-407E-918C-7103E93FD9C3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="caa1a5c2-8087-47fa-95cc-88f3493687aa"/>
-    <ds:schemaRef ds:uri="db50d7e9-ed42-42fb-ade4-11fb6fb5c797"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{331C8163-9D2F-4E95-8055-EDCA1C621485}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>